--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PythonProjects\FinnishWordsLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD6C7B7-40E0-4CCD-89DC-A77F218C1EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0614F416-0B3F-417A-A6CC-9835A4B2F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>jotka</t>
   </si>
   <si>
-    <t>who, that, which (relative)</t>
-  </si>
-  <si>
     <t>jossa</t>
   </si>
   <si>
@@ -4136,6 +4133,9 @@
   </si>
   <si>
     <t>Danish pastry</t>
+  </si>
+  <si>
+    <t>who/that/which (relative)</t>
   </si>
 </sst>
 </file>
@@ -4501,7 +4501,7 @@
   <dimension ref="A1:C704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1371</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4634,10 +4634,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4700,10 +4700,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4711,10 +4711,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4799,10 +4799,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4887,10 +4887,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -4953,10 +4953,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -4975,10 +4975,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -5129,10 +5129,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -5162,10 +5162,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -5173,10 +5173,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -5228,10 +5228,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -5283,10 +5283,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -5382,10 +5382,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
       <c r="C84">
         <v>13</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
       </c>
       <c r="C85">
         <v>13</v>
@@ -5448,10 +5448,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
       </c>
       <c r="C86">
         <v>13</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
       </c>
       <c r="C87">
         <v>13</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
       </c>
       <c r="C88">
         <v>13</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
       </c>
       <c r="C89">
         <v>13</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
         <v>176</v>
-      </c>
-      <c r="B90" t="s">
-        <v>177</v>
       </c>
       <c r="C90">
         <v>13</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
         <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>179</v>
       </c>
       <c r="C91">
         <v>13</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
         <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
       </c>
       <c r="C92">
         <v>13</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
         <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
         <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>185</v>
       </c>
       <c r="C94">
         <v>13</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
         <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>187</v>
       </c>
       <c r="C95">
         <v>13</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
       </c>
       <c r="C96">
         <v>13</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>191</v>
       </c>
       <c r="C97">
         <v>13</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" t="s">
-        <v>193</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
         <v>194</v>
-      </c>
-      <c r="B99" t="s">
-        <v>195</v>
       </c>
       <c r="C99">
         <v>13</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
         <v>196</v>
-      </c>
-      <c r="B100" t="s">
-        <v>197</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
         <v>198</v>
-      </c>
-      <c r="B101" t="s">
-        <v>199</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
         <v>200</v>
-      </c>
-      <c r="B102" t="s">
-        <v>201</v>
       </c>
       <c r="C102">
         <v>13</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
         <v>202</v>
-      </c>
-      <c r="B103" t="s">
-        <v>203</v>
       </c>
       <c r="C103">
         <v>13</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
         <v>204</v>
-      </c>
-      <c r="B104" t="s">
-        <v>205</v>
       </c>
       <c r="C104">
         <v>13</v>
@@ -5657,10 +5657,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
         <v>206</v>
-      </c>
-      <c r="B105" t="s">
-        <v>207</v>
       </c>
       <c r="C105">
         <v>13</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
         <v>208</v>
-      </c>
-      <c r="B106" t="s">
-        <v>209</v>
       </c>
       <c r="C106">
         <v>13</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" t="s">
         <v>210</v>
-      </c>
-      <c r="B107" t="s">
-        <v>211</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" t="s">
         <v>212</v>
-      </c>
-      <c r="B108" t="s">
-        <v>213</v>
       </c>
       <c r="C108">
         <v>13</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" t="s">
-        <v>215</v>
       </c>
       <c r="C109">
         <v>13</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
         <v>216</v>
-      </c>
-      <c r="B110" t="s">
-        <v>217</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" t="s">
         <v>218</v>
-      </c>
-      <c r="B111" t="s">
-        <v>219</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
         <v>220</v>
-      </c>
-      <c r="B112" t="s">
-        <v>221</v>
       </c>
       <c r="C112">
         <v>13</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
         <v>222</v>
-      </c>
-      <c r="B113" t="s">
-        <v>223</v>
       </c>
       <c r="C113">
         <v>13</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
         <v>224</v>
-      </c>
-      <c r="B114" t="s">
-        <v>225</v>
       </c>
       <c r="C114">
         <v>13</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
         <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>227</v>
       </c>
       <c r="C115">
         <v>13</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
         <v>228</v>
-      </c>
-      <c r="B116" t="s">
-        <v>229</v>
       </c>
       <c r="C116">
         <v>13</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
         <v>230</v>
-      </c>
-      <c r="B117" t="s">
-        <v>231</v>
       </c>
       <c r="C117">
         <v>13</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
         <v>232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>233</v>
       </c>
       <c r="C118">
         <v>13</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
         <v>234</v>
-      </c>
-      <c r="B119" t="s">
-        <v>235</v>
       </c>
       <c r="C119">
         <v>13</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
         <v>236</v>
-      </c>
-      <c r="B120" t="s">
-        <v>237</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
         <v>238</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
       </c>
       <c r="C121">
         <v>13</v>
@@ -5844,10 +5844,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
         <v>240</v>
-      </c>
-      <c r="B122" t="s">
-        <v>241</v>
       </c>
       <c r="C122">
         <v>13</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
         <v>242</v>
-      </c>
-      <c r="B123" t="s">
-        <v>243</v>
       </c>
       <c r="C123">
         <v>13</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
         <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>245</v>
       </c>
       <c r="C124">
         <v>13</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
         <v>246</v>
-      </c>
-      <c r="B125" t="s">
-        <v>247</v>
       </c>
       <c r="C125">
         <v>13</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" t="s">
-        <v>249</v>
       </c>
       <c r="C126">
         <v>13</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>251</v>
       </c>
       <c r="C127">
         <v>13</v>
@@ -5910,10 +5910,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
       </c>
       <c r="C128">
         <v>13</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
       </c>
       <c r="C129">
         <v>13</v>
@@ -5932,10 +5932,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
       </c>
       <c r="C130">
         <v>13</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
       </c>
       <c r="C131">
         <v>13</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" t="s">
-        <v>261</v>
       </c>
       <c r="C132">
         <v>13</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134">
         <v>13</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
         <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>266</v>
       </c>
       <c r="C135">
         <v>13</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
         <v>267</v>
-      </c>
-      <c r="B136" t="s">
-        <v>268</v>
       </c>
       <c r="C136">
         <v>13</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
         <v>269</v>
-      </c>
-      <c r="B137" t="s">
-        <v>270</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -6020,10 +6020,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
         <v>271</v>
-      </c>
-      <c r="B138" t="s">
-        <v>272</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
         <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
         <v>275</v>
-      </c>
-      <c r="B140" t="s">
-        <v>276</v>
       </c>
       <c r="C140">
         <v>13</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
         <v>277</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
       </c>
       <c r="C141">
         <v>13</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
         <v>279</v>
-      </c>
-      <c r="B142" t="s">
-        <v>280</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
         <v>281</v>
-      </c>
-      <c r="B143" t="s">
-        <v>282</v>
       </c>
       <c r="C143">
         <v>13</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
         <v>283</v>
-      </c>
-      <c r="B144" t="s">
-        <v>284</v>
       </c>
       <c r="C144">
         <v>13</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
         <v>285</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
       </c>
       <c r="C145">
         <v>13</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" t="s">
         <v>287</v>
-      </c>
-      <c r="B146" t="s">
-        <v>288</v>
       </c>
       <c r="C146">
         <v>13</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" t="s">
         <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
       </c>
       <c r="C147">
         <v>13</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" t="s">
         <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>292</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
         <v>293</v>
-      </c>
-      <c r="B149" t="s">
-        <v>294</v>
       </c>
       <c r="C149">
         <v>13</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" t="s">
         <v>295</v>
-      </c>
-      <c r="B150" t="s">
-        <v>296</v>
       </c>
       <c r="C150">
         <v>13</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C151">
         <v>13</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" t="s">
         <v>298</v>
-      </c>
-      <c r="B152" t="s">
-        <v>299</v>
       </c>
       <c r="C152">
         <v>13</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" t="s">
         <v>300</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
       </c>
       <c r="C153">
         <v>13</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" t="s">
         <v>302</v>
-      </c>
-      <c r="B154" t="s">
-        <v>303</v>
       </c>
       <c r="C154">
         <v>13</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" t="s">
         <v>304</v>
-      </c>
-      <c r="B155" t="s">
-        <v>305</v>
       </c>
       <c r="C155">
         <v>13</v>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" t="s">
         <v>306</v>
-      </c>
-      <c r="B156" t="s">
-        <v>307</v>
       </c>
       <c r="C156">
         <v>13</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
         <v>308</v>
-      </c>
-      <c r="B157" t="s">
-        <v>309</v>
       </c>
       <c r="C157">
         <v>13</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
         <v>310</v>
-      </c>
-      <c r="B158" t="s">
-        <v>311</v>
       </c>
       <c r="C158">
         <v>13</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
         <v>312</v>
-      </c>
-      <c r="B159" t="s">
-        <v>313</v>
       </c>
       <c r="C159">
         <v>13</v>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
         <v>314</v>
-      </c>
-      <c r="B160" t="s">
-        <v>315</v>
       </c>
       <c r="C160">
         <v>13</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
         <v>316</v>
-      </c>
-      <c r="B161" t="s">
-        <v>317</v>
       </c>
       <c r="C161">
         <v>13</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
         <v>318</v>
-      </c>
-      <c r="B162" t="s">
-        <v>319</v>
       </c>
       <c r="C162">
         <v>13</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
         <v>320</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
       </c>
       <c r="C163">
         <v>13</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
         <v>322</v>
-      </c>
-      <c r="B164" t="s">
-        <v>323</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
         <v>324</v>
-      </c>
-      <c r="B165" t="s">
-        <v>325</v>
       </c>
       <c r="C165">
         <v>13</v>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
         <v>326</v>
-      </c>
-      <c r="B166" t="s">
-        <v>327</v>
       </c>
       <c r="C166">
         <v>13</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
         <v>328</v>
-      </c>
-      <c r="B167" t="s">
-        <v>329</v>
       </c>
       <c r="C167">
         <v>13</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
         <v>330</v>
-      </c>
-      <c r="B168" t="s">
-        <v>331</v>
       </c>
       <c r="C168">
         <v>13</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
         <v>332</v>
-      </c>
-      <c r="B169" t="s">
-        <v>333</v>
       </c>
       <c r="C169">
         <v>13</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
         <v>334</v>
-      </c>
-      <c r="B170" t="s">
-        <v>335</v>
       </c>
       <c r="C170">
         <v>13</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
         <v>336</v>
-      </c>
-      <c r="B171" t="s">
-        <v>337</v>
       </c>
       <c r="C171">
         <v>13</v>
@@ -6394,10 +6394,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
         <v>338</v>
-      </c>
-      <c r="B172" t="s">
-        <v>339</v>
       </c>
       <c r="C172">
         <v>13</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
         <v>340</v>
-      </c>
-      <c r="B173" t="s">
-        <v>341</v>
       </c>
       <c r="C173">
         <v>13</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
         <v>342</v>
-      </c>
-      <c r="B174" t="s">
-        <v>343</v>
       </c>
       <c r="C174">
         <v>13</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
         <v>344</v>
-      </c>
-      <c r="B175" t="s">
-        <v>345</v>
       </c>
       <c r="C175">
         <v>13</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" t="s">
         <v>346</v>
-      </c>
-      <c r="B176" t="s">
-        <v>347</v>
       </c>
       <c r="C176">
         <v>13</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
         <v>348</v>
-      </c>
-      <c r="B177" t="s">
-        <v>349</v>
       </c>
       <c r="C177">
         <v>13</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" t="s">
         <v>350</v>
-      </c>
-      <c r="B178" t="s">
-        <v>351</v>
       </c>
       <c r="C178">
         <v>13</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
         <v>352</v>
-      </c>
-      <c r="B179" t="s">
-        <v>353</v>
       </c>
       <c r="C179">
         <v>13</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" t="s">
         <v>354</v>
-      </c>
-      <c r="B180" t="s">
-        <v>355</v>
       </c>
       <c r="C180">
         <v>13</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" t="s">
         <v>356</v>
-      </c>
-      <c r="B181" t="s">
-        <v>357</v>
       </c>
       <c r="C181">
         <v>13</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" t="s">
         <v>358</v>
-      </c>
-      <c r="B182" t="s">
-        <v>359</v>
       </c>
       <c r="C182">
         <v>13</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" t="s">
         <v>360</v>
-      </c>
-      <c r="B183" t="s">
-        <v>361</v>
       </c>
       <c r="C183">
         <v>13</v>
@@ -6526,10 +6526,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" t="s">
         <v>362</v>
-      </c>
-      <c r="B184" t="s">
-        <v>363</v>
       </c>
       <c r="C184">
         <v>13</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" t="s">
         <v>364</v>
-      </c>
-      <c r="B185" t="s">
-        <v>365</v>
       </c>
       <c r="C185">
         <v>13</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
         <v>366</v>
-      </c>
-      <c r="B186" t="s">
-        <v>367</v>
       </c>
       <c r="C186">
         <v>13</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
         <v>368</v>
-      </c>
-      <c r="B187" t="s">
-        <v>369</v>
       </c>
       <c r="C187">
         <v>13</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" t="s">
         <v>370</v>
-      </c>
-      <c r="B188" t="s">
-        <v>371</v>
       </c>
       <c r="C188">
         <v>13</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" t="s">
         <v>372</v>
-      </c>
-      <c r="B189" t="s">
-        <v>373</v>
       </c>
       <c r="C189">
         <v>13</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" t="s">
         <v>374</v>
-      </c>
-      <c r="B190" t="s">
-        <v>375</v>
       </c>
       <c r="C190">
         <v>13</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" t="s">
         <v>376</v>
-      </c>
-      <c r="B191" t="s">
-        <v>377</v>
       </c>
       <c r="C191">
         <v>13</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
         <v>378</v>
-      </c>
-      <c r="B192" t="s">
-        <v>379</v>
       </c>
       <c r="C192">
         <v>13</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" t="s">
         <v>380</v>
-      </c>
-      <c r="B193" t="s">
-        <v>381</v>
       </c>
       <c r="C193">
         <v>13</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" t="s">
         <v>382</v>
-      </c>
-      <c r="B194" t="s">
-        <v>383</v>
       </c>
       <c r="C194">
         <v>13</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
         <v>384</v>
-      </c>
-      <c r="B195" t="s">
-        <v>385</v>
       </c>
       <c r="C195">
         <v>13</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" t="s">
         <v>386</v>
-      </c>
-      <c r="B196" t="s">
-        <v>387</v>
       </c>
       <c r="C196">
         <v>13</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C197">
         <v>13</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" t="s">
         <v>389</v>
-      </c>
-      <c r="B198" t="s">
-        <v>390</v>
       </c>
       <c r="C198">
         <v>13</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" t="s">
         <v>391</v>
-      </c>
-      <c r="B199" t="s">
-        <v>392</v>
       </c>
       <c r="C199">
         <v>13</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" t="s">
         <v>393</v>
-      </c>
-      <c r="B200" t="s">
-        <v>394</v>
       </c>
       <c r="C200">
         <v>13</v>
@@ -6713,10 +6713,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" t="s">
         <v>395</v>
-      </c>
-      <c r="B201" t="s">
-        <v>396</v>
       </c>
       <c r="C201">
         <v>13</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" t="s">
         <v>397</v>
-      </c>
-      <c r="B202" t="s">
-        <v>398</v>
       </c>
       <c r="C202">
         <v>13</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" t="s">
         <v>399</v>
-      </c>
-      <c r="B203" t="s">
-        <v>400</v>
       </c>
       <c r="C203">
         <v>13</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" t="s">
         <v>401</v>
-      </c>
-      <c r="B204" t="s">
-        <v>402</v>
       </c>
       <c r="C204">
         <v>13</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" t="s">
         <v>403</v>
-      </c>
-      <c r="B205" t="s">
-        <v>404</v>
       </c>
       <c r="C205">
         <v>13</v>
@@ -6768,10 +6768,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" t="s">
         <v>405</v>
-      </c>
-      <c r="B206" t="s">
-        <v>406</v>
       </c>
       <c r="C206">
         <v>13</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" t="s">
         <v>407</v>
-      </c>
-      <c r="B207" t="s">
-        <v>408</v>
       </c>
       <c r="C207">
         <v>13</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" t="s">
-        <v>410</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" t="s">
         <v>411</v>
-      </c>
-      <c r="B209" t="s">
-        <v>412</v>
       </c>
       <c r="C209">
         <v>13</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" t="s">
         <v>413</v>
-      </c>
-      <c r="B210" t="s">
-        <v>414</v>
       </c>
       <c r="C210">
         <v>13</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" t="s">
         <v>415</v>
-      </c>
-      <c r="B211" t="s">
-        <v>416</v>
       </c>
       <c r="C211">
         <v>13</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" t="s">
         <v>417</v>
-      </c>
-      <c r="B212" t="s">
-        <v>418</v>
       </c>
       <c r="C212">
         <v>13</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" t="s">
         <v>419</v>
-      </c>
-      <c r="B213" t="s">
-        <v>420</v>
       </c>
       <c r="C213">
         <v>13</v>
@@ -6856,10 +6856,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" t="s">
         <v>421</v>
-      </c>
-      <c r="B214" t="s">
-        <v>422</v>
       </c>
       <c r="C214">
         <v>13</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>422</v>
+      </c>
+      <c r="B215" t="s">
         <v>423</v>
-      </c>
-      <c r="B215" t="s">
-        <v>424</v>
       </c>
       <c r="C215">
         <v>13</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>424</v>
+      </c>
+      <c r="B216" t="s">
         <v>425</v>
-      </c>
-      <c r="B216" t="s">
-        <v>426</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" t="s">
         <v>427</v>
-      </c>
-      <c r="B217" t="s">
-        <v>428</v>
       </c>
       <c r="C217">
         <v>13</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C218">
         <v>13</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>429</v>
+      </c>
+      <c r="B219" t="s">
         <v>430</v>
-      </c>
-      <c r="B219" t="s">
-        <v>431</v>
       </c>
       <c r="C219">
         <v>13</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" t="s">
         <v>432</v>
-      </c>
-      <c r="B220" t="s">
-        <v>433</v>
       </c>
       <c r="C220">
         <v>13</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" t="s">
         <v>434</v>
-      </c>
-      <c r="B221" t="s">
-        <v>435</v>
       </c>
       <c r="C221">
         <v>13</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" t="s">
         <v>436</v>
-      </c>
-      <c r="B222" t="s">
-        <v>437</v>
       </c>
       <c r="C222">
         <v>13</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" t="s">
         <v>438</v>
-      </c>
-      <c r="B223" t="s">
-        <v>439</v>
       </c>
       <c r="C223">
         <v>13</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" t="s">
         <v>440</v>
-      </c>
-      <c r="B224" t="s">
-        <v>441</v>
       </c>
       <c r="C224">
         <v>13</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
         <v>442</v>
-      </c>
-      <c r="B225" t="s">
-        <v>443</v>
       </c>
       <c r="C225">
         <v>13</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
         <v>444</v>
-      </c>
-      <c r="B226" t="s">
-        <v>445</v>
       </c>
       <c r="C226">
         <v>13</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227" t="s">
         <v>446</v>
-      </c>
-      <c r="B227" t="s">
-        <v>447</v>
       </c>
       <c r="C227">
         <v>13</v>
@@ -7010,10 +7010,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" t="s">
         <v>448</v>
-      </c>
-      <c r="B228" t="s">
-        <v>449</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" t="s">
         <v>450</v>
-      </c>
-      <c r="B229" t="s">
-        <v>451</v>
       </c>
       <c r="C229">
         <v>13</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
         <v>452</v>
-      </c>
-      <c r="B230" t="s">
-        <v>453</v>
       </c>
       <c r="C230">
         <v>13</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
         <v>454</v>
-      </c>
-      <c r="B231" t="s">
-        <v>455</v>
       </c>
       <c r="C231">
         <v>13</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
         <v>456</v>
-      </c>
-      <c r="B232" t="s">
-        <v>457</v>
       </c>
       <c r="C232">
         <v>13</v>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" t="s">
         <v>458</v>
-      </c>
-      <c r="B233" t="s">
-        <v>459</v>
       </c>
       <c r="C233">
         <v>13</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" t="s">
         <v>460</v>
-      </c>
-      <c r="B234" t="s">
-        <v>461</v>
       </c>
       <c r="C234">
         <v>13</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
         <v>462</v>
-      </c>
-      <c r="B235" t="s">
-        <v>463</v>
       </c>
       <c r="C235">
         <v>13</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
         <v>464</v>
-      </c>
-      <c r="B236" t="s">
-        <v>465</v>
       </c>
       <c r="C236">
         <v>13</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>465</v>
+      </c>
+      <c r="B237" t="s">
         <v>466</v>
-      </c>
-      <c r="B237" t="s">
-        <v>467</v>
       </c>
       <c r="C237">
         <v>13</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>467</v>
+      </c>
+      <c r="B238" t="s">
         <v>468</v>
-      </c>
-      <c r="B238" t="s">
-        <v>469</v>
       </c>
       <c r="C238">
         <v>13</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" t="s">
         <v>470</v>
-      </c>
-      <c r="B239" t="s">
-        <v>471</v>
       </c>
       <c r="C239">
         <v>13</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>471</v>
+      </c>
+      <c r="B240" t="s">
         <v>472</v>
-      </c>
-      <c r="B240" t="s">
-        <v>473</v>
       </c>
       <c r="C240">
         <v>13</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" t="s">
         <v>474</v>
-      </c>
-      <c r="B241" t="s">
-        <v>475</v>
       </c>
       <c r="C241">
         <v>13</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>475</v>
+      </c>
+      <c r="B242" t="s">
         <v>476</v>
-      </c>
-      <c r="B242" t="s">
-        <v>477</v>
       </c>
       <c r="C242">
         <v>13</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>477</v>
+      </c>
+      <c r="B243" t="s">
         <v>478</v>
-      </c>
-      <c r="B243" t="s">
-        <v>479</v>
       </c>
       <c r="C243">
         <v>13</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>479</v>
+      </c>
+      <c r="B244" t="s">
         <v>480</v>
-      </c>
-      <c r="B244" t="s">
-        <v>481</v>
       </c>
       <c r="C244">
         <v>13</v>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>481</v>
+      </c>
+      <c r="B245" t="s">
         <v>482</v>
-      </c>
-      <c r="B245" t="s">
-        <v>483</v>
       </c>
       <c r="C245">
         <v>13</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>483</v>
+      </c>
+      <c r="B246" t="s">
         <v>484</v>
-      </c>
-      <c r="B246" t="s">
-        <v>485</v>
       </c>
       <c r="C246">
         <v>13</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>485</v>
+      </c>
+      <c r="B247" t="s">
         <v>486</v>
-      </c>
-      <c r="B247" t="s">
-        <v>487</v>
       </c>
       <c r="C247">
         <v>13</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B248" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C248">
         <v>13</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>489</v>
+      </c>
+      <c r="B249" t="s">
         <v>490</v>
-      </c>
-      <c r="B249" t="s">
-        <v>491</v>
       </c>
       <c r="C249">
         <v>13</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>491</v>
+      </c>
+      <c r="B250" t="s">
         <v>492</v>
-      </c>
-      <c r="B250" t="s">
-        <v>493</v>
       </c>
       <c r="C250">
         <v>13</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>493</v>
+      </c>
+      <c r="B251" t="s">
         <v>494</v>
-      </c>
-      <c r="B251" t="s">
-        <v>495</v>
       </c>
       <c r="C251">
         <v>13</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" t="s">
         <v>496</v>
-      </c>
-      <c r="B252" t="s">
-        <v>497</v>
       </c>
       <c r="C252">
         <v>13</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>497</v>
+      </c>
+      <c r="B253" t="s">
         <v>498</v>
-      </c>
-      <c r="B253" t="s">
-        <v>499</v>
       </c>
       <c r="C253">
         <v>13</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>499</v>
+      </c>
+      <c r="B254" t="s">
         <v>500</v>
-      </c>
-      <c r="B254" t="s">
-        <v>501</v>
       </c>
       <c r="C254">
         <v>13</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>501</v>
+      </c>
+      <c r="B255" t="s">
         <v>502</v>
-      </c>
-      <c r="B255" t="s">
-        <v>503</v>
       </c>
       <c r="C255">
         <v>13</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" t="s">
         <v>504</v>
-      </c>
-      <c r="B256" t="s">
-        <v>505</v>
       </c>
       <c r="C256">
         <v>13</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>505</v>
+      </c>
+      <c r="B257" t="s">
         <v>506</v>
-      </c>
-      <c r="B257" t="s">
-        <v>507</v>
       </c>
       <c r="C257">
         <v>13</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>507</v>
+      </c>
+      <c r="B258" t="s">
         <v>508</v>
-      </c>
-      <c r="B258" t="s">
-        <v>509</v>
       </c>
       <c r="C258">
         <v>13</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>509</v>
+      </c>
+      <c r="B259" t="s">
         <v>510</v>
-      </c>
-      <c r="B259" t="s">
-        <v>511</v>
       </c>
       <c r="C259">
         <v>13</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>511</v>
+      </c>
+      <c r="B260" t="s">
         <v>512</v>
-      </c>
-      <c r="B260" t="s">
-        <v>513</v>
       </c>
       <c r="C260">
         <v>13</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>513</v>
+      </c>
+      <c r="B261" t="s">
         <v>514</v>
-      </c>
-      <c r="B261" t="s">
-        <v>515</v>
       </c>
       <c r="C261">
         <v>13</v>
@@ -7384,10 +7384,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>515</v>
+      </c>
+      <c r="B262" t="s">
         <v>516</v>
-      </c>
-      <c r="B262" t="s">
-        <v>517</v>
       </c>
       <c r="C262">
         <v>13</v>
@@ -7395,10 +7395,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>517</v>
+      </c>
+      <c r="B263" t="s">
         <v>518</v>
-      </c>
-      <c r="B263" t="s">
-        <v>519</v>
       </c>
       <c r="C263">
         <v>13</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>519</v>
+      </c>
+      <c r="B264" t="s">
         <v>520</v>
-      </c>
-      <c r="B264" t="s">
-        <v>521</v>
       </c>
       <c r="C264">
         <v>13</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" t="s">
         <v>522</v>
-      </c>
-      <c r="B265" t="s">
-        <v>523</v>
       </c>
       <c r="C265">
         <v>13</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" t="s">
         <v>524</v>
-      </c>
-      <c r="B266" t="s">
-        <v>525</v>
       </c>
       <c r="C266">
         <v>13</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" t="s">
         <v>526</v>
-      </c>
-      <c r="B267" t="s">
-        <v>527</v>
       </c>
       <c r="C267">
         <v>13</v>
@@ -7450,10 +7450,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>527</v>
+      </c>
+      <c r="B268" t="s">
         <v>528</v>
-      </c>
-      <c r="B268" t="s">
-        <v>529</v>
       </c>
       <c r="C268">
         <v>13</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" t="s">
         <v>530</v>
-      </c>
-      <c r="B269" t="s">
-        <v>531</v>
       </c>
       <c r="C269">
         <v>13</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>531</v>
+      </c>
+      <c r="B270" t="s">
         <v>532</v>
-      </c>
-      <c r="B270" t="s">
-        <v>533</v>
       </c>
       <c r="C270">
         <v>13</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" t="s">
         <v>534</v>
-      </c>
-      <c r="B271" t="s">
-        <v>535</v>
       </c>
       <c r="C271">
         <v>13</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B272" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C272">
         <v>13</v>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" t="s">
         <v>537</v>
-      </c>
-      <c r="B273" t="s">
-        <v>538</v>
       </c>
       <c r="C273">
         <v>13</v>
@@ -7516,10 +7516,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" t="s">
         <v>539</v>
-      </c>
-      <c r="B274" t="s">
-        <v>540</v>
       </c>
       <c r="C274">
         <v>13</v>
@@ -7527,10 +7527,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" t="s">
         <v>541</v>
-      </c>
-      <c r="B275" t="s">
-        <v>542</v>
       </c>
       <c r="C275">
         <v>13</v>
@@ -7538,10 +7538,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B276" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C276">
         <v>13</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" t="s">
         <v>544</v>
-      </c>
-      <c r="B277" t="s">
-        <v>545</v>
       </c>
       <c r="C277">
         <v>13</v>
@@ -7560,10 +7560,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278" t="s">
         <v>546</v>
-      </c>
-      <c r="B278" t="s">
-        <v>547</v>
       </c>
       <c r="C278">
         <v>13</v>
@@ -7571,10 +7571,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" t="s">
         <v>548</v>
-      </c>
-      <c r="B279" t="s">
-        <v>549</v>
       </c>
       <c r="C279">
         <v>13</v>
@@ -7582,10 +7582,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" t="s">
         <v>550</v>
-      </c>
-      <c r="B280" t="s">
-        <v>551</v>
       </c>
       <c r="C280">
         <v>13</v>
@@ -7593,10 +7593,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>551</v>
+      </c>
+      <c r="B281" t="s">
         <v>552</v>
-      </c>
-      <c r="B281" t="s">
-        <v>553</v>
       </c>
       <c r="C281">
         <v>13</v>
@@ -7604,10 +7604,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>553</v>
+      </c>
+      <c r="B282" t="s">
         <v>554</v>
-      </c>
-      <c r="B282" t="s">
-        <v>555</v>
       </c>
       <c r="C282">
         <v>13</v>
@@ -7615,10 +7615,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B283" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C283">
         <v>13</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>556</v>
+      </c>
+      <c r="B284" t="s">
         <v>557</v>
-      </c>
-      <c r="B284" t="s">
-        <v>558</v>
       </c>
       <c r="C284">
         <v>14</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>558</v>
+      </c>
+      <c r="B285" t="s">
         <v>559</v>
-      </c>
-      <c r="B285" t="s">
-        <v>560</v>
       </c>
       <c r="C285">
         <v>14</v>
@@ -7648,10 +7648,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>560</v>
+      </c>
+      <c r="B286" t="s">
         <v>561</v>
-      </c>
-      <c r="B286" t="s">
-        <v>562</v>
       </c>
       <c r="C286">
         <v>14</v>
@@ -7659,10 +7659,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>562</v>
+      </c>
+      <c r="B287" t="s">
         <v>563</v>
-      </c>
-      <c r="B287" t="s">
-        <v>564</v>
       </c>
       <c r="C287">
         <v>14</v>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>564</v>
+      </c>
+      <c r="B288" t="s">
         <v>565</v>
-      </c>
-      <c r="B288" t="s">
-        <v>566</v>
       </c>
       <c r="C288">
         <v>14</v>
@@ -7681,10 +7681,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>566</v>
+      </c>
+      <c r="B289" t="s">
         <v>567</v>
-      </c>
-      <c r="B289" t="s">
-        <v>568</v>
       </c>
       <c r="C289">
         <v>14</v>
@@ -7692,10 +7692,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>568</v>
+      </c>
+      <c r="B290" t="s">
         <v>569</v>
-      </c>
-      <c r="B290" t="s">
-        <v>570</v>
       </c>
       <c r="C290">
         <v>14</v>
@@ -7703,10 +7703,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>570</v>
+      </c>
+      <c r="B291" t="s">
         <v>571</v>
-      </c>
-      <c r="B291" t="s">
-        <v>572</v>
       </c>
       <c r="C291">
         <v>14</v>
@@ -7714,10 +7714,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" t="s">
         <v>573</v>
-      </c>
-      <c r="B292" t="s">
-        <v>574</v>
       </c>
       <c r="C292">
         <v>14</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>574</v>
+      </c>
+      <c r="B293" t="s">
         <v>575</v>
-      </c>
-      <c r="B293" t="s">
-        <v>576</v>
       </c>
       <c r="C293">
         <v>14</v>
@@ -7736,10 +7736,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>576</v>
+      </c>
+      <c r="B294" t="s">
         <v>577</v>
-      </c>
-      <c r="B294" t="s">
-        <v>578</v>
       </c>
       <c r="C294">
         <v>14</v>
@@ -7747,10 +7747,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>578</v>
+      </c>
+      <c r="B295" t="s">
         <v>579</v>
-      </c>
-      <c r="B295" t="s">
-        <v>580</v>
       </c>
       <c r="C295">
         <v>14</v>
@@ -7758,10 +7758,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>580</v>
+      </c>
+      <c r="B296" t="s">
         <v>581</v>
-      </c>
-      <c r="B296" t="s">
-        <v>582</v>
       </c>
       <c r="C296">
         <v>14</v>
@@ -7769,10 +7769,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>582</v>
+      </c>
+      <c r="B297" t="s">
         <v>583</v>
-      </c>
-      <c r="B297" t="s">
-        <v>584</v>
       </c>
       <c r="C297">
         <v>14</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>584</v>
+      </c>
+      <c r="B298" t="s">
         <v>585</v>
-      </c>
-      <c r="B298" t="s">
-        <v>586</v>
       </c>
       <c r="C298">
         <v>14</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>586</v>
+      </c>
+      <c r="B299" t="s">
         <v>587</v>
-      </c>
-      <c r="B299" t="s">
-        <v>588</v>
       </c>
       <c r="C299">
         <v>14</v>
@@ -7802,10 +7802,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>588</v>
+      </c>
+      <c r="B300" t="s">
         <v>589</v>
-      </c>
-      <c r="B300" t="s">
-        <v>590</v>
       </c>
       <c r="C300">
         <v>14</v>
@@ -7813,10 +7813,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>590</v>
+      </c>
+      <c r="B301" t="s">
         <v>591</v>
-      </c>
-      <c r="B301" t="s">
-        <v>592</v>
       </c>
       <c r="C301">
         <v>14</v>
@@ -7824,10 +7824,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>592</v>
+      </c>
+      <c r="B302" t="s">
         <v>593</v>
-      </c>
-      <c r="B302" t="s">
-        <v>594</v>
       </c>
       <c r="C302">
         <v>14</v>
@@ -7835,10 +7835,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>594</v>
+      </c>
+      <c r="B303" t="s">
         <v>595</v>
-      </c>
-      <c r="B303" t="s">
-        <v>596</v>
       </c>
       <c r="C303">
         <v>14</v>
@@ -7846,10 +7846,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>596</v>
+      </c>
+      <c r="B304" t="s">
         <v>597</v>
-      </c>
-      <c r="B304" t="s">
-        <v>598</v>
       </c>
       <c r="C304">
         <v>14</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" t="s">
         <v>599</v>
-      </c>
-      <c r="B305" t="s">
-        <v>600</v>
       </c>
       <c r="C305">
         <v>14</v>
@@ -7868,10 +7868,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>600</v>
+      </c>
+      <c r="B306" t="s">
         <v>601</v>
-      </c>
-      <c r="B306" t="s">
-        <v>602</v>
       </c>
       <c r="C306">
         <v>14</v>
@@ -7879,10 +7879,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>602</v>
+      </c>
+      <c r="B307" t="s">
         <v>603</v>
-      </c>
-      <c r="B307" t="s">
-        <v>604</v>
       </c>
       <c r="C307">
         <v>14</v>
@@ -7890,10 +7890,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>604</v>
+      </c>
+      <c r="B308" t="s">
         <v>605</v>
-      </c>
-      <c r="B308" t="s">
-        <v>606</v>
       </c>
       <c r="C308">
         <v>14</v>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>606</v>
+      </c>
+      <c r="B309" t="s">
         <v>607</v>
-      </c>
-      <c r="B309" t="s">
-        <v>608</v>
       </c>
       <c r="C309">
         <v>14</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>608</v>
+      </c>
+      <c r="B310" t="s">
         <v>609</v>
-      </c>
-      <c r="B310" t="s">
-        <v>610</v>
       </c>
       <c r="C310">
         <v>14</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>610</v>
+      </c>
+      <c r="B311" t="s">
         <v>611</v>
-      </c>
-      <c r="B311" t="s">
-        <v>612</v>
       </c>
       <c r="C311">
         <v>14</v>
@@ -7934,10 +7934,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>612</v>
+      </c>
+      <c r="B312" t="s">
         <v>613</v>
-      </c>
-      <c r="B312" t="s">
-        <v>614</v>
       </c>
       <c r="C312">
         <v>14</v>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>614</v>
+      </c>
+      <c r="B313" t="s">
         <v>615</v>
-      </c>
-      <c r="B313" t="s">
-        <v>616</v>
       </c>
       <c r="C313">
         <v>14</v>
@@ -7956,10 +7956,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>616</v>
+      </c>
+      <c r="B314" t="s">
         <v>617</v>
-      </c>
-      <c r="B314" t="s">
-        <v>618</v>
       </c>
       <c r="C314">
         <v>14</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>618</v>
+      </c>
+      <c r="B315" t="s">
         <v>619</v>
-      </c>
-      <c r="B315" t="s">
-        <v>620</v>
       </c>
       <c r="C315">
         <v>14</v>
@@ -7978,10 +7978,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>620</v>
+      </c>
+      <c r="B316" t="s">
         <v>621</v>
-      </c>
-      <c r="B316" t="s">
-        <v>622</v>
       </c>
       <c r="C316">
         <v>14</v>
@@ -7989,10 +7989,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>622</v>
+      </c>
+      <c r="B317" t="s">
         <v>623</v>
-      </c>
-      <c r="B317" t="s">
-        <v>624</v>
       </c>
       <c r="C317">
         <v>14</v>
@@ -8000,10 +8000,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>624</v>
+      </c>
+      <c r="B318" t="s">
         <v>625</v>
-      </c>
-      <c r="B318" t="s">
-        <v>626</v>
       </c>
       <c r="C318">
         <v>14</v>
@@ -8011,10 +8011,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B319" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C319">
         <v>14</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>627</v>
+      </c>
+      <c r="B320" t="s">
         <v>628</v>
-      </c>
-      <c r="B320" t="s">
-        <v>629</v>
       </c>
       <c r="C320">
         <v>14</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>629</v>
+      </c>
+      <c r="B321" t="s">
         <v>630</v>
-      </c>
-      <c r="B321" t="s">
-        <v>631</v>
       </c>
       <c r="C321">
         <v>14</v>
@@ -8044,10 +8044,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>631</v>
+      </c>
+      <c r="B322" t="s">
         <v>632</v>
-      </c>
-      <c r="B322" t="s">
-        <v>633</v>
       </c>
       <c r="C322">
         <v>14</v>
@@ -8055,10 +8055,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>633</v>
+      </c>
+      <c r="B323" t="s">
         <v>634</v>
-      </c>
-      <c r="B323" t="s">
-        <v>635</v>
       </c>
       <c r="C323">
         <v>14</v>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>635</v>
+      </c>
+      <c r="B324" t="s">
         <v>636</v>
-      </c>
-      <c r="B324" t="s">
-        <v>637</v>
       </c>
       <c r="C324">
         <v>14</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>637</v>
+      </c>
+      <c r="B325" t="s">
         <v>638</v>
-      </c>
-      <c r="B325" t="s">
-        <v>639</v>
       </c>
       <c r="C325">
         <v>14</v>
@@ -8088,10 +8088,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B326" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C326">
         <v>14</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>640</v>
+      </c>
+      <c r="B327" t="s">
         <v>641</v>
-      </c>
-      <c r="B327" t="s">
-        <v>642</v>
       </c>
       <c r="C327">
         <v>14</v>
@@ -8110,10 +8110,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>642</v>
+      </c>
+      <c r="B328" t="s">
         <v>643</v>
-      </c>
-      <c r="B328" t="s">
-        <v>644</v>
       </c>
       <c r="C328">
         <v>14</v>
@@ -8121,10 +8121,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>644</v>
+      </c>
+      <c r="B329" t="s">
         <v>645</v>
-      </c>
-      <c r="B329" t="s">
-        <v>646</v>
       </c>
       <c r="C329">
         <v>14</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>646</v>
+      </c>
+      <c r="B330" t="s">
         <v>647</v>
-      </c>
-      <c r="B330" t="s">
-        <v>648</v>
       </c>
       <c r="C330">
         <v>14</v>
@@ -8143,10 +8143,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>648</v>
+      </c>
+      <c r="B331" t="s">
         <v>649</v>
-      </c>
-      <c r="B331" t="s">
-        <v>650</v>
       </c>
       <c r="C331">
         <v>14</v>
@@ -8154,10 +8154,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>650</v>
+      </c>
+      <c r="B332" t="s">
         <v>651</v>
-      </c>
-      <c r="B332" t="s">
-        <v>652</v>
       </c>
       <c r="C332">
         <v>14</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>652</v>
+      </c>
+      <c r="B333" t="s">
         <v>653</v>
-      </c>
-      <c r="B333" t="s">
-        <v>654</v>
       </c>
       <c r="C333">
         <v>14</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B334" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C334">
         <v>14</v>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>655</v>
+      </c>
+      <c r="B335" t="s">
         <v>656</v>
-      </c>
-      <c r="B335" t="s">
-        <v>657</v>
       </c>
       <c r="C335">
         <v>14</v>
@@ -8198,10 +8198,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>657</v>
+      </c>
+      <c r="B336" t="s">
         <v>658</v>
-      </c>
-      <c r="B336" t="s">
-        <v>659</v>
       </c>
       <c r="C336">
         <v>14</v>
@@ -8209,10 +8209,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>659</v>
+      </c>
+      <c r="B337" t="s">
         <v>660</v>
-      </c>
-      <c r="B337" t="s">
-        <v>661</v>
       </c>
       <c r="C337">
         <v>14</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>661</v>
+      </c>
+      <c r="B338" t="s">
         <v>662</v>
-      </c>
-      <c r="B338" t="s">
-        <v>663</v>
       </c>
       <c r="C338">
         <v>14</v>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>663</v>
+      </c>
+      <c r="B339" t="s">
         <v>664</v>
-      </c>
-      <c r="B339" t="s">
-        <v>665</v>
       </c>
       <c r="C339">
         <v>14</v>
@@ -8242,10 +8242,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>665</v>
+      </c>
+      <c r="B340" t="s">
         <v>666</v>
-      </c>
-      <c r="B340" t="s">
-        <v>667</v>
       </c>
       <c r="C340">
         <v>14</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>667</v>
+      </c>
+      <c r="B341" t="s">
         <v>668</v>
-      </c>
-      <c r="B341" t="s">
-        <v>669</v>
       </c>
       <c r="C341">
         <v>14</v>
@@ -8264,10 +8264,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>669</v>
+      </c>
+      <c r="B342" t="s">
         <v>670</v>
-      </c>
-      <c r="B342" t="s">
-        <v>671</v>
       </c>
       <c r="C342">
         <v>14</v>
@@ -8275,10 +8275,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>671</v>
+      </c>
+      <c r="B343" t="s">
         <v>672</v>
-      </c>
-      <c r="B343" t="s">
-        <v>673</v>
       </c>
       <c r="C343">
         <v>14</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>673</v>
+      </c>
+      <c r="B344" t="s">
         <v>674</v>
-      </c>
-      <c r="B344" t="s">
-        <v>675</v>
       </c>
       <c r="C344">
         <v>14</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>675</v>
+      </c>
+      <c r="B345" t="s">
         <v>676</v>
-      </c>
-      <c r="B345" t="s">
-        <v>677</v>
       </c>
       <c r="C345">
         <v>14</v>
@@ -8308,10 +8308,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>677</v>
+      </c>
+      <c r="B346" t="s">
         <v>678</v>
-      </c>
-      <c r="B346" t="s">
-        <v>679</v>
       </c>
       <c r="C346">
         <v>14</v>
@@ -8319,10 +8319,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>679</v>
+      </c>
+      <c r="B347" t="s">
         <v>680</v>
-      </c>
-      <c r="B347" t="s">
-        <v>681</v>
       </c>
       <c r="C347">
         <v>14</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>681</v>
+      </c>
+      <c r="B348" t="s">
         <v>682</v>
-      </c>
-      <c r="B348" t="s">
-        <v>683</v>
       </c>
       <c r="C348">
         <v>14</v>
@@ -8341,10 +8341,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>683</v>
+      </c>
+      <c r="B349" t="s">
         <v>684</v>
-      </c>
-      <c r="B349" t="s">
-        <v>685</v>
       </c>
       <c r="C349">
         <v>14</v>
@@ -8352,10 +8352,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>685</v>
+      </c>
+      <c r="B350" t="s">
         <v>686</v>
-      </c>
-      <c r="B350" t="s">
-        <v>687</v>
       </c>
       <c r="C350">
         <v>14</v>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>687</v>
+      </c>
+      <c r="B351" t="s">
         <v>688</v>
-      </c>
-      <c r="B351" t="s">
-        <v>689</v>
       </c>
       <c r="C351">
         <v>14</v>
@@ -8374,10 +8374,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>689</v>
+      </c>
+      <c r="B352" t="s">
         <v>690</v>
-      </c>
-      <c r="B352" t="s">
-        <v>691</v>
       </c>
       <c r="C352">
         <v>14</v>
@@ -8385,10 +8385,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>691</v>
+      </c>
+      <c r="B353" t="s">
         <v>692</v>
-      </c>
-      <c r="B353" t="s">
-        <v>693</v>
       </c>
       <c r="C353">
         <v>14</v>
@@ -8396,10 +8396,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>693</v>
+      </c>
+      <c r="B354" t="s">
         <v>694</v>
-      </c>
-      <c r="B354" t="s">
-        <v>695</v>
       </c>
       <c r="C354">
         <v>14</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>695</v>
+      </c>
+      <c r="B355" t="s">
         <v>696</v>
-      </c>
-      <c r="B355" t="s">
-        <v>697</v>
       </c>
       <c r="C355">
         <v>14</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>697</v>
+      </c>
+      <c r="B356" t="s">
         <v>698</v>
-      </c>
-      <c r="B356" t="s">
-        <v>699</v>
       </c>
       <c r="C356">
         <v>14</v>
@@ -8429,10 +8429,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>699</v>
+      </c>
+      <c r="B357" t="s">
         <v>700</v>
-      </c>
-      <c r="B357" t="s">
-        <v>701</v>
       </c>
       <c r="C357">
         <v>14</v>
@@ -8440,10 +8440,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>701</v>
+      </c>
+      <c r="B358" t="s">
         <v>702</v>
-      </c>
-      <c r="B358" t="s">
-        <v>703</v>
       </c>
       <c r="C358">
         <v>14</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>703</v>
+      </c>
+      <c r="B359" t="s">
         <v>704</v>
-      </c>
-      <c r="B359" t="s">
-        <v>705</v>
       </c>
       <c r="C359">
         <v>14</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>705</v>
+      </c>
+      <c r="B360" t="s">
         <v>706</v>
-      </c>
-      <c r="B360" t="s">
-        <v>707</v>
       </c>
       <c r="C360">
         <v>14</v>
@@ -8473,10 +8473,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>707</v>
+      </c>
+      <c r="B361" t="s">
         <v>708</v>
-      </c>
-      <c r="B361" t="s">
-        <v>709</v>
       </c>
       <c r="C361">
         <v>14</v>
@@ -8484,10 +8484,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>709</v>
+      </c>
+      <c r="B362" t="s">
         <v>710</v>
-      </c>
-      <c r="B362" t="s">
-        <v>711</v>
       </c>
       <c r="C362">
         <v>14</v>
@@ -8495,10 +8495,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>711</v>
+      </c>
+      <c r="B363" t="s">
         <v>712</v>
-      </c>
-      <c r="B363" t="s">
-        <v>713</v>
       </c>
       <c r="C363">
         <v>14</v>
@@ -8506,10 +8506,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>713</v>
+      </c>
+      <c r="B364" t="s">
         <v>714</v>
-      </c>
-      <c r="B364" t="s">
-        <v>715</v>
       </c>
       <c r="C364">
         <v>14</v>
@@ -8517,10 +8517,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>715</v>
+      </c>
+      <c r="B365" t="s">
         <v>716</v>
-      </c>
-      <c r="B365" t="s">
-        <v>717</v>
       </c>
       <c r="C365">
         <v>14</v>
@@ -8528,10 +8528,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>717</v>
+      </c>
+      <c r="B366" t="s">
         <v>718</v>
-      </c>
-      <c r="B366" t="s">
-        <v>719</v>
       </c>
       <c r="C366">
         <v>14</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>719</v>
+      </c>
+      <c r="B367" t="s">
         <v>720</v>
-      </c>
-      <c r="B367" t="s">
-        <v>721</v>
       </c>
       <c r="C367">
         <v>14</v>
@@ -8550,10 +8550,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>721</v>
+      </c>
+      <c r="B368" t="s">
         <v>722</v>
-      </c>
-      <c r="B368" t="s">
-        <v>723</v>
       </c>
       <c r="C368">
         <v>14</v>
@@ -8561,10 +8561,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>723</v>
+      </c>
+      <c r="B369" t="s">
         <v>724</v>
-      </c>
-      <c r="B369" t="s">
-        <v>725</v>
       </c>
       <c r="C369">
         <v>14</v>
@@ -8572,10 +8572,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>725</v>
+      </c>
+      <c r="B370" t="s">
         <v>726</v>
-      </c>
-      <c r="B370" t="s">
-        <v>727</v>
       </c>
       <c r="C370">
         <v>14</v>
@@ -8583,10 +8583,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>727</v>
+      </c>
+      <c r="B371" t="s">
         <v>728</v>
-      </c>
-      <c r="B371" t="s">
-        <v>729</v>
       </c>
       <c r="C371">
         <v>14</v>
@@ -8594,10 +8594,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>729</v>
+      </c>
+      <c r="B372" t="s">
         <v>730</v>
-      </c>
-      <c r="B372" t="s">
-        <v>731</v>
       </c>
       <c r="C372">
         <v>14</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>731</v>
+      </c>
+      <c r="B373" t="s">
         <v>732</v>
-      </c>
-      <c r="B373" t="s">
-        <v>733</v>
       </c>
       <c r="C373">
         <v>14</v>
@@ -8616,10 +8616,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>733</v>
+      </c>
+      <c r="B374" t="s">
         <v>734</v>
-      </c>
-      <c r="B374" t="s">
-        <v>735</v>
       </c>
       <c r="C374">
         <v>14</v>
@@ -8627,10 +8627,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>735</v>
+      </c>
+      <c r="B375" t="s">
         <v>736</v>
-      </c>
-      <c r="B375" t="s">
-        <v>737</v>
       </c>
       <c r="C375">
         <v>14</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>737</v>
+      </c>
+      <c r="B376" t="s">
         <v>738</v>
-      </c>
-      <c r="B376" t="s">
-        <v>739</v>
       </c>
       <c r="C376">
         <v>14</v>
@@ -8649,10 +8649,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>739</v>
+      </c>
+      <c r="B377" t="s">
         <v>740</v>
-      </c>
-      <c r="B377" t="s">
-        <v>741</v>
       </c>
       <c r="C377">
         <v>14</v>
@@ -8660,10 +8660,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>741</v>
+      </c>
+      <c r="B378" t="s">
         <v>742</v>
-      </c>
-      <c r="B378" t="s">
-        <v>743</v>
       </c>
       <c r="C378">
         <v>14</v>
@@ -8671,10 +8671,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>743</v>
+      </c>
+      <c r="B379" t="s">
         <v>744</v>
-      </c>
-      <c r="B379" t="s">
-        <v>745</v>
       </c>
       <c r="C379">
         <v>14</v>
@@ -8682,10 +8682,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>745</v>
+      </c>
+      <c r="B380" t="s">
         <v>746</v>
-      </c>
-      <c r="B380" t="s">
-        <v>747</v>
       </c>
       <c r="C380">
         <v>14</v>
@@ -8693,10 +8693,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>747</v>
+      </c>
+      <c r="B381" t="s">
         <v>748</v>
-      </c>
-      <c r="B381" t="s">
-        <v>749</v>
       </c>
       <c r="C381">
         <v>14</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>749</v>
+      </c>
+      <c r="B382" t="s">
         <v>750</v>
-      </c>
-      <c r="B382" t="s">
-        <v>751</v>
       </c>
       <c r="C382">
         <v>14</v>
@@ -8715,10 +8715,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>751</v>
+      </c>
+      <c r="B383" t="s">
         <v>752</v>
-      </c>
-      <c r="B383" t="s">
-        <v>753</v>
       </c>
       <c r="C383">
         <v>14</v>
@@ -8726,10 +8726,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>753</v>
+      </c>
+      <c r="B384" t="s">
         <v>754</v>
-      </c>
-      <c r="B384" t="s">
-        <v>755</v>
       </c>
       <c r="C384">
         <v>14</v>
@@ -8737,10 +8737,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>755</v>
+      </c>
+      <c r="B385" t="s">
         <v>756</v>
-      </c>
-      <c r="B385" t="s">
-        <v>757</v>
       </c>
       <c r="C385">
         <v>14</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>757</v>
+      </c>
+      <c r="B386" t="s">
         <v>758</v>
-      </c>
-      <c r="B386" t="s">
-        <v>759</v>
       </c>
       <c r="C386">
         <v>14</v>
@@ -8759,10 +8759,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>759</v>
+      </c>
+      <c r="B387" t="s">
         <v>760</v>
-      </c>
-      <c r="B387" t="s">
-        <v>761</v>
       </c>
       <c r="C387">
         <v>14</v>
@@ -8770,10 +8770,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>761</v>
+      </c>
+      <c r="B388" t="s">
         <v>762</v>
-      </c>
-      <c r="B388" t="s">
-        <v>763</v>
       </c>
       <c r="C388">
         <v>14</v>
@@ -8781,10 +8781,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>763</v>
+      </c>
+      <c r="B389" t="s">
         <v>764</v>
-      </c>
-      <c r="B389" t="s">
-        <v>765</v>
       </c>
       <c r="C389">
         <v>14</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>765</v>
+      </c>
+      <c r="B390" t="s">
         <v>766</v>
-      </c>
-      <c r="B390" t="s">
-        <v>767</v>
       </c>
       <c r="C390">
         <v>14</v>
@@ -8803,10 +8803,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>767</v>
+      </c>
+      <c r="B391" t="s">
         <v>768</v>
-      </c>
-      <c r="B391" t="s">
-        <v>769</v>
       </c>
       <c r="C391">
         <v>14</v>
@@ -8814,10 +8814,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>769</v>
+      </c>
+      <c r="B392" t="s">
         <v>770</v>
-      </c>
-      <c r="B392" t="s">
-        <v>771</v>
       </c>
       <c r="C392">
         <v>14</v>
@@ -8825,10 +8825,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>771</v>
+      </c>
+      <c r="B393" t="s">
         <v>772</v>
-      </c>
-      <c r="B393" t="s">
-        <v>773</v>
       </c>
       <c r="C393">
         <v>14</v>
@@ -8836,10 +8836,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>773</v>
+      </c>
+      <c r="B394" t="s">
         <v>774</v>
-      </c>
-      <c r="B394" t="s">
-        <v>775</v>
       </c>
       <c r="C394">
         <v>14</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>775</v>
+      </c>
+      <c r="B395" t="s">
         <v>776</v>
-      </c>
-      <c r="B395" t="s">
-        <v>777</v>
       </c>
       <c r="C395">
         <v>14</v>
@@ -8858,10 +8858,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>777</v>
+      </c>
+      <c r="B396" t="s">
         <v>778</v>
-      </c>
-      <c r="B396" t="s">
-        <v>779</v>
       </c>
       <c r="C396">
         <v>14</v>
@@ -8869,10 +8869,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>779</v>
+      </c>
+      <c r="B397" t="s">
         <v>780</v>
-      </c>
-      <c r="B397" t="s">
-        <v>781</v>
       </c>
       <c r="C397">
         <v>14</v>
@@ -8880,10 +8880,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>781</v>
+      </c>
+      <c r="B398" t="s">
         <v>782</v>
-      </c>
-      <c r="B398" t="s">
-        <v>783</v>
       </c>
       <c r="C398">
         <v>14</v>
@@ -8891,10 +8891,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>783</v>
+      </c>
+      <c r="B399" t="s">
         <v>784</v>
-      </c>
-      <c r="B399" t="s">
-        <v>785</v>
       </c>
       <c r="C399">
         <v>14</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>785</v>
+      </c>
+      <c r="B400" t="s">
         <v>786</v>
-      </c>
-      <c r="B400" t="s">
-        <v>787</v>
       </c>
       <c r="C400">
         <v>14</v>
@@ -8913,10 +8913,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>787</v>
+      </c>
+      <c r="B401" t="s">
         <v>788</v>
-      </c>
-      <c r="B401" t="s">
-        <v>789</v>
       </c>
       <c r="C401">
         <v>14</v>
@@ -8924,10 +8924,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>789</v>
+      </c>
+      <c r="B402" t="s">
         <v>790</v>
-      </c>
-      <c r="B402" t="s">
-        <v>791</v>
       </c>
       <c r="C402">
         <v>14</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>791</v>
+      </c>
+      <c r="B403" t="s">
         <v>792</v>
-      </c>
-      <c r="B403" t="s">
-        <v>793</v>
       </c>
       <c r="C403">
         <v>14</v>
@@ -8946,10 +8946,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>793</v>
+      </c>
+      <c r="B404" t="s">
         <v>794</v>
-      </c>
-      <c r="B404" t="s">
-        <v>795</v>
       </c>
       <c r="C404">
         <v>14</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>795</v>
+      </c>
+      <c r="B405" t="s">
         <v>796</v>
-      </c>
-      <c r="B405" t="s">
-        <v>797</v>
       </c>
       <c r="C405">
         <v>14</v>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>797</v>
+      </c>
+      <c r="B406" t="s">
         <v>798</v>
-      </c>
-      <c r="B406" t="s">
-        <v>799</v>
       </c>
       <c r="C406">
         <v>14</v>
@@ -8979,10 +8979,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>799</v>
+      </c>
+      <c r="B407" t="s">
         <v>800</v>
-      </c>
-      <c r="B407" t="s">
-        <v>801</v>
       </c>
       <c r="C407">
         <v>14</v>
@@ -8990,10 +8990,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>801</v>
+      </c>
+      <c r="B408" t="s">
         <v>802</v>
-      </c>
-      <c r="B408" t="s">
-        <v>803</v>
       </c>
       <c r="C408">
         <v>14</v>
@@ -9001,10 +9001,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>803</v>
+      </c>
+      <c r="B409" t="s">
         <v>804</v>
-      </c>
-      <c r="B409" t="s">
-        <v>805</v>
       </c>
       <c r="C409">
         <v>14</v>
@@ -9012,10 +9012,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>805</v>
+      </c>
+      <c r="B410" t="s">
         <v>806</v>
-      </c>
-      <c r="B410" t="s">
-        <v>807</v>
       </c>
       <c r="C410">
         <v>14</v>
@@ -9023,10 +9023,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>807</v>
+      </c>
+      <c r="B411" t="s">
         <v>808</v>
-      </c>
-      <c r="B411" t="s">
-        <v>809</v>
       </c>
       <c r="C411">
         <v>14</v>
@@ -9034,10 +9034,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>809</v>
+      </c>
+      <c r="B412" t="s">
         <v>810</v>
-      </c>
-      <c r="B412" t="s">
-        <v>811</v>
       </c>
       <c r="C412">
         <v>14</v>
@@ -9045,10 +9045,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>811</v>
+      </c>
+      <c r="B413" t="s">
         <v>812</v>
-      </c>
-      <c r="B413" t="s">
-        <v>813</v>
       </c>
       <c r="C413">
         <v>14</v>
@@ -9056,10 +9056,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>813</v>
+      </c>
+      <c r="B414" t="s">
         <v>814</v>
-      </c>
-      <c r="B414" t="s">
-        <v>815</v>
       </c>
       <c r="C414">
         <v>14</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>815</v>
+      </c>
+      <c r="B415" t="s">
         <v>816</v>
-      </c>
-      <c r="B415" t="s">
-        <v>817</v>
       </c>
       <c r="C415">
         <v>14</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>817</v>
+      </c>
+      <c r="B416" t="s">
         <v>818</v>
-      </c>
-      <c r="B416" t="s">
-        <v>819</v>
       </c>
       <c r="C416">
         <v>14</v>
@@ -9089,10 +9089,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>819</v>
+      </c>
+      <c r="B417" t="s">
         <v>820</v>
-      </c>
-      <c r="B417" t="s">
-        <v>821</v>
       </c>
       <c r="C417">
         <v>14</v>
@@ -9100,10 +9100,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>821</v>
+      </c>
+      <c r="B418" t="s">
         <v>822</v>
-      </c>
-      <c r="B418" t="s">
-        <v>823</v>
       </c>
       <c r="C418">
         <v>14</v>
@@ -9111,10 +9111,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B419" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C419">
         <v>14</v>
@@ -9122,10 +9122,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>824</v>
+      </c>
+      <c r="B420" t="s">
         <v>825</v>
-      </c>
-      <c r="B420" t="s">
-        <v>826</v>
       </c>
       <c r="C420">
         <v>14</v>
@@ -9133,10 +9133,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>826</v>
+      </c>
+      <c r="B421" t="s">
         <v>827</v>
-      </c>
-      <c r="B421" t="s">
-        <v>828</v>
       </c>
       <c r="C421">
         <v>14</v>
@@ -9144,10 +9144,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>828</v>
+      </c>
+      <c r="B422" t="s">
         <v>829</v>
-      </c>
-      <c r="B422" t="s">
-        <v>830</v>
       </c>
       <c r="C422">
         <v>14</v>
@@ -9155,10 +9155,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>830</v>
+      </c>
+      <c r="B423" t="s">
         <v>831</v>
-      </c>
-      <c r="B423" t="s">
-        <v>832</v>
       </c>
       <c r="C423">
         <v>14</v>
@@ -9166,10 +9166,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>832</v>
+      </c>
+      <c r="B424" t="s">
         <v>833</v>
-      </c>
-      <c r="B424" t="s">
-        <v>834</v>
       </c>
       <c r="C424">
         <v>14</v>
@@ -9177,10 +9177,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>834</v>
+      </c>
+      <c r="B425" t="s">
         <v>835</v>
-      </c>
-      <c r="B425" t="s">
-        <v>836</v>
       </c>
       <c r="C425">
         <v>14</v>
@@ -9188,10 +9188,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>836</v>
+      </c>
+      <c r="B426" t="s">
         <v>837</v>
-      </c>
-      <c r="B426" t="s">
-        <v>838</v>
       </c>
       <c r="C426">
         <v>14</v>
@@ -9199,10 +9199,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B427" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C427">
         <v>14</v>
@@ -9210,10 +9210,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>839</v>
+      </c>
+      <c r="B428" t="s">
         <v>840</v>
-      </c>
-      <c r="B428" t="s">
-        <v>841</v>
       </c>
       <c r="C428">
         <v>14</v>
@@ -9221,10 +9221,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>841</v>
+      </c>
+      <c r="B429" t="s">
         <v>842</v>
-      </c>
-      <c r="B429" t="s">
-        <v>843</v>
       </c>
       <c r="C429">
         <v>14</v>
@@ -9232,10 +9232,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>843</v>
+      </c>
+      <c r="B430" t="s">
         <v>844</v>
-      </c>
-      <c r="B430" t="s">
-        <v>845</v>
       </c>
       <c r="C430">
         <v>14</v>
@@ -9243,10 +9243,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>845</v>
+      </c>
+      <c r="B431" t="s">
         <v>846</v>
-      </c>
-      <c r="B431" t="s">
-        <v>847</v>
       </c>
       <c r="C431">
         <v>14</v>
@@ -9254,10 +9254,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>847</v>
+      </c>
+      <c r="B432" t="s">
         <v>848</v>
-      </c>
-      <c r="B432" t="s">
-        <v>849</v>
       </c>
       <c r="C432">
         <v>14</v>
@@ -9265,10 +9265,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>849</v>
+      </c>
+      <c r="B433" t="s">
         <v>850</v>
-      </c>
-      <c r="B433" t="s">
-        <v>851</v>
       </c>
       <c r="C433">
         <v>14</v>
@@ -9276,10 +9276,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>851</v>
+      </c>
+      <c r="B434" t="s">
         <v>852</v>
-      </c>
-      <c r="B434" t="s">
-        <v>853</v>
       </c>
       <c r="C434">
         <v>14</v>
@@ -9287,10 +9287,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>853</v>
+      </c>
+      <c r="B435" t="s">
         <v>854</v>
-      </c>
-      <c r="B435" t="s">
-        <v>855</v>
       </c>
       <c r="C435">
         <v>14</v>
@@ -9298,10 +9298,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B436" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C436">
         <v>14</v>
@@ -9309,10 +9309,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>856</v>
+      </c>
+      <c r="B437" t="s">
         <v>857</v>
-      </c>
-      <c r="B437" t="s">
-        <v>858</v>
       </c>
       <c r="C437">
         <v>14</v>
@@ -9320,10 +9320,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>858</v>
+      </c>
+      <c r="B438" t="s">
         <v>859</v>
-      </c>
-      <c r="B438" t="s">
-        <v>860</v>
       </c>
       <c r="C438">
         <v>14</v>
@@ -9331,10 +9331,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>860</v>
+      </c>
+      <c r="B439" t="s">
         <v>861</v>
-      </c>
-      <c r="B439" t="s">
-        <v>862</v>
       </c>
       <c r="C439">
         <v>14</v>
@@ -9342,10 +9342,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>862</v>
+      </c>
+      <c r="B440" t="s">
         <v>863</v>
-      </c>
-      <c r="B440" t="s">
-        <v>864</v>
       </c>
       <c r="C440">
         <v>14</v>
@@ -9353,10 +9353,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>864</v>
+      </c>
+      <c r="B441" t="s">
         <v>865</v>
-      </c>
-      <c r="B441" t="s">
-        <v>866</v>
       </c>
       <c r="C441">
         <v>14</v>
@@ -9364,10 +9364,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>866</v>
+      </c>
+      <c r="B442" t="s">
         <v>867</v>
-      </c>
-      <c r="B442" t="s">
-        <v>868</v>
       </c>
       <c r="C442">
         <v>14</v>
@@ -9375,10 +9375,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>868</v>
+      </c>
+      <c r="B443" t="s">
         <v>869</v>
-      </c>
-      <c r="B443" t="s">
-        <v>870</v>
       </c>
       <c r="C443">
         <v>14</v>
@@ -9386,10 +9386,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>870</v>
+      </c>
+      <c r="B444" t="s">
         <v>871</v>
-      </c>
-      <c r="B444" t="s">
-        <v>872</v>
       </c>
       <c r="C444">
         <v>14</v>
@@ -9397,10 +9397,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>872</v>
+      </c>
+      <c r="B445" t="s">
         <v>873</v>
-      </c>
-      <c r="B445" t="s">
-        <v>874</v>
       </c>
       <c r="C445">
         <v>14</v>
@@ -9408,10 +9408,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>874</v>
+      </c>
+      <c r="B446" t="s">
         <v>875</v>
-      </c>
-      <c r="B446" t="s">
-        <v>876</v>
       </c>
       <c r="C446">
         <v>14</v>
@@ -9419,10 +9419,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>876</v>
+      </c>
+      <c r="B447" t="s">
         <v>877</v>
-      </c>
-      <c r="B447" t="s">
-        <v>878</v>
       </c>
       <c r="C447">
         <v>14</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>878</v>
+      </c>
+      <c r="B448" t="s">
         <v>879</v>
-      </c>
-      <c r="B448" t="s">
-        <v>880</v>
       </c>
       <c r="C448">
         <v>14</v>
@@ -9441,10 +9441,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>880</v>
+      </c>
+      <c r="B449" t="s">
         <v>881</v>
-      </c>
-      <c r="B449" t="s">
-        <v>882</v>
       </c>
       <c r="C449">
         <v>14</v>
@@ -9452,10 +9452,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>882</v>
+      </c>
+      <c r="B450" t="s">
         <v>883</v>
-      </c>
-      <c r="B450" t="s">
-        <v>884</v>
       </c>
       <c r="C450">
         <v>14</v>
@@ -9463,10 +9463,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>884</v>
+      </c>
+      <c r="B451" t="s">
         <v>885</v>
-      </c>
-      <c r="B451" t="s">
-        <v>886</v>
       </c>
       <c r="C451">
         <v>14</v>
@@ -9474,10 +9474,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>886</v>
+      </c>
+      <c r="B452" t="s">
         <v>887</v>
-      </c>
-      <c r="B452" t="s">
-        <v>888</v>
       </c>
       <c r="C452">
         <v>14</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>888</v>
+      </c>
+      <c r="B453" t="s">
         <v>889</v>
-      </c>
-      <c r="B453" t="s">
-        <v>890</v>
       </c>
       <c r="C453">
         <v>14</v>
@@ -9496,10 +9496,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>890</v>
+      </c>
+      <c r="B454" t="s">
         <v>891</v>
-      </c>
-      <c r="B454" t="s">
-        <v>892</v>
       </c>
       <c r="C454">
         <v>14</v>
@@ -9507,10 +9507,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>892</v>
+      </c>
+      <c r="B455" t="s">
         <v>893</v>
-      </c>
-      <c r="B455" t="s">
-        <v>894</v>
       </c>
       <c r="C455">
         <v>14</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>894</v>
+      </c>
+      <c r="B456" t="s">
         <v>895</v>
-      </c>
-      <c r="B456" t="s">
-        <v>896</v>
       </c>
       <c r="C456">
         <v>14</v>
@@ -9529,10 +9529,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>896</v>
+      </c>
+      <c r="B457" t="s">
         <v>897</v>
-      </c>
-      <c r="B457" t="s">
-        <v>898</v>
       </c>
       <c r="C457">
         <v>14</v>
@@ -9540,10 +9540,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>898</v>
+      </c>
+      <c r="B458" t="s">
         <v>899</v>
-      </c>
-      <c r="B458" t="s">
-        <v>900</v>
       </c>
       <c r="C458">
         <v>14</v>
@@ -9551,10 +9551,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>900</v>
+      </c>
+      <c r="B459" t="s">
         <v>901</v>
-      </c>
-      <c r="B459" t="s">
-        <v>902</v>
       </c>
       <c r="C459">
         <v>14</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>902</v>
+      </c>
+      <c r="B460" t="s">
         <v>903</v>
-      </c>
-      <c r="B460" t="s">
-        <v>904</v>
       </c>
       <c r="C460">
         <v>14</v>
@@ -9573,10 +9573,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>904</v>
+      </c>
+      <c r="B461" t="s">
         <v>905</v>
-      </c>
-      <c r="B461" t="s">
-        <v>906</v>
       </c>
       <c r="C461">
         <v>14</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>906</v>
+      </c>
+      <c r="B462" t="s">
         <v>907</v>
-      </c>
-      <c r="B462" t="s">
-        <v>908</v>
       </c>
       <c r="C462">
         <v>14</v>
@@ -9595,10 +9595,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>908</v>
+      </c>
+      <c r="B463" t="s">
         <v>909</v>
-      </c>
-      <c r="B463" t="s">
-        <v>910</v>
       </c>
       <c r="C463">
         <v>14</v>
@@ -9606,10 +9606,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B464" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C464">
         <v>14</v>
@@ -9617,10 +9617,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>911</v>
+      </c>
+      <c r="B465" t="s">
         <v>912</v>
-      </c>
-      <c r="B465" t="s">
-        <v>913</v>
       </c>
       <c r="C465">
         <v>14</v>
@@ -9628,10 +9628,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>913</v>
+      </c>
+      <c r="B466" t="s">
         <v>914</v>
-      </c>
-      <c r="B466" t="s">
-        <v>915</v>
       </c>
       <c r="C466">
         <v>14</v>
@@ -9639,10 +9639,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>915</v>
+      </c>
+      <c r="B467" t="s">
         <v>916</v>
-      </c>
-      <c r="B467" t="s">
-        <v>917</v>
       </c>
       <c r="C467">
         <v>14</v>
@@ -9650,10 +9650,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B468" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C468">
         <v>14</v>
@@ -9661,10 +9661,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>918</v>
+      </c>
+      <c r="B469" t="s">
         <v>919</v>
-      </c>
-      <c r="B469" t="s">
-        <v>920</v>
       </c>
       <c r="C469">
         <v>14</v>
@@ -9672,10 +9672,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>920</v>
+      </c>
+      <c r="B470" t="s">
         <v>921</v>
-      </c>
-      <c r="B470" t="s">
-        <v>922</v>
       </c>
       <c r="C470">
         <v>14</v>
@@ -9683,10 +9683,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>922</v>
+      </c>
+      <c r="B471" t="s">
         <v>923</v>
-      </c>
-      <c r="B471" t="s">
-        <v>924</v>
       </c>
       <c r="C471">
         <v>14</v>
@@ -9694,10 +9694,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>924</v>
+      </c>
+      <c r="B472" t="s">
         <v>925</v>
-      </c>
-      <c r="B472" t="s">
-        <v>926</v>
       </c>
       <c r="C472">
         <v>14</v>
@@ -9705,10 +9705,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>926</v>
+      </c>
+      <c r="B473" t="s">
         <v>927</v>
-      </c>
-      <c r="B473" t="s">
-        <v>928</v>
       </c>
       <c r="C473">
         <v>14</v>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B474" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C474">
         <v>14</v>
@@ -9727,10 +9727,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>929</v>
+      </c>
+      <c r="B475" t="s">
         <v>930</v>
-      </c>
-      <c r="B475" t="s">
-        <v>931</v>
       </c>
       <c r="C475">
         <v>14</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>931</v>
+      </c>
+      <c r="B476" t="s">
         <v>932</v>
-      </c>
-      <c r="B476" t="s">
-        <v>933</v>
       </c>
       <c r="C476">
         <v>14</v>
@@ -9749,10 +9749,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>933</v>
+      </c>
+      <c r="B477" t="s">
         <v>934</v>
-      </c>
-      <c r="B477" t="s">
-        <v>935</v>
       </c>
       <c r="C477">
         <v>14</v>
@@ -9760,10 +9760,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>935</v>
+      </c>
+      <c r="B478" t="s">
         <v>936</v>
-      </c>
-      <c r="B478" t="s">
-        <v>937</v>
       </c>
       <c r="C478">
         <v>14</v>
@@ -9771,10 +9771,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>937</v>
+      </c>
+      <c r="B479" t="s">
         <v>938</v>
-      </c>
-      <c r="B479" t="s">
-        <v>939</v>
       </c>
       <c r="C479">
         <v>14</v>
@@ -9782,10 +9782,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>939</v>
+      </c>
+      <c r="B480" t="s">
         <v>940</v>
-      </c>
-      <c r="B480" t="s">
-        <v>941</v>
       </c>
       <c r="C480">
         <v>14</v>
@@ -9793,10 +9793,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>941</v>
+      </c>
+      <c r="B481" t="s">
         <v>942</v>
-      </c>
-      <c r="B481" t="s">
-        <v>943</v>
       </c>
       <c r="C481">
         <v>14</v>
@@ -9804,10 +9804,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>943</v>
+      </c>
+      <c r="B482" t="s">
         <v>944</v>
-      </c>
-      <c r="B482" t="s">
-        <v>945</v>
       </c>
       <c r="C482">
         <v>14</v>
@@ -9815,10 +9815,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>945</v>
+      </c>
+      <c r="B483" t="s">
         <v>946</v>
-      </c>
-      <c r="B483" t="s">
-        <v>947</v>
       </c>
       <c r="C483">
         <v>14</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>947</v>
+      </c>
+      <c r="B484" t="s">
         <v>948</v>
-      </c>
-      <c r="B484" t="s">
-        <v>949</v>
       </c>
       <c r="C484">
         <v>14</v>
@@ -9837,10 +9837,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>949</v>
+      </c>
+      <c r="B485" t="s">
         <v>950</v>
-      </c>
-      <c r="B485" t="s">
-        <v>951</v>
       </c>
       <c r="C485">
         <v>14</v>
@@ -9848,10 +9848,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>951</v>
+      </c>
+      <c r="B486" t="s">
         <v>952</v>
-      </c>
-      <c r="B486" t="s">
-        <v>953</v>
       </c>
       <c r="C486">
         <v>14</v>
@@ -9859,10 +9859,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>953</v>
+      </c>
+      <c r="B487" t="s">
         <v>954</v>
-      </c>
-      <c r="B487" t="s">
-        <v>955</v>
       </c>
       <c r="C487">
         <v>14</v>
@@ -9870,10 +9870,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>955</v>
+      </c>
+      <c r="B488" t="s">
         <v>956</v>
-      </c>
-      <c r="B488" t="s">
-        <v>957</v>
       </c>
       <c r="C488">
         <v>14</v>
@@ -9881,10 +9881,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>957</v>
+      </c>
+      <c r="B489" t="s">
         <v>958</v>
-      </c>
-      <c r="B489" t="s">
-        <v>959</v>
       </c>
       <c r="C489">
         <v>14</v>
@@ -9892,10 +9892,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>959</v>
+      </c>
+      <c r="B490" t="s">
         <v>960</v>
-      </c>
-      <c r="B490" t="s">
-        <v>961</v>
       </c>
       <c r="C490">
         <v>14</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>961</v>
+      </c>
+      <c r="B491" t="s">
         <v>962</v>
-      </c>
-      <c r="B491" t="s">
-        <v>963</v>
       </c>
       <c r="C491">
         <v>14</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>963</v>
+      </c>
+      <c r="B492" t="s">
         <v>964</v>
-      </c>
-      <c r="B492" t="s">
-        <v>965</v>
       </c>
       <c r="C492">
         <v>14</v>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>965</v>
+      </c>
+      <c r="B493" t="s">
         <v>966</v>
-      </c>
-      <c r="B493" t="s">
-        <v>967</v>
       </c>
       <c r="C493">
         <v>14</v>
@@ -9936,10 +9936,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>967</v>
+      </c>
+      <c r="B494" t="s">
         <v>968</v>
-      </c>
-      <c r="B494" t="s">
-        <v>969</v>
       </c>
       <c r="C494">
         <v>14</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>969</v>
+      </c>
+      <c r="B495" t="s">
         <v>970</v>
-      </c>
-      <c r="B495" t="s">
-        <v>971</v>
       </c>
       <c r="C495">
         <v>14</v>
@@ -9958,10 +9958,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>971</v>
+      </c>
+      <c r="B496" t="s">
         <v>972</v>
-      </c>
-      <c r="B496" t="s">
-        <v>973</v>
       </c>
       <c r="C496">
         <v>14</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>973</v>
+      </c>
+      <c r="B497" t="s">
         <v>974</v>
-      </c>
-      <c r="B497" t="s">
-        <v>975</v>
       </c>
       <c r="C497">
         <v>14</v>
@@ -9980,10 +9980,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>975</v>
+      </c>
+      <c r="B498" t="s">
         <v>976</v>
-      </c>
-      <c r="B498" t="s">
-        <v>977</v>
       </c>
       <c r="C498">
         <v>14</v>
@@ -9991,10 +9991,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>977</v>
+      </c>
+      <c r="B499" t="s">
         <v>978</v>
-      </c>
-      <c r="B499" t="s">
-        <v>979</v>
       </c>
       <c r="C499">
         <v>14</v>
@@ -10002,10 +10002,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B500" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C500">
         <v>14</v>
@@ -10013,10 +10013,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B501" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C501">
         <v>14</v>
@@ -10024,10 +10024,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>981</v>
+      </c>
+      <c r="B502" t="s">
         <v>982</v>
-      </c>
-      <c r="B502" t="s">
-        <v>983</v>
       </c>
       <c r="C502">
         <v>14</v>
@@ -10035,10 +10035,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B503" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C503">
         <v>14</v>
@@ -10046,10 +10046,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B504" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C504">
         <v>14</v>
@@ -10057,10 +10057,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>985</v>
+      </c>
+      <c r="B505" t="s">
         <v>986</v>
-      </c>
-      <c r="B505" t="s">
-        <v>987</v>
       </c>
       <c r="C505">
         <v>14</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>987</v>
+      </c>
+      <c r="B506" t="s">
         <v>988</v>
-      </c>
-      <c r="B506" t="s">
-        <v>989</v>
       </c>
       <c r="C506">
         <v>14</v>
@@ -10079,10 +10079,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>989</v>
+      </c>
+      <c r="B507" t="s">
         <v>990</v>
-      </c>
-      <c r="B507" t="s">
-        <v>991</v>
       </c>
       <c r="C507">
         <v>14</v>
@@ -10090,10 +10090,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B508" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C508">
         <v>14</v>
@@ -10101,10 +10101,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>992</v>
+      </c>
+      <c r="B509" t="s">
         <v>993</v>
-      </c>
-      <c r="B509" t="s">
-        <v>994</v>
       </c>
       <c r="C509">
         <v>14</v>
@@ -10112,10 +10112,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>994</v>
+      </c>
+      <c r="B510" t="s">
         <v>995</v>
-      </c>
-      <c r="B510" t="s">
-        <v>996</v>
       </c>
       <c r="C510">
         <v>14</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>996</v>
+      </c>
+      <c r="B511" t="s">
         <v>997</v>
-      </c>
-      <c r="B511" t="s">
-        <v>998</v>
       </c>
       <c r="C511">
         <v>14</v>
@@ -10134,10 +10134,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>998</v>
+      </c>
+      <c r="B512" t="s">
         <v>999</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1000</v>
       </c>
       <c r="C512">
         <v>14</v>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B513" t="s">
         <v>1001</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1002</v>
       </c>
       <c r="C513">
         <v>14</v>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B514" t="s">
         <v>1003</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1004</v>
       </c>
       <c r="C514">
         <v>14</v>
@@ -10167,10 +10167,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B515" t="s">
         <v>1005</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1006</v>
       </c>
       <c r="C515">
         <v>14</v>
@@ -10178,10 +10178,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B516" t="s">
         <v>1007</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1008</v>
       </c>
       <c r="C516">
         <v>14</v>
@@ -10189,10 +10189,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B517" t="s">
         <v>1009</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1010</v>
       </c>
       <c r="C517">
         <v>14</v>
@@ -10200,10 +10200,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B518" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C518">
         <v>14</v>
@@ -10211,10 +10211,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B519" t="s">
         <v>1012</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1013</v>
       </c>
       <c r="C519">
         <v>14</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B520" t="s">
         <v>1014</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1015</v>
       </c>
       <c r="C520">
         <v>14</v>
@@ -10233,10 +10233,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B521" t="s">
         <v>1016</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1017</v>
       </c>
       <c r="C521">
         <v>14</v>
@@ -10244,10 +10244,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B522" t="s">
         <v>1018</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1019</v>
       </c>
       <c r="C522">
         <v>14</v>
@@ -10255,10 +10255,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B523" t="s">
         <v>1020</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1021</v>
       </c>
       <c r="C523">
         <v>14</v>
@@ -10266,10 +10266,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B524" t="s">
         <v>1022</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1023</v>
       </c>
       <c r="C524">
         <v>14</v>
@@ -10277,10 +10277,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B525" t="s">
         <v>1024</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1025</v>
       </c>
       <c r="C525">
         <v>14</v>
@@ -10288,10 +10288,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B526" t="s">
         <v>1026</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1027</v>
       </c>
       <c r="C526">
         <v>14</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B527" t="s">
         <v>1028</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1029</v>
       </c>
       <c r="C527">
         <v>14</v>
@@ -10310,10 +10310,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B528" t="s">
         <v>1030</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1031</v>
       </c>
       <c r="C528">
         <v>14</v>
@@ -10321,10 +10321,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B529" t="s">
         <v>1032</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1033</v>
       </c>
       <c r="C529">
         <v>14</v>
@@ -10332,10 +10332,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B530" t="s">
         <v>1034</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1035</v>
       </c>
       <c r="C530">
         <v>14</v>
@@ -10343,10 +10343,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B531" t="s">
         <v>1036</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1037</v>
       </c>
       <c r="C531">
         <v>14</v>
@@ -10354,10 +10354,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B532" t="s">
         <v>1038</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1039</v>
       </c>
       <c r="C532">
         <v>14</v>
@@ -10365,10 +10365,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B533" t="s">
         <v>1040</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1041</v>
       </c>
       <c r="C533">
         <v>14</v>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B534" t="s">
         <v>1042</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1043</v>
       </c>
       <c r="C534">
         <v>14</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B535" t="s">
         <v>1044</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1045</v>
       </c>
       <c r="C535">
         <v>14</v>
@@ -10398,10 +10398,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B536" t="s">
         <v>1046</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1047</v>
       </c>
       <c r="C536">
         <v>14</v>
@@ -10409,10 +10409,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B537" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C537">
         <v>14</v>
@@ -10420,10 +10420,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B538" t="s">
         <v>1049</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1050</v>
       </c>
       <c r="C538">
         <v>14</v>
@@ -10431,10 +10431,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B539" t="s">
         <v>1051</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1052</v>
       </c>
       <c r="C539">
         <v>14</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B540" t="s">
         <v>1053</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1054</v>
       </c>
       <c r="C540">
         <v>14</v>
@@ -10453,10 +10453,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B541" t="s">
         <v>1055</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1056</v>
       </c>
       <c r="C541">
         <v>14</v>
@@ -10464,10 +10464,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B542" t="s">
         <v>1057</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1058</v>
       </c>
       <c r="C542">
         <v>14</v>
@@ -10475,10 +10475,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B543" t="s">
         <v>1059</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1060</v>
       </c>
       <c r="C543">
         <v>14</v>
@@ -10486,10 +10486,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B544" t="s">
         <v>1061</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1062</v>
       </c>
       <c r="C544">
         <v>14</v>
@@ -10497,10 +10497,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B545" t="s">
         <v>1063</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1064</v>
       </c>
       <c r="C545">
         <v>14</v>
@@ -10508,10 +10508,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B546" t="s">
         <v>1065</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1066</v>
       </c>
       <c r="C546">
         <v>14</v>
@@ -10519,10 +10519,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B547" t="s">
         <v>1067</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1068</v>
       </c>
       <c r="C547">
         <v>14</v>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B548" t="s">
         <v>1069</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1070</v>
       </c>
       <c r="C548">
         <v>14</v>
@@ -10541,10 +10541,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B549" t="s">
         <v>1071</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1072</v>
       </c>
       <c r="C549">
         <v>14</v>
@@ -10552,10 +10552,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B550" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C550">
         <v>14</v>
@@ -10563,10 +10563,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B551" t="s">
         <v>1074</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1075</v>
       </c>
       <c r="C551">
         <v>14</v>
@@ -10574,10 +10574,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B552" t="s">
         <v>1076</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1077</v>
       </c>
       <c r="C552">
         <v>14</v>
@@ -10585,10 +10585,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B553" t="s">
         <v>1078</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1079</v>
       </c>
       <c r="C553">
         <v>14</v>
@@ -10596,10 +10596,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B554" t="s">
         <v>1080</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1081</v>
       </c>
       <c r="C554">
         <v>14</v>
@@ -10607,10 +10607,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B555" t="s">
         <v>1082</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1083</v>
       </c>
       <c r="C555">
         <v>14</v>
@@ -10618,10 +10618,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B556" t="s">
         <v>1084</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1085</v>
       </c>
       <c r="C556">
         <v>14</v>
@@ -10629,10 +10629,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B557" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C557">
         <v>14</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B558" t="s">
         <v>1087</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1088</v>
       </c>
       <c r="C558">
         <v>14</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B559" t="s">
         <v>1089</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1090</v>
       </c>
       <c r="C559">
         <v>14</v>
@@ -10662,10 +10662,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B560" t="s">
         <v>1091</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1092</v>
       </c>
       <c r="C560">
         <v>14</v>
@@ -10673,10 +10673,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B561" t="s">
         <v>1093</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1094</v>
       </c>
       <c r="C561">
         <v>14</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B562" t="s">
         <v>1095</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1096</v>
       </c>
       <c r="C562">
         <v>14</v>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B563" t="s">
         <v>1097</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1098</v>
       </c>
       <c r="C563">
         <v>14</v>
@@ -10706,10 +10706,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B564" t="s">
         <v>1099</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1100</v>
       </c>
       <c r="C564">
         <v>14</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B565" t="s">
         <v>1101</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1102</v>
       </c>
       <c r="C565">
         <v>14</v>
@@ -10728,10 +10728,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B566" t="s">
         <v>1103</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1104</v>
       </c>
       <c r="C566">
         <v>14</v>
@@ -10739,10 +10739,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B567" t="s">
         <v>1105</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1106</v>
       </c>
       <c r="C567">
         <v>14</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B568" t="s">
         <v>1107</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1108</v>
       </c>
       <c r="C568">
         <v>14</v>
@@ -10761,10 +10761,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B569" t="s">
         <v>1109</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1110</v>
       </c>
       <c r="C569">
         <v>14</v>
@@ -10772,10 +10772,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B570" t="s">
         <v>1111</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1112</v>
       </c>
       <c r="C570">
         <v>14</v>
@@ -10783,10 +10783,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B571" t="s">
         <v>1113</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1114</v>
       </c>
       <c r="C571">
         <v>14</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B572" t="s">
         <v>1115</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1116</v>
       </c>
       <c r="C572">
         <v>14</v>
@@ -10805,10 +10805,10 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B573" t="s">
         <v>1117</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1118</v>
       </c>
       <c r="C573">
         <v>14</v>
@@ -10816,10 +10816,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B574" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C574">
         <v>14</v>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B575" t="s">
         <v>1120</v>
-      </c>
-      <c r="B575" t="s">
-        <v>1121</v>
       </c>
       <c r="C575">
         <v>14</v>
@@ -10838,10 +10838,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B576" t="s">
         <v>1122</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1123</v>
       </c>
       <c r="C576">
         <v>14</v>
@@ -10849,10 +10849,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B577" t="s">
         <v>1124</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1125</v>
       </c>
       <c r="C577">
         <v>14</v>
@@ -10860,10 +10860,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B578" t="s">
         <v>1126</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1127</v>
       </c>
       <c r="C578">
         <v>14</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B579" t="s">
         <v>1128</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1129</v>
       </c>
       <c r="C579">
         <v>14</v>
@@ -10882,10 +10882,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B580" t="s">
         <v>1130</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1131</v>
       </c>
       <c r="C580">
         <v>14</v>
@@ -10893,10 +10893,10 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B581" t="s">
         <v>1132</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1133</v>
       </c>
       <c r="C581">
         <v>14</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B582" t="s">
         <v>1134</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1135</v>
       </c>
       <c r="C582">
         <v>14</v>
@@ -10915,10 +10915,10 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B583" t="s">
         <v>1136</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1137</v>
       </c>
       <c r="C583">
         <v>14</v>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B584" t="s">
         <v>1138</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1139</v>
       </c>
       <c r="C584">
         <v>14</v>
@@ -10937,10 +10937,10 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B585" t="s">
         <v>1140</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1141</v>
       </c>
       <c r="C585">
         <v>14</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B586" t="s">
         <v>1142</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1143</v>
       </c>
       <c r="C586">
         <v>14</v>
@@ -10959,10 +10959,10 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B587" t="s">
         <v>1144</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1145</v>
       </c>
       <c r="C587">
         <v>14</v>
@@ -10970,10 +10970,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B588" t="s">
         <v>1146</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1147</v>
       </c>
       <c r="C588">
         <v>14</v>
@@ -10981,10 +10981,10 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B589" t="s">
         <v>1148</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1149</v>
       </c>
       <c r="C589">
         <v>14</v>
@@ -10992,10 +10992,10 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B590" t="s">
         <v>1150</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1151</v>
       </c>
       <c r="C590">
         <v>14</v>
@@ -11003,10 +11003,10 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B591" t="s">
         <v>1152</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1153</v>
       </c>
       <c r="C591">
         <v>14</v>
@@ -11014,10 +11014,10 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B592" t="s">
         <v>1154</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1155</v>
       </c>
       <c r="C592">
         <v>14</v>
@@ -11025,10 +11025,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B593" t="s">
         <v>1156</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1157</v>
       </c>
       <c r="C593">
         <v>14</v>
@@ -11036,10 +11036,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B594" t="s">
         <v>1158</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1159</v>
       </c>
       <c r="C594">
         <v>14</v>
@@ -11047,10 +11047,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B595" t="s">
         <v>1160</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1161</v>
       </c>
       <c r="C595">
         <v>14</v>
@@ -11058,10 +11058,10 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B596" t="s">
         <v>1162</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1163</v>
       </c>
       <c r="C596">
         <v>14</v>
@@ -11069,10 +11069,10 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B597" t="s">
         <v>1164</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1165</v>
       </c>
       <c r="C597">
         <v>14</v>
@@ -11080,10 +11080,10 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B598" t="s">
         <v>1166</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1167</v>
       </c>
       <c r="C598">
         <v>14</v>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B599" t="s">
         <v>1168</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1169</v>
       </c>
       <c r="C599">
         <v>14</v>
@@ -11102,10 +11102,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B600" t="s">
         <v>1170</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1171</v>
       </c>
       <c r="C600">
         <v>14</v>
@@ -11113,10 +11113,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B601" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C601">
         <v>14</v>
@@ -11124,10 +11124,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B602" t="s">
         <v>1173</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1174</v>
       </c>
       <c r="C602">
         <v>14</v>
@@ -11135,10 +11135,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B603" t="s">
         <v>1175</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1176</v>
       </c>
       <c r="C603">
         <v>14</v>
@@ -11146,10 +11146,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B604" t="s">
         <v>1177</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1178</v>
       </c>
       <c r="C604">
         <v>14</v>
@@ -11157,10 +11157,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B605" t="s">
         <v>1179</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1180</v>
       </c>
       <c r="C605">
         <v>14</v>
@@ -11168,10 +11168,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B606" t="s">
         <v>1181</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1182</v>
       </c>
       <c r="C606">
         <v>14</v>
@@ -11179,10 +11179,10 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B607" t="s">
         <v>1183</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1184</v>
       </c>
       <c r="C607">
         <v>14</v>
@@ -11190,10 +11190,10 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B608" t="s">
         <v>1185</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1186</v>
       </c>
       <c r="C608">
         <v>14</v>
@@ -11201,10 +11201,10 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B609" t="s">
         <v>1187</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1188</v>
       </c>
       <c r="C609">
         <v>14</v>
@@ -11212,10 +11212,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B610" t="s">
         <v>1189</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1190</v>
       </c>
       <c r="C610">
         <v>14</v>
@@ -11223,10 +11223,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B611" t="s">
         <v>1191</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1192</v>
       </c>
       <c r="C611">
         <v>14</v>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B612" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C612">
         <v>14</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B613" t="s">
         <v>1194</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1195</v>
       </c>
       <c r="C613">
         <v>14</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B614" t="s">
         <v>1196</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1197</v>
       </c>
       <c r="C614">
         <v>14</v>
@@ -11267,10 +11267,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B615" t="s">
         <v>1198</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1199</v>
       </c>
       <c r="C615">
         <v>14</v>
@@ -11278,10 +11278,10 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B616" t="s">
         <v>1200</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1201</v>
       </c>
       <c r="C616">
         <v>14</v>
@@ -11289,10 +11289,10 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B617" t="s">
         <v>1202</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1203</v>
       </c>
       <c r="C617">
         <v>14</v>
@@ -11300,10 +11300,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B618" t="s">
         <v>1204</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1205</v>
       </c>
       <c r="C618">
         <v>14</v>
@@ -11311,10 +11311,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B619" t="s">
         <v>1206</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1207</v>
       </c>
       <c r="C619">
         <v>14</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B620" t="s">
         <v>1208</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1209</v>
       </c>
       <c r="C620">
         <v>14</v>
@@ -11333,10 +11333,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B621" t="s">
         <v>1210</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1211</v>
       </c>
       <c r="C621">
         <v>14</v>
@@ -11344,10 +11344,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B622" t="s">
         <v>1212</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1213</v>
       </c>
       <c r="C622">
         <v>14</v>
@@ -11355,10 +11355,10 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B623" t="s">
         <v>1214</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1215</v>
       </c>
       <c r="C623">
         <v>14</v>
@@ -11366,10 +11366,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B624" t="s">
         <v>1216</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1217</v>
       </c>
       <c r="C624">
         <v>14</v>
@@ -11377,10 +11377,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B625" t="s">
         <v>1218</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1219</v>
       </c>
       <c r="C625">
         <v>14</v>
@@ -11388,10 +11388,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B626" t="s">
         <v>1220</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1221</v>
       </c>
       <c r="C626">
         <v>14</v>
@@ -11399,10 +11399,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B627" t="s">
         <v>1222</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1223</v>
       </c>
       <c r="C627">
         <v>14</v>
@@ -11410,10 +11410,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B628" t="s">
         <v>1224</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1225</v>
       </c>
       <c r="C628">
         <v>14</v>
@@ -11421,10 +11421,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B629" t="s">
         <v>1226</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1227</v>
       </c>
       <c r="C629">
         <v>14</v>
@@ -11432,10 +11432,10 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B630" t="s">
         <v>1228</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1229</v>
       </c>
       <c r="C630">
         <v>14</v>
@@ -11443,10 +11443,10 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B631" t="s">
         <v>1230</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1231</v>
       </c>
       <c r="C631">
         <v>14</v>
@@ -11454,10 +11454,10 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B632" t="s">
         <v>1232</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1233</v>
       </c>
       <c r="C632">
         <v>14</v>
@@ -11465,10 +11465,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B633" t="s">
         <v>1234</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1235</v>
       </c>
       <c r="C633">
         <v>14</v>
@@ -11476,10 +11476,10 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B634" t="s">
         <v>1236</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1237</v>
       </c>
       <c r="C634">
         <v>14</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B635" t="s">
         <v>1238</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1239</v>
       </c>
       <c r="C635">
         <v>14</v>
@@ -11498,10 +11498,10 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B636" t="s">
         <v>1240</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1241</v>
       </c>
       <c r="C636">
         <v>14</v>
@@ -11509,10 +11509,10 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B637" t="s">
         <v>1242</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1243</v>
       </c>
       <c r="C637">
         <v>14</v>
@@ -11520,10 +11520,10 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B638" t="s">
         <v>1244</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1245</v>
       </c>
       <c r="C638">
         <v>14</v>
@@ -11531,10 +11531,10 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B639" t="s">
         <v>1246</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1247</v>
       </c>
       <c r="C639">
         <v>14</v>
@@ -11542,10 +11542,10 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B640" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C640">
         <v>14</v>
@@ -11553,10 +11553,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B641" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C641">
         <v>14</v>
@@ -11564,10 +11564,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B642" t="s">
         <v>1250</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1251</v>
       </c>
       <c r="C642">
         <v>14</v>
@@ -11575,10 +11575,10 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B643" t="s">
         <v>1252</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1253</v>
       </c>
       <c r="C643">
         <v>14</v>
@@ -11586,10 +11586,10 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B644" t="s">
         <v>1254</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1255</v>
       </c>
       <c r="C644">
         <v>14</v>
@@ -11597,10 +11597,10 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B645" t="s">
         <v>1256</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1257</v>
       </c>
       <c r="C645">
         <v>14</v>
@@ -11608,10 +11608,10 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B646" t="s">
         <v>1258</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1259</v>
       </c>
       <c r="C646">
         <v>14</v>
@@ -11619,10 +11619,10 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B647" t="s">
         <v>1260</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1261</v>
       </c>
       <c r="C647">
         <v>14</v>
@@ -11630,10 +11630,10 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B648" t="s">
         <v>1262</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1263</v>
       </c>
       <c r="C648">
         <v>14</v>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B649" t="s">
         <v>1264</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1265</v>
       </c>
       <c r="C649">
         <v>14</v>
@@ -11652,10 +11652,10 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B650" t="s">
         <v>1266</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1267</v>
       </c>
       <c r="C650">
         <v>14</v>
@@ -11663,10 +11663,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B651" t="s">
         <v>1268</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1269</v>
       </c>
       <c r="C651">
         <v>14</v>
@@ -11674,10 +11674,10 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B652" t="s">
         <v>1270</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1271</v>
       </c>
       <c r="C652">
         <v>14</v>
@@ -11685,10 +11685,10 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B653" t="s">
         <v>1272</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1273</v>
       </c>
       <c r="C653">
         <v>14</v>
@@ -11696,10 +11696,10 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B654" t="s">
         <v>1274</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1275</v>
       </c>
       <c r="C654">
         <v>14</v>
@@ -11707,10 +11707,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B655" t="s">
         <v>1276</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1277</v>
       </c>
       <c r="C655">
         <v>14</v>
@@ -11718,10 +11718,10 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B656" t="s">
         <v>1278</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1279</v>
       </c>
       <c r="C656">
         <v>14</v>
@@ -11729,10 +11729,10 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B657" t="s">
         <v>1280</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1281</v>
       </c>
       <c r="C657">
         <v>14</v>
@@ -11740,10 +11740,10 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B658" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C658">
         <v>14</v>
@@ -11751,10 +11751,10 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B659" t="s">
         <v>1283</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1284</v>
       </c>
       <c r="C659">
         <v>14</v>
@@ -11762,10 +11762,10 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B660" t="s">
         <v>1285</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1286</v>
       </c>
       <c r="C660">
         <v>14</v>
@@ -11773,10 +11773,10 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B661" t="s">
         <v>1287</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1288</v>
       </c>
       <c r="C661">
         <v>14</v>
@@ -11784,10 +11784,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B662" t="s">
         <v>1289</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1290</v>
       </c>
       <c r="C662">
         <v>14</v>
@@ -11795,10 +11795,10 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B663" t="s">
         <v>1291</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1292</v>
       </c>
       <c r="C663">
         <v>14</v>
@@ -11806,10 +11806,10 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B664" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C664">
         <v>14</v>
@@ -11817,10 +11817,10 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B665" t="s">
         <v>1294</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1295</v>
       </c>
       <c r="C665">
         <v>14</v>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B666" t="s">
         <v>1296</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1297</v>
       </c>
       <c r="C666">
         <v>14</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B667" t="s">
         <v>1298</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1299</v>
       </c>
       <c r="C667">
         <v>14</v>
@@ -11850,10 +11850,10 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B668" t="s">
         <v>1300</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1301</v>
       </c>
       <c r="C668">
         <v>14</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B669" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C669">
         <v>14</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B670" t="s">
         <v>1303</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1304</v>
       </c>
       <c r="C670">
         <v>14</v>
@@ -11883,10 +11883,10 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B671" t="s">
         <v>1305</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1306</v>
       </c>
       <c r="C671">
         <v>14</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B672" t="s">
         <v>1307</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1308</v>
       </c>
       <c r="C672">
         <v>14</v>
@@ -11905,10 +11905,10 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B673" t="s">
         <v>1309</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1310</v>
       </c>
       <c r="C673">
         <v>14</v>
@@ -11916,10 +11916,10 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B674" t="s">
         <v>1311</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1312</v>
       </c>
       <c r="C674">
         <v>14</v>
@@ -11927,10 +11927,10 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B675" t="s">
         <v>1313</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1314</v>
       </c>
       <c r="C675">
         <v>14</v>
@@ -11938,10 +11938,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B676" t="s">
         <v>1315</v>
-      </c>
-      <c r="B676" t="s">
-        <v>1316</v>
       </c>
       <c r="C676">
         <v>14</v>
@@ -11949,10 +11949,10 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B677" t="s">
         <v>1317</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1318</v>
       </c>
       <c r="C677">
         <v>14</v>
@@ -11960,10 +11960,10 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B678" t="s">
         <v>1319</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1320</v>
       </c>
       <c r="C678">
         <v>14</v>
@@ -11971,10 +11971,10 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B679" t="s">
         <v>1321</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1322</v>
       </c>
       <c r="C679">
         <v>14</v>
@@ -11982,10 +11982,10 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B680" t="s">
         <v>1323</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1324</v>
       </c>
       <c r="C680">
         <v>14</v>
@@ -11993,10 +11993,10 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B681" t="s">
         <v>1325</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1326</v>
       </c>
       <c r="C681">
         <v>14</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B682" t="s">
         <v>1327</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1328</v>
       </c>
       <c r="C682">
         <v>14</v>
@@ -12015,10 +12015,10 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B683" t="s">
         <v>1329</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1330</v>
       </c>
       <c r="C683">
         <v>14</v>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B684" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C684">
         <v>14</v>
@@ -12037,10 +12037,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B685" t="s">
         <v>1332</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1333</v>
       </c>
       <c r="C685">
         <v>14</v>
@@ -12048,10 +12048,10 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B686" t="s">
         <v>1334</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1335</v>
       </c>
       <c r="C686">
         <v>14</v>
@@ -12059,10 +12059,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B687" t="s">
         <v>1336</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1337</v>
       </c>
       <c r="C687">
         <v>14</v>
@@ -12070,10 +12070,10 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B688" t="s">
         <v>1338</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1339</v>
       </c>
       <c r="C688">
         <v>14</v>
@@ -12081,10 +12081,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B689" t="s">
         <v>1340</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1341</v>
       </c>
       <c r="C689">
         <v>14</v>
@@ -12092,10 +12092,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B690" t="s">
         <v>1342</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1343</v>
       </c>
       <c r="C690">
         <v>14</v>
@@ -12103,10 +12103,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B691" t="s">
         <v>1344</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1345</v>
       </c>
       <c r="C691">
         <v>14</v>
@@ -12114,10 +12114,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B692" t="s">
         <v>1346</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1347</v>
       </c>
       <c r="C692">
         <v>14</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B693" t="s">
         <v>1348</v>
-      </c>
-      <c r="B693" t="s">
-        <v>1349</v>
       </c>
       <c r="C693">
         <v>14</v>
@@ -12136,10 +12136,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B694" t="s">
         <v>1350</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1351</v>
       </c>
       <c r="C694">
         <v>14</v>
@@ -12147,10 +12147,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B695" t="s">
         <v>1352</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1353</v>
       </c>
       <c r="C695">
         <v>14</v>
@@ -12158,10 +12158,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B696" t="s">
         <v>1354</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1355</v>
       </c>
       <c r="C696">
         <v>14</v>
@@ -12169,10 +12169,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B697" t="s">
         <v>1356</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1357</v>
       </c>
       <c r="C697">
         <v>14</v>
@@ -12180,10 +12180,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B698" t="s">
         <v>1358</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1359</v>
       </c>
       <c r="C698">
         <v>14</v>
@@ -12191,10 +12191,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B699" t="s">
         <v>1360</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1361</v>
       </c>
       <c r="C699">
         <v>14</v>
@@ -12202,10 +12202,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B700" t="s">
         <v>1362</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1363</v>
       </c>
       <c r="C700">
         <v>14</v>
@@ -12213,10 +12213,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B701" t="s">
         <v>1364</v>
-      </c>
-      <c r="B701" t="s">
-        <v>1365</v>
       </c>
       <c r="C701">
         <v>14</v>
@@ -12224,10 +12224,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B702" t="s">
         <v>1366</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1367</v>
       </c>
       <c r="C702">
         <v>14</v>
@@ -12235,10 +12235,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B703" t="s">
         <v>1368</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1369</v>
       </c>
       <c r="C703">
         <v>14</v>
@@ -12246,10 +12246,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B704" t="s">
         <v>1370</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1371</v>
       </c>
       <c r="C704">
         <v>14</v>

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PythonProjects\FinnishWordsLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0614F416-0B3F-417A-A6CC-9835A4B2F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A62A34-D05B-4AE3-86F5-A185F227ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37590" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,21 +37,24 @@
     <t>somewhere</t>
   </si>
   <si>
+    <t>miettiä</t>
+  </si>
+  <si>
+    <t>to think (over), to consider</t>
+  </si>
+  <si>
     <t>jotka</t>
   </si>
   <si>
+    <t>who/that/which (relative)</t>
+  </si>
+  <si>
     <t>jossa</t>
   </si>
   <si>
     <t>in which</t>
   </si>
   <si>
-    <t>miettiä</t>
-  </si>
-  <si>
-    <t>to think (over), to consider</t>
-  </si>
-  <si>
     <t>olla ostoksilla</t>
   </si>
   <si>
@@ -1486,423 +1489,423 @@
     <t>Otso</t>
   </si>
   <si>
+    <t>mutta</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>sika</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>sovellus</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>märkä</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>australialainen</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>vihainen</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>tumma</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>oranssi</t>
+  </si>
+  <si>
+    <t>orange (color)</t>
+  </si>
+  <si>
+    <t>norjalainen</t>
+  </si>
+  <si>
+    <t>Norwegian person</t>
+  </si>
+  <si>
+    <t>enemmän</t>
+  </si>
+  <si>
+    <t>more (not enough)</t>
+  </si>
+  <si>
+    <t>tämä</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>usein</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>ketä</t>
+  </si>
+  <si>
+    <t>whom (partitive)</t>
+  </si>
+  <si>
+    <t>hiki</t>
+  </si>
+  <si>
+    <t>sweat (body fluid)</t>
+  </si>
+  <si>
+    <t>rauhassa</t>
+  </si>
+  <si>
+    <t>some quiet</t>
+  </si>
+  <si>
+    <t>nähdä</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>vanha</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>väsynyt</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>undulaatti</t>
+  </si>
+  <si>
+    <t>parakeet</t>
+  </si>
+  <si>
+    <t>suosittu</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>äiti</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>myöhemmin</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>maistaa</t>
+  </si>
+  <si>
+    <t>to taste, to try (a dish)</t>
+  </si>
+  <si>
+    <t>kuulua</t>
+  </si>
+  <si>
+    <t>to be heard</t>
+  </si>
+  <si>
+    <t>pirtelö</t>
+  </si>
+  <si>
+    <t>milkshake</t>
+  </si>
+  <si>
+    <t>lörtsy</t>
+  </si>
+  <si>
+    <t>moni</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>vauva</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>kirkko</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>myrkyllinen</t>
+  </si>
+  <si>
+    <t>poisonous, venomous</t>
+  </si>
+  <si>
+    <t>voi</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>siili</t>
+  </si>
+  <si>
+    <t>hedgehog</t>
+  </si>
+  <si>
+    <t>Roosa</t>
+  </si>
+  <si>
+    <t>lause</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>hau hau</t>
+  </si>
+  <si>
+    <t>woof (dog sound)</t>
+  </si>
+  <si>
+    <t>asua</t>
+  </si>
+  <si>
+    <t>to live (in some place)</t>
+  </si>
+  <si>
+    <t>vesi</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>huomen</t>
+  </si>
+  <si>
+    <t>forenoon</t>
+  </si>
+  <si>
+    <t>mikrofoni</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>maa</t>
+  </si>
+  <si>
+    <t>soil, ground</t>
+  </si>
+  <si>
+    <t>suola</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>kissa</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>iloinen</t>
+  </si>
+  <si>
+    <t>jolly</t>
+  </si>
+  <si>
+    <t>rakastaa</t>
+  </si>
+  <si>
+    <t>to love</t>
+  </si>
+  <si>
+    <t>miksi</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>growl (bear sound)</t>
+  </si>
+  <si>
+    <t>viro</t>
+  </si>
+  <si>
+    <t>Estonian language</t>
+  </si>
+  <si>
+    <t>hänellä</t>
+  </si>
+  <si>
+    <t>s/he has</t>
+  </si>
+  <si>
+    <t>anteeksi</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
+    <t>tyyni</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>kysymys</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>haista</t>
+  </si>
+  <si>
+    <t>to smell</t>
+  </si>
+  <si>
+    <t>päivä</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>sänky</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>grillata</t>
+  </si>
+  <si>
+    <t>to grill</t>
+  </si>
+  <si>
+    <t>pörröinen</t>
+  </si>
+  <si>
+    <t>fluffy</t>
+  </si>
+  <si>
+    <t>tuossa</t>
+  </si>
+  <si>
+    <t>right there</t>
+  </si>
+  <si>
+    <t>lamppu</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>tarpeeksi</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>sinulla</t>
+  </si>
+  <si>
+    <t>you (singular) have</t>
+  </si>
+  <si>
+    <t>nopea</t>
+  </si>
+  <si>
+    <t>quick, fast</t>
+  </si>
+  <si>
+    <t>hys</t>
+  </si>
+  <si>
+    <t>hush</t>
+  </si>
+  <si>
+    <t>vaan</t>
+  </si>
+  <si>
+    <t>but (positive)</t>
+  </si>
+  <si>
+    <t>sekunti</t>
+  </si>
+  <si>
+    <t>second (a measure of time)</t>
+  </si>
+  <si>
+    <t>teatteri</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>vähän</t>
+  </si>
+  <si>
+    <t>a little bit of</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>suomi</t>
+  </si>
+  <si>
+    <t>Finnish language</t>
+  </si>
+  <si>
+    <t>nimi</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>mutta</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>sika</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>sovellus</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>märkä</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>australialainen</t>
-  </si>
-  <si>
-    <t>Australian</t>
-  </si>
-  <si>
-    <t>vihainen</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>tumma</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>oranssi</t>
-  </si>
-  <si>
-    <t>orange (color)</t>
-  </si>
-  <si>
-    <t>norjalainen</t>
-  </si>
-  <si>
-    <t>Norwegian person</t>
-  </si>
-  <si>
-    <t>enemmän</t>
-  </si>
-  <si>
-    <t>more (not enough)</t>
-  </si>
-  <si>
-    <t>tämä</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>usein</t>
-  </si>
-  <si>
-    <t>often</t>
-  </si>
-  <si>
-    <t>ketä</t>
-  </si>
-  <si>
-    <t>whom (partitive)</t>
-  </si>
-  <si>
-    <t>hiki</t>
-  </si>
-  <si>
-    <t>sweat (body fluid)</t>
-  </si>
-  <si>
-    <t>rauhassa</t>
-  </si>
-  <si>
-    <t>some quiet</t>
-  </si>
-  <si>
-    <t>nähdä</t>
-  </si>
-  <si>
-    <t>to see</t>
-  </si>
-  <si>
-    <t>vanha</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>väsynyt</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>undulaatti</t>
-  </si>
-  <si>
-    <t>parakeet</t>
-  </si>
-  <si>
-    <t>suosittu</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>äiti</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>myöhemmin</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>maistaa</t>
-  </si>
-  <si>
-    <t>to taste, to try (a dish)</t>
-  </si>
-  <si>
-    <t>kuulua</t>
-  </si>
-  <si>
-    <t>to be heard</t>
-  </si>
-  <si>
-    <t>pirtelö</t>
-  </si>
-  <si>
-    <t>milkshake</t>
-  </si>
-  <si>
-    <t>lörtsy</t>
-  </si>
-  <si>
-    <t>moni</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>vauva</t>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>kirkko</t>
-  </si>
-  <si>
-    <t>church</t>
-  </si>
-  <si>
-    <t>myrkyllinen</t>
-  </si>
-  <si>
-    <t>poisonous, venomous</t>
-  </si>
-  <si>
-    <t>voi</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>siili</t>
-  </si>
-  <si>
-    <t>hedgehog</t>
-  </si>
-  <si>
-    <t>Roosa</t>
-  </si>
-  <si>
-    <t>lause</t>
-  </si>
-  <si>
-    <t>sentence</t>
-  </si>
-  <si>
-    <t>hau hau</t>
-  </si>
-  <si>
-    <t>woof (dog sound)</t>
-  </si>
-  <si>
-    <t>asua</t>
-  </si>
-  <si>
-    <t>to live (in some place)</t>
-  </si>
-  <si>
-    <t>vesi</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>huomen</t>
-  </si>
-  <si>
-    <t>forenoon</t>
-  </si>
-  <si>
-    <t>mikrofoni</t>
-  </si>
-  <si>
-    <t>microphone</t>
-  </si>
-  <si>
-    <t>maa</t>
-  </si>
-  <si>
-    <t>soil, ground</t>
-  </si>
-  <si>
-    <t>suola</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>kissa</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>iloinen</t>
-  </si>
-  <si>
-    <t>jolly</t>
-  </si>
-  <si>
-    <t>rakastaa</t>
-  </si>
-  <si>
-    <t>to love</t>
-  </si>
-  <si>
-    <t>miksi</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>mur</t>
-  </si>
-  <si>
-    <t>growl (bear sound)</t>
-  </si>
-  <si>
-    <t>viro</t>
-  </si>
-  <si>
-    <t>Estonian language</t>
-  </si>
-  <si>
-    <t>hänellä</t>
-  </si>
-  <si>
-    <t>s/he has</t>
-  </si>
-  <si>
-    <t>anteeksi</t>
-  </si>
-  <si>
-    <t>excuse me</t>
-  </si>
-  <si>
-    <t>tyyni</t>
-  </si>
-  <si>
-    <t>calm</t>
-  </si>
-  <si>
-    <t>kysymys</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>haista</t>
-  </si>
-  <si>
-    <t>to smell</t>
-  </si>
-  <si>
-    <t>päivä</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>sänky</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>grillata</t>
-  </si>
-  <si>
-    <t>to grill</t>
-  </si>
-  <si>
-    <t>pörröinen</t>
-  </si>
-  <si>
-    <t>fluffy</t>
-  </si>
-  <si>
-    <t>tuossa</t>
-  </si>
-  <si>
-    <t>right there</t>
-  </si>
-  <si>
-    <t>lamppu</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>tarpeeksi</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>sinulla</t>
-  </si>
-  <si>
-    <t>you (singular) have</t>
-  </si>
-  <si>
-    <t>nopea</t>
-  </si>
-  <si>
-    <t>quick, fast</t>
-  </si>
-  <si>
-    <t>hys</t>
-  </si>
-  <si>
-    <t>hush</t>
-  </si>
-  <si>
-    <t>vaan</t>
-  </si>
-  <si>
-    <t>but (positive)</t>
-  </si>
-  <si>
-    <t>sekunti</t>
-  </si>
-  <si>
-    <t>second (a measure of time)</t>
-  </si>
-  <si>
-    <t>teatteri</t>
-  </si>
-  <si>
-    <t>theater</t>
-  </si>
-  <si>
-    <t>vähän</t>
-  </si>
-  <si>
-    <t>a little bit of</t>
-  </si>
-  <si>
-    <t>iso</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>suomi</t>
-  </si>
-  <si>
-    <t>Finnish language</t>
-  </si>
-  <si>
-    <t>nimi</t>
-  </si>
-  <si>
     <t>hillo</t>
   </si>
   <si>
@@ -4133,9 +4136,6 @@
   </si>
   <si>
     <t>Danish pastry</t>
-  </si>
-  <si>
-    <t>who/that/which (relative)</t>
   </si>
 </sst>
 </file>
@@ -4501,15 +4501,10 @@
   <dimension ref="A1:C704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4538,40 +4533,40 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1371</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4579,10 +4574,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4590,10 +4585,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4601,10 +4596,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4612,10 +4607,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -4623,10 +4618,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4634,10 +4629,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4645,10 +4640,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4656,10 +4651,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4667,10 +4662,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4678,10 +4673,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4689,10 +4684,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4700,10 +4695,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4711,10 +4706,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4722,10 +4717,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4733,10 +4728,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4744,10 +4739,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4755,10 +4750,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4766,10 +4761,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4777,10 +4772,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4788,10 +4783,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4799,10 +4794,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4810,10 +4805,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4821,10 +4816,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4832,10 +4827,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4843,10 +4838,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4854,10 +4849,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4865,10 +4860,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4876,10 +4871,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4887,10 +4882,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4898,10 +4893,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4909,10 +4904,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4920,10 +4915,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -4931,10 +4926,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -4942,10 +4937,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -4953,10 +4948,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -4964,10 +4959,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -4975,10 +4970,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -4986,10 +4981,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -4997,10 +4992,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5008,10 +5003,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5019,10 +5014,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5030,10 +5025,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5041,10 +5036,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5052,10 +5047,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5063,10 +5058,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5074,10 +5069,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5085,10 +5080,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5096,10 +5091,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5107,10 +5102,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -5118,10 +5113,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -5129,10 +5124,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -5140,10 +5135,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5151,10 +5146,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -5162,10 +5157,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -5173,10 +5168,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -5184,10 +5179,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -5195,10 +5190,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -5206,10 +5201,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -5217,10 +5212,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -5228,10 +5223,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -5239,10 +5234,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -5250,10 +5245,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -5261,10 +5256,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -5272,10 +5267,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -5283,10 +5278,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -5294,10 +5289,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -5305,10 +5300,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -5316,10 +5311,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -5327,10 +5322,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -5338,10 +5333,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -5349,10 +5344,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -5360,10 +5355,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -5371,10 +5366,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -5382,10 +5377,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -5393,10 +5388,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -5404,10 +5399,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -5415,10 +5410,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -5426,10 +5421,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84">
         <v>13</v>
@@ -5437,10 +5432,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85">
         <v>13</v>
@@ -5448,10 +5443,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86">
         <v>13</v>
@@ -5459,10 +5454,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C87">
         <v>13</v>
@@ -5470,10 +5465,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C88">
         <v>13</v>
@@ -5481,10 +5476,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C89">
         <v>13</v>
@@ -5492,10 +5487,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90">
         <v>13</v>
@@ -5503,10 +5498,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91">
         <v>13</v>
@@ -5514,10 +5509,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92">
         <v>13</v>
@@ -5525,10 +5520,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -5536,10 +5531,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C94">
         <v>13</v>
@@ -5547,10 +5542,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <v>13</v>
@@ -5558,10 +5553,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C96">
         <v>13</v>
@@ -5569,10 +5564,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C97">
         <v>13</v>
@@ -5580,10 +5575,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -5591,10 +5586,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C99">
         <v>13</v>
@@ -5602,10 +5597,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -5613,10 +5608,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -5624,10 +5619,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102">
         <v>13</v>
@@ -5635,10 +5630,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C103">
         <v>13</v>
@@ -5646,10 +5641,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>13</v>
@@ -5657,10 +5652,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C105">
         <v>13</v>
@@ -5668,10 +5663,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C106">
         <v>13</v>
@@ -5679,10 +5674,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -5690,10 +5685,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C108">
         <v>13</v>
@@ -5701,10 +5696,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109">
         <v>13</v>
@@ -5712,10 +5707,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C110">
         <v>13</v>
@@ -5723,10 +5718,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -5734,10 +5729,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <v>13</v>
@@ -5745,10 +5740,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C113">
         <v>13</v>
@@ -5756,10 +5751,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <v>13</v>
@@ -5767,10 +5762,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C115">
         <v>13</v>
@@ -5778,10 +5773,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C116">
         <v>13</v>
@@ -5789,10 +5784,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C117">
         <v>13</v>
@@ -5800,10 +5795,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C118">
         <v>13</v>
@@ -5811,10 +5806,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C119">
         <v>13</v>
@@ -5822,10 +5817,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -5833,10 +5828,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C121">
         <v>13</v>
@@ -5844,10 +5839,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C122">
         <v>13</v>
@@ -5855,10 +5850,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C123">
         <v>13</v>
@@ -5866,10 +5861,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C124">
         <v>13</v>
@@ -5877,10 +5872,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C125">
         <v>13</v>
@@ -5888,10 +5883,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126">
         <v>13</v>
@@ -5899,10 +5894,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C127">
         <v>13</v>
@@ -5910,10 +5905,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C128">
         <v>13</v>
@@ -5921,10 +5916,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C129">
         <v>13</v>
@@ -5932,10 +5927,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C130">
         <v>13</v>
@@ -5943,10 +5938,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C131">
         <v>13</v>
@@ -5954,10 +5949,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C132">
         <v>13</v>
@@ -5965,10 +5960,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -5976,10 +5971,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C134">
         <v>13</v>
@@ -5987,10 +5982,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C135">
         <v>13</v>
@@ -5998,10 +5993,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C136">
         <v>13</v>
@@ -6009,10 +6004,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -6020,10 +6015,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -6031,10 +6026,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -6042,10 +6037,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C140">
         <v>13</v>
@@ -6053,10 +6048,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C141">
         <v>13</v>
@@ -6064,10 +6059,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -6075,10 +6070,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C143">
         <v>13</v>
@@ -6086,10 +6081,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C144">
         <v>13</v>
@@ -6097,10 +6092,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C145">
         <v>13</v>
@@ -6108,10 +6103,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C146">
         <v>13</v>
@@ -6119,10 +6114,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C147">
         <v>13</v>
@@ -6130,10 +6125,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -6141,10 +6136,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C149">
         <v>13</v>
@@ -6152,10 +6147,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C150">
         <v>13</v>
@@ -6163,10 +6158,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C151">
         <v>13</v>
@@ -6174,10 +6169,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C152">
         <v>13</v>
@@ -6185,10 +6180,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153">
         <v>13</v>
@@ -6196,10 +6191,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C154">
         <v>13</v>
@@ -6207,10 +6202,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C155">
         <v>13</v>
@@ -6218,10 +6213,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C156">
         <v>13</v>
@@ -6229,10 +6224,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157">
         <v>13</v>
@@ -6240,10 +6235,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C158">
         <v>13</v>
@@ -6251,10 +6246,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159">
         <v>13</v>
@@ -6262,10 +6257,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C160">
         <v>13</v>
@@ -6273,10 +6268,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161">
         <v>13</v>
@@ -6284,10 +6279,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C162">
         <v>13</v>
@@ -6295,10 +6290,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163">
         <v>13</v>
@@ -6306,10 +6301,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -6317,10 +6312,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165">
         <v>13</v>
@@ -6328,10 +6323,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C166">
         <v>13</v>
@@ -6339,10 +6334,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C167">
         <v>13</v>
@@ -6350,10 +6345,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C168">
         <v>13</v>
@@ -6361,10 +6356,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C169">
         <v>13</v>
@@ -6372,10 +6367,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C170">
         <v>13</v>
@@ -6383,10 +6378,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C171">
         <v>13</v>
@@ -6394,10 +6389,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C172">
         <v>13</v>
@@ -6405,10 +6400,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C173">
         <v>13</v>
@@ -6416,10 +6411,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C174">
         <v>13</v>
@@ -6427,10 +6422,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C175">
         <v>13</v>
@@ -6438,10 +6433,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C176">
         <v>13</v>
@@ -6449,10 +6444,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C177">
         <v>13</v>
@@ -6460,10 +6455,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C178">
         <v>13</v>
@@ -6471,10 +6466,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C179">
         <v>13</v>
@@ -6482,10 +6477,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C180">
         <v>13</v>
@@ -6493,10 +6488,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C181">
         <v>13</v>
@@ -6504,10 +6499,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C182">
         <v>13</v>
@@ -6515,10 +6510,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C183">
         <v>13</v>
@@ -6526,10 +6521,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C184">
         <v>13</v>
@@ -6537,10 +6532,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C185">
         <v>13</v>
@@ -6548,10 +6543,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C186">
         <v>13</v>
@@ -6559,10 +6554,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C187">
         <v>13</v>
@@ -6570,10 +6565,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C188">
         <v>13</v>
@@ -6581,10 +6576,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C189">
         <v>13</v>
@@ -6592,10 +6587,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B190" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C190">
         <v>13</v>
@@ -6603,10 +6598,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C191">
         <v>13</v>
@@ -6614,10 +6609,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C192">
         <v>13</v>
@@ -6625,10 +6620,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C193">
         <v>13</v>
@@ -6636,10 +6631,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C194">
         <v>13</v>
@@ -6647,10 +6642,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C195">
         <v>13</v>
@@ -6658,10 +6653,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C196">
         <v>13</v>
@@ -6669,10 +6664,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C197">
         <v>13</v>
@@ -6680,10 +6675,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C198">
         <v>13</v>
@@ -6691,10 +6686,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C199">
         <v>13</v>
@@ -6702,10 +6697,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C200">
         <v>13</v>
@@ -6713,10 +6708,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C201">
         <v>13</v>
@@ -6724,10 +6719,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C202">
         <v>13</v>
@@ -6735,10 +6730,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C203">
         <v>13</v>
@@ -6746,10 +6741,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C204">
         <v>13</v>
@@ -6757,10 +6752,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C205">
         <v>13</v>
@@ -6768,10 +6763,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B206" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C206">
         <v>13</v>
@@ -6779,10 +6774,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C207">
         <v>13</v>
@@ -6790,10 +6785,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -6801,10 +6796,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C209">
         <v>13</v>
@@ -6812,10 +6807,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C210">
         <v>13</v>
@@ -6823,10 +6818,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C211">
         <v>13</v>
@@ -6834,10 +6829,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C212">
         <v>13</v>
@@ -6845,10 +6840,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C213">
         <v>13</v>
@@ -6856,10 +6851,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C214">
         <v>13</v>
@@ -6867,10 +6862,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C215">
         <v>13</v>
@@ -6878,10 +6873,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -6889,10 +6884,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C217">
         <v>13</v>
@@ -6900,10 +6895,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B218" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C218">
         <v>13</v>
@@ -6911,10 +6906,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B219" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C219">
         <v>13</v>
@@ -6922,10 +6917,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B220" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C220">
         <v>13</v>
@@ -6933,10 +6928,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B221" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C221">
         <v>13</v>
@@ -6944,10 +6939,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B222" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C222">
         <v>13</v>
@@ -6955,10 +6950,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B223" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C223">
         <v>13</v>
@@ -6966,10 +6961,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C224">
         <v>13</v>
@@ -6977,10 +6972,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B225" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C225">
         <v>13</v>
@@ -6988,10 +6983,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B226" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C226">
         <v>13</v>
@@ -6999,10 +6994,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B227" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C227">
         <v>13</v>
@@ -7010,10 +7005,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -7021,10 +7016,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B229" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C229">
         <v>13</v>
@@ -7032,10 +7027,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C230">
         <v>13</v>
@@ -7043,10 +7038,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B231" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C231">
         <v>13</v>
@@ -7054,10 +7049,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C232">
         <v>13</v>
@@ -7065,10 +7060,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B233" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C233">
         <v>13</v>
@@ -7076,10 +7071,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B234" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C234">
         <v>13</v>
@@ -7087,10 +7082,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C235">
         <v>13</v>
@@ -7098,10 +7093,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B236" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C236">
         <v>13</v>
@@ -7109,10 +7104,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C237">
         <v>13</v>
@@ -7120,10 +7115,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C238">
         <v>13</v>
@@ -7131,10 +7126,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B239" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C239">
         <v>13</v>
@@ -7142,10 +7137,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C240">
         <v>13</v>
@@ -7153,10 +7148,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B241" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C241">
         <v>13</v>
@@ -7164,10 +7159,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C242">
         <v>13</v>
@@ -7175,10 +7170,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B243" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C243">
         <v>13</v>
@@ -7186,10 +7181,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C244">
         <v>13</v>
@@ -7197,10 +7192,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B245" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C245">
         <v>13</v>
@@ -7208,10 +7203,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C246">
         <v>13</v>
@@ -7219,10 +7214,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C247">
         <v>13</v>
@@ -7230,10 +7225,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C248">
         <v>13</v>
@@ -8014,7 +8009,7 @@
         <v>626</v>
       </c>
       <c r="B319" t="s">
-        <v>488</v>
+        <v>627</v>
       </c>
       <c r="C319">
         <v>14</v>
@@ -8022,10 +8017,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B320" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C320">
         <v>14</v>
@@ -8033,10 +8028,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B321" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C321">
         <v>14</v>
@@ -8044,10 +8039,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B322" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C322">
         <v>14</v>
@@ -8055,10 +8050,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B323" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C323">
         <v>14</v>
@@ -8066,10 +8061,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B324" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C324">
         <v>14</v>
@@ -8077,10 +8072,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B325" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C325">
         <v>14</v>
@@ -8088,10 +8083,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B326" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C326">
         <v>14</v>
@@ -8099,10 +8094,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B327" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C327">
         <v>14</v>
@@ -8110,10 +8105,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B328" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C328">
         <v>14</v>
@@ -8121,10 +8116,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B329" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C329">
         <v>14</v>
@@ -8132,10 +8127,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B330" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C330">
         <v>14</v>
@@ -8143,10 +8138,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B331" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C331">
         <v>14</v>
@@ -8154,10 +8149,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B332" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C332">
         <v>14</v>
@@ -8165,10 +8160,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B333" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C333">
         <v>14</v>
@@ -8176,10 +8171,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B334" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C334">
         <v>14</v>
@@ -8187,10 +8182,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B335" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C335">
         <v>14</v>
@@ -8198,10 +8193,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B336" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C336">
         <v>14</v>
@@ -8209,10 +8204,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B337" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C337">
         <v>14</v>
@@ -8220,10 +8215,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B338" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C338">
         <v>14</v>
@@ -8231,10 +8226,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B339" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C339">
         <v>14</v>
@@ -8242,10 +8237,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B340" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C340">
         <v>14</v>
@@ -8253,10 +8248,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B341" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C341">
         <v>14</v>
@@ -8264,10 +8259,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B342" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C342">
         <v>14</v>
@@ -8275,10 +8270,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B343" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C343">
         <v>14</v>
@@ -8286,10 +8281,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B344" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C344">
         <v>14</v>
@@ -8297,10 +8292,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B345" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C345">
         <v>14</v>
@@ -8308,10 +8303,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B346" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C346">
         <v>14</v>
@@ -8319,10 +8314,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B347" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C347">
         <v>14</v>
@@ -8330,10 +8325,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B348" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C348">
         <v>14</v>
@@ -8341,10 +8336,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B349" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C349">
         <v>14</v>
@@ -8352,10 +8347,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B350" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C350">
         <v>14</v>
@@ -8363,10 +8358,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B351" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C351">
         <v>14</v>
@@ -8374,10 +8369,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B352" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C352">
         <v>14</v>
@@ -8385,10 +8380,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B353" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C353">
         <v>14</v>
@@ -8396,10 +8391,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B354" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C354">
         <v>14</v>
@@ -8407,10 +8402,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B355" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C355">
         <v>14</v>
@@ -8418,10 +8413,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B356" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C356">
         <v>14</v>
@@ -8429,10 +8424,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B357" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C357">
         <v>14</v>
@@ -8440,10 +8435,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B358" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C358">
         <v>14</v>
@@ -8451,10 +8446,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B359" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C359">
         <v>14</v>
@@ -8462,10 +8457,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B360" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C360">
         <v>14</v>
@@ -8473,10 +8468,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B361" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C361">
         <v>14</v>
@@ -8484,10 +8479,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B362" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C362">
         <v>14</v>
@@ -8495,10 +8490,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B363" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C363">
         <v>14</v>
@@ -8506,10 +8501,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B364" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C364">
         <v>14</v>
@@ -8517,10 +8512,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B365" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C365">
         <v>14</v>
@@ -8528,10 +8523,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B366" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C366">
         <v>14</v>
@@ -8539,10 +8534,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B367" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C367">
         <v>14</v>
@@ -8550,10 +8545,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B368" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C368">
         <v>14</v>
@@ -8561,10 +8556,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B369" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C369">
         <v>14</v>
@@ -8572,10 +8567,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B370" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C370">
         <v>14</v>
@@ -8583,10 +8578,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B371" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C371">
         <v>14</v>
@@ -8594,10 +8589,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B372" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C372">
         <v>14</v>
@@ -8605,10 +8600,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B373" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C373">
         <v>14</v>
@@ -8616,10 +8611,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B374" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C374">
         <v>14</v>
@@ -8627,10 +8622,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B375" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C375">
         <v>14</v>
@@ -8638,10 +8633,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B376" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C376">
         <v>14</v>
@@ -8649,10 +8644,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B377" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C377">
         <v>14</v>
@@ -8660,10 +8655,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B378" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C378">
         <v>14</v>
@@ -8671,10 +8666,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B379" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C379">
         <v>14</v>
@@ -8682,10 +8677,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B380" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C380">
         <v>14</v>
@@ -8693,10 +8688,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B381" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C381">
         <v>14</v>
@@ -8704,10 +8699,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B382" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C382">
         <v>14</v>
@@ -8715,10 +8710,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B383" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C383">
         <v>14</v>
@@ -8726,10 +8721,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B384" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C384">
         <v>14</v>
@@ -8737,10 +8732,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B385" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C385">
         <v>14</v>
@@ -8748,10 +8743,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B386" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C386">
         <v>14</v>
@@ -8759,10 +8754,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B387" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C387">
         <v>14</v>
@@ -8770,10 +8765,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B388" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C388">
         <v>14</v>
@@ -8781,10 +8776,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B389" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C389">
         <v>14</v>
@@ -8792,10 +8787,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B390" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C390">
         <v>14</v>
@@ -8803,10 +8798,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B391" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C391">
         <v>14</v>
@@ -8814,10 +8809,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B392" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C392">
         <v>14</v>
@@ -8825,10 +8820,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B393" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C393">
         <v>14</v>
@@ -8836,10 +8831,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B394" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C394">
         <v>14</v>
@@ -8847,10 +8842,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B395" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C395">
         <v>14</v>
@@ -8858,10 +8853,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B396" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C396">
         <v>14</v>
@@ -8869,10 +8864,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B397" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C397">
         <v>14</v>
@@ -8880,10 +8875,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B398" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C398">
         <v>14</v>
@@ -8891,10 +8886,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B399" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C399">
         <v>14</v>
@@ -8902,10 +8897,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B400" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C400">
         <v>14</v>
@@ -8913,10 +8908,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B401" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C401">
         <v>14</v>
@@ -8924,10 +8919,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B402" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C402">
         <v>14</v>
@@ -8935,10 +8930,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B403" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C403">
         <v>14</v>
@@ -8946,10 +8941,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B404" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C404">
         <v>14</v>
@@ -8957,10 +8952,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B405" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C405">
         <v>14</v>
@@ -8968,10 +8963,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B406" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C406">
         <v>14</v>
@@ -8979,10 +8974,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B407" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C407">
         <v>14</v>
@@ -8990,10 +8985,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B408" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C408">
         <v>14</v>
@@ -9001,10 +8996,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B409" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C409">
         <v>14</v>
@@ -9012,10 +9007,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B410" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C410">
         <v>14</v>
@@ -9023,10 +9018,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B411" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C411">
         <v>14</v>
@@ -9034,10 +9029,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B412" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C412">
         <v>14</v>
@@ -9045,10 +9040,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B413" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C413">
         <v>14</v>
@@ -9056,10 +9051,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B414" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C414">
         <v>14</v>
@@ -9067,10 +9062,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B415" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C415">
         <v>14</v>
@@ -9078,10 +9073,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B416" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C416">
         <v>14</v>
@@ -9089,10 +9084,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B417" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C417">
         <v>14</v>
@@ -9100,10 +9095,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B418" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C418">
         <v>14</v>
@@ -9111,10 +9106,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B419" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C419">
         <v>14</v>
@@ -9122,10 +9117,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B420" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C420">
         <v>14</v>
@@ -9133,10 +9128,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B421" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C421">
         <v>14</v>
@@ -9144,10 +9139,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B422" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C422">
         <v>14</v>
@@ -9155,10 +9150,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B423" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C423">
         <v>14</v>
@@ -9166,10 +9161,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B424" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C424">
         <v>14</v>
@@ -9177,10 +9172,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B425" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C425">
         <v>14</v>
@@ -9188,10 +9183,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B426" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C426">
         <v>14</v>
@@ -9199,10 +9194,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B427" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C427">
         <v>14</v>
@@ -9210,10 +9205,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B428" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C428">
         <v>14</v>
@@ -9221,10 +9216,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B429" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C429">
         <v>14</v>
@@ -9232,10 +9227,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B430" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C430">
         <v>14</v>
@@ -9243,10 +9238,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B431" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C431">
         <v>14</v>
@@ -9254,10 +9249,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B432" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C432">
         <v>14</v>
@@ -9265,10 +9260,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B433" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C433">
         <v>14</v>
@@ -9276,10 +9271,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B434" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C434">
         <v>14</v>
@@ -9287,10 +9282,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B435" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C435">
         <v>14</v>
@@ -9298,10 +9293,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B436" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C436">
         <v>14</v>
@@ -9309,10 +9304,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B437" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C437">
         <v>14</v>
@@ -9320,10 +9315,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B438" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C438">
         <v>14</v>
@@ -9331,10 +9326,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B439" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C439">
         <v>14</v>
@@ -9342,10 +9337,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B440" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C440">
         <v>14</v>
@@ -9353,10 +9348,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B441" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C441">
         <v>14</v>
@@ -9364,10 +9359,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B442" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C442">
         <v>14</v>
@@ -9375,10 +9370,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B443" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C443">
         <v>14</v>
@@ -9386,10 +9381,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B444" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C444">
         <v>14</v>
@@ -9397,10 +9392,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B445" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C445">
         <v>14</v>
@@ -9408,10 +9403,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B446" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C446">
         <v>14</v>
@@ -9419,10 +9414,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B447" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C447">
         <v>14</v>
@@ -9430,10 +9425,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B448" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C448">
         <v>14</v>
@@ -9441,10 +9436,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B449" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C449">
         <v>14</v>
@@ -9452,10 +9447,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B450" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C450">
         <v>14</v>
@@ -9463,10 +9458,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B451" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C451">
         <v>14</v>
@@ -9474,10 +9469,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B452" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C452">
         <v>14</v>
@@ -9485,10 +9480,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B453" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C453">
         <v>14</v>
@@ -9496,10 +9491,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B454" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C454">
         <v>14</v>
@@ -9507,10 +9502,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B455" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C455">
         <v>14</v>
@@ -9518,10 +9513,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B456" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C456">
         <v>14</v>
@@ -9529,10 +9524,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B457" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C457">
         <v>14</v>
@@ -9540,10 +9535,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B458" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C458">
         <v>14</v>
@@ -9551,10 +9546,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B459" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C459">
         <v>14</v>
@@ -9562,10 +9557,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B460" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C460">
         <v>14</v>
@@ -9573,10 +9568,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B461" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C461">
         <v>14</v>
@@ -9584,10 +9579,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B462" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C462">
         <v>14</v>
@@ -9595,10 +9590,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B463" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C463">
         <v>14</v>
@@ -9606,10 +9601,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B464" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C464">
         <v>14</v>
@@ -9617,10 +9612,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B465" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C465">
         <v>14</v>
@@ -9628,10 +9623,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B466" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C466">
         <v>14</v>
@@ -9639,10 +9634,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B467" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C467">
         <v>14</v>
@@ -9650,10 +9645,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B468" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C468">
         <v>14</v>
@@ -9661,10 +9656,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B469" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C469">
         <v>14</v>
@@ -9672,10 +9667,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B470" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C470">
         <v>14</v>
@@ -9683,10 +9678,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B471" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C471">
         <v>14</v>
@@ -9694,10 +9689,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B472" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C472">
         <v>14</v>
@@ -9705,10 +9700,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B473" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C473">
         <v>14</v>
@@ -9716,10 +9711,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B474" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C474">
         <v>14</v>
@@ -9727,10 +9722,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B475" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C475">
         <v>14</v>
@@ -9738,10 +9733,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B476" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C476">
         <v>14</v>
@@ -9749,10 +9744,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B477" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C477">
         <v>14</v>
@@ -9760,10 +9755,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B478" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C478">
         <v>14</v>
@@ -9771,10 +9766,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B479" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C479">
         <v>14</v>
@@ -9782,10 +9777,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B480" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C480">
         <v>14</v>
@@ -9793,10 +9788,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B481" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C481">
         <v>14</v>
@@ -9804,10 +9799,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B482" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C482">
         <v>14</v>
@@ -9815,10 +9810,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B483" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C483">
         <v>14</v>
@@ -9826,10 +9821,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B484" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C484">
         <v>14</v>
@@ -9837,10 +9832,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B485" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C485">
         <v>14</v>
@@ -9848,10 +9843,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B486" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C486">
         <v>14</v>
@@ -9859,10 +9854,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B487" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C487">
         <v>14</v>
@@ -9870,10 +9865,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B488" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C488">
         <v>14</v>
@@ -9881,10 +9876,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B489" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C489">
         <v>14</v>
@@ -9892,10 +9887,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B490" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C490">
         <v>14</v>
@@ -9903,10 +9898,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B491" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C491">
         <v>14</v>
@@ -9914,10 +9909,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B492" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C492">
         <v>14</v>
@@ -9925,10 +9920,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B493" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C493">
         <v>14</v>
@@ -9936,10 +9931,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B494" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C494">
         <v>14</v>
@@ -9947,10 +9942,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B495" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C495">
         <v>14</v>
@@ -9958,10 +9953,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B496" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C496">
         <v>14</v>
@@ -9969,10 +9964,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B497" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C497">
         <v>14</v>
@@ -9980,10 +9975,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B498" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C498">
         <v>14</v>
@@ -9991,10 +9986,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B499" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C499">
         <v>14</v>
@@ -10002,10 +9997,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B500" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C500">
         <v>14</v>
@@ -10013,10 +10008,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B501" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C501">
         <v>14</v>
@@ -10024,10 +10019,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B502" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C502">
         <v>14</v>
@@ -10035,10 +10030,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B503" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C503">
         <v>14</v>
@@ -10046,10 +10041,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B504" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C504">
         <v>14</v>
@@ -10057,10 +10052,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B505" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C505">
         <v>14</v>
@@ -10068,10 +10063,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B506" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C506">
         <v>14</v>
@@ -10079,10 +10074,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B507" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C507">
         <v>14</v>
@@ -10090,10 +10085,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B508" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C508">
         <v>14</v>
@@ -10101,10 +10096,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B509" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C509">
         <v>14</v>
@@ -10112,10 +10107,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B510" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C510">
         <v>14</v>
@@ -10123,10 +10118,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B511" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C511">
         <v>14</v>
@@ -10134,10 +10129,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B512" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C512">
         <v>14</v>
@@ -10145,10 +10140,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B513" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C513">
         <v>14</v>
@@ -10156,10 +10151,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B514" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C514">
         <v>14</v>
@@ -10167,10 +10162,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B515" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C515">
         <v>14</v>
@@ -10178,10 +10173,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B516" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C516">
         <v>14</v>
@@ -10189,10 +10184,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B517" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C517">
         <v>14</v>
@@ -10200,10 +10195,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B518" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C518">
         <v>14</v>
@@ -10211,10 +10206,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B519" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C519">
         <v>14</v>
@@ -10222,10 +10217,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B520" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C520">
         <v>14</v>
@@ -10233,10 +10228,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B521" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C521">
         <v>14</v>
@@ -10244,10 +10239,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B522" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C522">
         <v>14</v>
@@ -10255,10 +10250,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B523" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C523">
         <v>14</v>
@@ -10266,10 +10261,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B524" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C524">
         <v>14</v>
@@ -10277,10 +10272,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B525" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C525">
         <v>14</v>
@@ -10288,10 +10283,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B526" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C526">
         <v>14</v>
@@ -10299,10 +10294,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B527" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C527">
         <v>14</v>
@@ -10310,10 +10305,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B528" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C528">
         <v>14</v>
@@ -10321,10 +10316,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B529" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C529">
         <v>14</v>
@@ -10332,10 +10327,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B530" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C530">
         <v>14</v>
@@ -10343,10 +10338,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B531" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C531">
         <v>14</v>
@@ -10354,10 +10349,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B532" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C532">
         <v>14</v>
@@ -10365,10 +10360,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B533" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C533">
         <v>14</v>
@@ -10376,10 +10371,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B534" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C534">
         <v>14</v>
@@ -10387,10 +10382,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B535" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C535">
         <v>14</v>
@@ -10398,10 +10393,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B536" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C536">
         <v>14</v>
@@ -10412,7 +10407,7 @@
         <v>568</v>
       </c>
       <c r="B537" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C537">
         <v>14</v>
@@ -10420,10 +10415,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B538" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C538">
         <v>14</v>
@@ -10431,10 +10426,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B539" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C539">
         <v>14</v>
@@ -10442,10 +10437,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B540" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C540">
         <v>14</v>
@@ -10453,10 +10448,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B541" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C541">
         <v>14</v>
@@ -10464,10 +10459,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B542" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C542">
         <v>14</v>
@@ -10475,10 +10470,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B543" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C543">
         <v>14</v>
@@ -10486,10 +10481,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B544" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C544">
         <v>14</v>
@@ -10497,10 +10492,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B545" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C545">
         <v>14</v>
@@ -10508,10 +10503,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B546" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C546">
         <v>14</v>
@@ -10519,10 +10514,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B547" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C547">
         <v>14</v>
@@ -10530,10 +10525,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B548" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C548">
         <v>14</v>
@@ -10541,10 +10536,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B549" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C549">
         <v>14</v>
@@ -10552,10 +10547,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B550" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C550">
         <v>14</v>
@@ -10563,10 +10558,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B551" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C551">
         <v>14</v>
@@ -10574,10 +10569,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B552" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C552">
         <v>14</v>
@@ -10585,10 +10580,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B553" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C553">
         <v>14</v>
@@ -10596,10 +10591,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B554" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C554">
         <v>14</v>
@@ -10607,10 +10602,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B555" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C555">
         <v>14</v>
@@ -10618,10 +10613,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B556" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C556">
         <v>14</v>
@@ -10629,10 +10624,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B557" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C557">
         <v>14</v>
@@ -10640,10 +10635,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B558" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C558">
         <v>14</v>
@@ -10651,10 +10646,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B559" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C559">
         <v>14</v>
@@ -10662,10 +10657,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B560" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C560">
         <v>14</v>
@@ -10673,10 +10668,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B561" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C561">
         <v>14</v>
@@ -10684,10 +10679,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B562" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C562">
         <v>14</v>
@@ -10695,10 +10690,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B563" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C563">
         <v>14</v>
@@ -10706,10 +10701,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B564" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C564">
         <v>14</v>
@@ -10717,10 +10712,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B565" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C565">
         <v>14</v>
@@ -10728,10 +10723,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B566" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C566">
         <v>14</v>
@@ -10739,10 +10734,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B567" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C567">
         <v>14</v>
@@ -10750,10 +10745,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B568" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C568">
         <v>14</v>
@@ -10761,10 +10756,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B569" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C569">
         <v>14</v>
@@ -10772,10 +10767,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B570" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C570">
         <v>14</v>
@@ -10783,10 +10778,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B571" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C571">
         <v>14</v>
@@ -10794,10 +10789,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B572" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C572">
         <v>14</v>
@@ -10805,10 +10800,10 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B573" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C573">
         <v>14</v>
@@ -10816,10 +10811,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B574" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C574">
         <v>14</v>
@@ -10827,10 +10822,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B575" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C575">
         <v>14</v>
@@ -10838,10 +10833,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B576" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C576">
         <v>14</v>
@@ -10849,10 +10844,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B577" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C577">
         <v>14</v>
@@ -10860,10 +10855,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B578" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C578">
         <v>14</v>
@@ -10871,10 +10866,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B579" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C579">
         <v>14</v>
@@ -10882,10 +10877,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B580" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C580">
         <v>14</v>
@@ -10893,10 +10888,10 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B581" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C581">
         <v>14</v>
@@ -10904,10 +10899,10 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B582" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C582">
         <v>14</v>
@@ -10915,10 +10910,10 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B583" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C583">
         <v>14</v>
@@ -10926,10 +10921,10 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B584" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C584">
         <v>14</v>
@@ -10937,10 +10932,10 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B585" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C585">
         <v>14</v>
@@ -10948,10 +10943,10 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B586" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C586">
         <v>14</v>
@@ -10959,10 +10954,10 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B587" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C587">
         <v>14</v>
@@ -10970,10 +10965,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B588" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C588">
         <v>14</v>
@@ -10981,10 +10976,10 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B589" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C589">
         <v>14</v>
@@ -10992,10 +10987,10 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B590" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C590">
         <v>14</v>
@@ -11003,10 +10998,10 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B591" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C591">
         <v>14</v>
@@ -11014,10 +11009,10 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B592" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C592">
         <v>14</v>
@@ -11025,10 +11020,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B593" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C593">
         <v>14</v>
@@ -11036,10 +11031,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B594" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C594">
         <v>14</v>
@@ -11047,10 +11042,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B595" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C595">
         <v>14</v>
@@ -11058,10 +11053,10 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B596" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C596">
         <v>14</v>
@@ -11069,10 +11064,10 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B597" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C597">
         <v>14</v>
@@ -11080,10 +11075,10 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B598" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C598">
         <v>14</v>
@@ -11091,10 +11086,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B599" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C599">
         <v>14</v>
@@ -11102,10 +11097,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B600" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C600">
         <v>14</v>
@@ -11113,10 +11108,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B601" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C601">
         <v>14</v>
@@ -11124,10 +11119,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B602" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C602">
         <v>14</v>
@@ -11135,10 +11130,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B603" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C603">
         <v>14</v>
@@ -11146,10 +11141,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B604" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C604">
         <v>14</v>
@@ -11157,10 +11152,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B605" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C605">
         <v>14</v>
@@ -11168,10 +11163,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B606" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C606">
         <v>14</v>
@@ -11179,10 +11174,10 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B607" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C607">
         <v>14</v>
@@ -11190,10 +11185,10 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B608" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C608">
         <v>14</v>
@@ -11201,10 +11196,10 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B609" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C609">
         <v>14</v>
@@ -11212,10 +11207,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B610" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C610">
         <v>14</v>
@@ -11223,10 +11218,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B611" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C611">
         <v>14</v>
@@ -11234,10 +11229,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B612" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C612">
         <v>14</v>
@@ -11245,10 +11240,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B613" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C613">
         <v>14</v>
@@ -11256,10 +11251,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B614" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C614">
         <v>14</v>
@@ -11267,10 +11262,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B615" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C615">
         <v>14</v>
@@ -11278,10 +11273,10 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B616" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C616">
         <v>14</v>
@@ -11289,10 +11284,10 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B617" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C617">
         <v>14</v>
@@ -11300,10 +11295,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B618" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C618">
         <v>14</v>
@@ -11311,10 +11306,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B619" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C619">
         <v>14</v>
@@ -11322,10 +11317,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B620" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C620">
         <v>14</v>
@@ -11333,10 +11328,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B621" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C621">
         <v>14</v>
@@ -11344,10 +11339,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B622" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C622">
         <v>14</v>
@@ -11355,10 +11350,10 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B623" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C623">
         <v>14</v>
@@ -11366,10 +11361,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B624" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C624">
         <v>14</v>
@@ -11377,10 +11372,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B625" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C625">
         <v>14</v>
@@ -11388,10 +11383,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B626" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C626">
         <v>14</v>
@@ -11399,10 +11394,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B627" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C627">
         <v>14</v>
@@ -11410,10 +11405,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B628" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C628">
         <v>14</v>
@@ -11421,10 +11416,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B629" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C629">
         <v>14</v>
@@ -11432,10 +11427,10 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B630" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C630">
         <v>14</v>
@@ -11443,10 +11438,10 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B631" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C631">
         <v>14</v>
@@ -11454,10 +11449,10 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B632" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C632">
         <v>14</v>
@@ -11465,10 +11460,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B633" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C633">
         <v>14</v>
@@ -11476,10 +11471,10 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B634" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C634">
         <v>14</v>
@@ -11487,10 +11482,10 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B635" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C635">
         <v>14</v>
@@ -11498,10 +11493,10 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B636" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C636">
         <v>14</v>
@@ -11509,10 +11504,10 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B637" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C637">
         <v>14</v>
@@ -11520,10 +11515,10 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B638" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C638">
         <v>14</v>
@@ -11531,10 +11526,10 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B639" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C639">
         <v>14</v>
@@ -11542,10 +11537,10 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B640" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C640">
         <v>14</v>
@@ -11553,10 +11548,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B641" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C641">
         <v>14</v>
@@ -11564,10 +11559,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B642" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C642">
         <v>14</v>
@@ -11575,10 +11570,10 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B643" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C643">
         <v>14</v>
@@ -11586,10 +11581,10 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B644" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C644">
         <v>14</v>
@@ -11597,10 +11592,10 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B645" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C645">
         <v>14</v>
@@ -11608,10 +11603,10 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B646" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C646">
         <v>14</v>
@@ -11619,10 +11614,10 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B647" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C647">
         <v>14</v>
@@ -11630,10 +11625,10 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B648" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C648">
         <v>14</v>
@@ -11641,10 +11636,10 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B649" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C649">
         <v>14</v>
@@ -11652,10 +11647,10 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B650" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C650">
         <v>14</v>
@@ -11663,10 +11658,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B651" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C651">
         <v>14</v>
@@ -11674,10 +11669,10 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B652" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C652">
         <v>14</v>
@@ -11685,10 +11680,10 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B653" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C653">
         <v>14</v>
@@ -11696,10 +11691,10 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B654" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C654">
         <v>14</v>
@@ -11707,10 +11702,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B655" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C655">
         <v>14</v>
@@ -11718,10 +11713,10 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B656" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C656">
         <v>14</v>
@@ -11729,10 +11724,10 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B657" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C657">
         <v>14</v>
@@ -11740,10 +11735,10 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B658" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C658">
         <v>14</v>
@@ -11751,10 +11746,10 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B659" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C659">
         <v>14</v>
@@ -11762,10 +11757,10 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B660" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C660">
         <v>14</v>
@@ -11773,10 +11768,10 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B661" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C661">
         <v>14</v>
@@ -11784,10 +11779,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B662" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C662">
         <v>14</v>
@@ -11795,10 +11790,10 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B663" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C663">
         <v>14</v>
@@ -11806,10 +11801,10 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B664" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C664">
         <v>14</v>
@@ -11817,10 +11812,10 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B665" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C665">
         <v>14</v>
@@ -11828,10 +11823,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B666" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C666">
         <v>14</v>
@@ -11839,10 +11834,10 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B667" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C667">
         <v>14</v>
@@ -11850,10 +11845,10 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B668" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C668">
         <v>14</v>
@@ -11861,10 +11856,10 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B669" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C669">
         <v>14</v>
@@ -11872,10 +11867,10 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B670" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C670">
         <v>14</v>
@@ -11883,10 +11878,10 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B671" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C671">
         <v>14</v>
@@ -11894,10 +11889,10 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B672" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C672">
         <v>14</v>
@@ -11905,10 +11900,10 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B673" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C673">
         <v>14</v>
@@ -11916,10 +11911,10 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B674" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C674">
         <v>14</v>
@@ -11927,10 +11922,10 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B675" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C675">
         <v>14</v>
@@ -11938,10 +11933,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B676" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C676">
         <v>14</v>
@@ -11949,10 +11944,10 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B677" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C677">
         <v>14</v>
@@ -11960,10 +11955,10 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B678" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C678">
         <v>14</v>
@@ -11971,10 +11966,10 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B679" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C679">
         <v>14</v>
@@ -11982,10 +11977,10 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B680" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C680">
         <v>14</v>
@@ -11993,10 +11988,10 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B681" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C681">
         <v>14</v>
@@ -12004,10 +11999,10 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B682" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C682">
         <v>14</v>
@@ -12015,10 +12010,10 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B683" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C683">
         <v>14</v>
@@ -12026,10 +12021,10 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B684" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C684">
         <v>14</v>
@@ -12037,10 +12032,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B685" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C685">
         <v>14</v>
@@ -12048,10 +12043,10 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B686" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C686">
         <v>14</v>
@@ -12059,10 +12054,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B687" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C687">
         <v>14</v>
@@ -12070,10 +12065,10 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B688" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C688">
         <v>14</v>
@@ -12081,10 +12076,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B689" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C689">
         <v>14</v>
@@ -12092,10 +12087,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B690" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C690">
         <v>14</v>
@@ -12103,10 +12098,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B691" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C691">
         <v>14</v>
@@ -12114,10 +12109,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B692" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C692">
         <v>14</v>
@@ -12125,10 +12120,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B693" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C693">
         <v>14</v>
@@ -12136,10 +12131,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B694" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C694">
         <v>14</v>
@@ -12147,10 +12142,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B695" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C695">
         <v>14</v>
@@ -12158,10 +12153,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B696" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C696">
         <v>14</v>
@@ -12169,10 +12164,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B697" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C697">
         <v>14</v>
@@ -12180,10 +12175,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B698" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C698">
         <v>14</v>
@@ -12191,10 +12186,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B699" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C699">
         <v>14</v>
@@ -12202,10 +12197,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B700" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C700">
         <v>14</v>
@@ -12213,10 +12208,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B701" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C701">
         <v>14</v>
@@ -12224,10 +12219,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B702" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C702">
         <v>14</v>
@@ -12235,10 +12230,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B703" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C703">
         <v>14</v>
@@ -12246,10 +12241,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B704" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C704">
         <v>14</v>

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_PythonProjects\FinnishWordsLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A62A34-D05B-4AE3-86F5-A185F227ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499120E7-6134-4B27-98FF-35F1747466AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37590" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>Score</t>
   </si>
   <si>
+    <t>miettiä</t>
+  </si>
+  <si>
+    <t>to think (over), to consider</t>
+  </si>
+  <si>
     <t>jossain</t>
   </si>
   <si>
     <t>somewhere</t>
-  </si>
-  <si>
-    <t>miettiä</t>
-  </si>
-  <si>
-    <t>to think (over), to consider</t>
   </si>
   <si>
     <t>jotka</t>
@@ -4501,7 +4501,7 @@
   <dimension ref="A1:C704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -483,31 +483,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>who/that/which (relative)</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>who/that/which (relative)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -537,82 +537,82 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -642,157 +642,157 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>näytelmä</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>play (theatre)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>olut</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>beer</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>näytelmä</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>play (theatre)</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>olut</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>beer</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -453,31 +453,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>to think (over), to consider</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>to think (over), to consider</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,18 +462,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>hei hei</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -483,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>liikaa</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>too much</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>huhuu</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hoot (owl sound)</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>liikaa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>too much</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>huhuu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>hoot (owl sound)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>syvä</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pretty, rather</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>syödä</t>
+          <t>syvä</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kalenteri</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>calendar</t>
+          <t>pretty, rather</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>syödä</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>kalenteri</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>calendar</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>to think (over), to consider</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>who/that/which (relative)</t>
+          <t>to think (over), to consider</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>who/that/which (relative)</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mekko</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>mekko</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>näytelmä</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>play (theatre)</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>näytelmä</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>play (theatre)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>kokki</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>kokki</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>koru</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>piece of jewelry</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1143,12 +1143,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ruokalista</t>
+          <t>koru</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>piece of jewelry</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,12 +1158,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vessa</t>
+          <t>ruokalista</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>restroom, toilet</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1173,12 +1173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>vessa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>restroom, toilet</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>opiskella</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>to study (in an educational institution)</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1218,12 +1218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>opiskella</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>to study (in an educational institution)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1248,12 +1248,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sata</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1263,12 +1263,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>minkäkokoinen</t>
+          <t>sata</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>what size</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1278,12 +1278,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>minkäkokoinen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>what size</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1293,12 +1293,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>miljoona</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1308,12 +1308,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>miljoona</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>million</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1323,12 +1323,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1338,12 +1338,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>muoti</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1383,12 +1383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>muoti</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1398,12 +1398,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ravintola</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sarja</t>
+          <t>ravintola</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>sarja</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>series</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1443,12 +1443,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>nopea</t>
+          <t>hys</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>quick, fast</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>hys</t>
+          <t>vaan</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>but (positive)</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>vaan</t>
+          <t>sekunti</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>but (positive)</t>
+          <t>second (a measure of time)</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,12 +4533,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>sekunti</t>
+          <t>vähän</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>second (a measure of time)</t>
+          <t>a little bit of</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4548,12 +4548,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>vähän</t>
+          <t>iso</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>a little bit of</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4563,12 +4563,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>suomi</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>Finnish language</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4578,12 +4578,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>suomi</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Finnish language</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4593,12 +4593,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>hillo</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>jam</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4608,12 +4608,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>hillo</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>jam</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4623,12 +4623,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4638,12 +4638,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>myöhä</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>late</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4653,12 +4653,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>myöhä</t>
+          <t>jano</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>thirst</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,12 +4668,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>jano</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>thirst</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>nykyään</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>nowadays</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,12 +4698,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>nykyään</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>nowadays</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4728,12 +4728,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>orava</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,12 +4758,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4773,12 +4773,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>rehellinen</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4788,12 +4788,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>rehellinen</t>
+          <t>kävellä</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,12 +4803,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>kävellä</t>
+          <t>jää</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4818,12 +4818,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>hei hei</t>
+          <t>hyi</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>bye</t>
+          <t>yuck</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4833,12 +4833,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>jää</t>
+          <t>Espanja</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4848,12 +4848,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>hyi</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>yuck</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4863,12 +4863,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Espanja</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>to look for, to search</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>maito</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>koska</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>to look for, to search</t>
+          <t>because</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>maito</t>
+          <t>enää</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>no longer, anymore</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>koska</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>enää</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>no longer, anymore</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>täällä</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>over here</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kamera</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>they (inanimate)</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>täällä</t>
+          <t>korjata</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>over here</t>
+          <t>to repair</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>oma</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>they (inanimate)</t>
+          <t>(my) own</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>korjata</t>
+          <t>aamu</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>to repair</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>oma</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>(my) own</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>aamu</t>
+          <t>oho</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,12 +5148,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5163,12 +5163,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>oho</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5178,12 +5178,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>liha</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>ihminen</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>liha</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ihminen</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>edes</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>edes</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>kilo</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>kilogram</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kilo</t>
+          <t>suomalainen</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>Finnish person</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>suomalainen</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Finnish person</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>saksa</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>German language</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>saksa</t>
+          <t>insinööri</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>German language</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>insinööri</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>karhu</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>karhu</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>susi</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>susi</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Sveitsi</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>koira</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>comfortable</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>koira</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>comfortable</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>sinivalkoinen</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>blue and white</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>sinivalkoinen</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>blue and white</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>vielä</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>akku</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>vadelma</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>vielä</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>akku</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>Hindi (language)</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>vadelma</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>raspberry</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>hindi</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Hindi (language)</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>kuin</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>as (comparison)</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>kuin</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>as (comparison)</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>kirkas</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>likainen</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>kirkas</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>likainen</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>Viro</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Viro</t>
+          <t>onnea</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>good luck</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>kenguru</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>kangaroo</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>onnea</t>
+          <t>sininen</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>good luck</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>kenguru</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>kangaroo</t>
+          <t>may, can, to be able to</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>röh</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>oink</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>sininen</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>may, can, to be able to</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>röh</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>oink</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>islantilainen</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Icelandic person</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>islantilainen</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Icelandic person</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>lemmikki</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>lemmikki</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>the whole</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>the whole</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>stadion</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>stadium</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>stadion</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>stadium</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>sydän</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>taas</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>again</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>sydän</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>taas</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>korea</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>Korean language</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Korean language</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>hei</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>hi (greeting)</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>hei</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>hi (greeting)</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>ranska</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>French language</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ranska</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>French language</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>to spend (time, vacation)</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>tasan</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>to spend (time, vacation)</t>
+          <t>even, exactly (time)</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>kartta</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>tasan</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>even, exactly (time)</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>kartta</t>
+          <t>ahkera</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>hardworking</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>koti-ikävä</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>banaani</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ahkera</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>hardworking</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>banaani</t>
+          <t>lattia</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>floor (the type you stand on)</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>lattia</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>floor (the type you stand on)</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>sillä</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>(it) has</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>sillä</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>(it) has</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>pieni</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>salaatti</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>pieni</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>what (time)</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>salaatti</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>kerma</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>kerma</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>cream</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>ainakin</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>at least</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>puisto</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ainakin</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>at least</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>puisto</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>to have stopped (clock, watch)</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,12 +8718,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>tuoli</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8733,12 +8733,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>to have stopped (clock, watch)</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,12 +8763,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>tuoli</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8778,12 +8778,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8793,12 +8793,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8808,12 +8808,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,12 +8838,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8853,12 +8853,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -8868,12 +8868,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -8883,12 +8883,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -8898,12 +8898,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,12 +8913,12 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>viineri</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>Danish pastry</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -8928,46 +8928,46 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>Sveitsi</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>nopea</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>quick, fast</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>viineri</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Danish pastry</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>liha</t>
+          <t>ihminen</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ihminen</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>edes</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>edes</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>kilo</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>kilogram</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kilo</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>suomalainen</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>Finnish person</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>suomalainen</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Finnish person</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>saksa</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>German language</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>saksa</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>German language</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>insinööri</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>karhu</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>karhu</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>susi</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>susi</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>koira</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>koira</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>comfortable</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>comfortable</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>sinivalkoinen</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>blue and white</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sinivalkoinen</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>blue and white</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>vielä</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>akku</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>vielä</t>
+          <t>vadelma</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>akku</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>vadelma</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>raspberry</t>
+          <t>Hindi (language)</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>hindi</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Hindi (language)</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>kuin</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>as (comparison)</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>kuin</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>as (comparison)</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>kirkas</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>likainen</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>kirkas</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>likainen</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>Viro</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Viro</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>onnea</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>good luck</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>kenguru</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>kangaroo</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>onnea</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>good luck</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>kenguru</t>
+          <t>sininen</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>kangaroo</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>may, can, to be able to</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>sininen</t>
+          <t>röh</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>oink</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>may, can, to be able to</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>röh</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>oink</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>islantilainen</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>Icelandic person</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>islantilainen</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Icelandic person</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>lemmikki</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>lemmikki</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>the whole</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>the whole</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>stadion</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>stadium</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>stadion</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>stadium</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>sydän</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>taas</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>again</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>sydän</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>taas</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>korea</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>Korean language</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Korean language</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>hei</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>hi (greeting)</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>hei</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>hi (greeting)</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>ranska</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>French language</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ranska</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>French language</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>to spend (time, vacation)</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>to spend (time, vacation)</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>tasan</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>even, exactly (time)</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>tasan</t>
+          <t>kartta</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>even, exactly (time)</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>kartta</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>ahkera</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>hardworking</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>koti-ikävä</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ahkera</t>
+          <t>banaani</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>hardworking</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>banaani</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>lattia</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>floor (the type you stand on)</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>lattia</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>floor (the type you stand on)</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>sillä</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>(it) has</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>sillä</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>(it) has</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>pieni</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>salaatti</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>pieni</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>salaatti</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>what (time)</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>kerma</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>kerma</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>cream</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>ainakin</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>at least</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ainakin</t>
+          <t>puisto</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>at least</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>puisto</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>to have stopped (clock, watch)</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>tuoli</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>to have stopped (clock, watch)</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,12 +8718,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>tuoli</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8733,12 +8733,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,12 +8763,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8778,12 +8778,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8793,12 +8793,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8808,12 +8808,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,12 +8838,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8853,12 +8853,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -8868,12 +8868,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -8883,12 +8883,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>viineri</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>Danish pastry</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -8898,31 +8898,31 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>insinööri</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>viineri</t>
+          <t>liha</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Danish pastry</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,18 +462,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-22</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hei hei</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bye</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -483,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>puhelin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>liikaa</t>
+          <t>hei hei</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>too much</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>huhuu</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hoot (owl sound)</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>huhuu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>hoot (owl sound)</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>syvä</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pretty, rather</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>syödä</t>
+          <t>syvä</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>kalenteri</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>calendar</t>
+          <t>pretty, rather</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>syödä</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>kalenteri</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>calendar</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>to think (over), to consider</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>to think (over), to consider</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>who/that/which (relative)</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>who/that/which (relative)</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mekko</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>mekko</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>näytelmä</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>play (theatre)</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>näytelmä</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>play (theatre)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kokki</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>kokki</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1143,12 +1143,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>koru</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>piece of jewelry</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,12 +1158,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ruokalista</t>
+          <t>koru</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>piece of jewelry</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1173,12 +1173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vessa</t>
+          <t>ruokalista</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>restroom, toilet</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>vessa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>restroom, toilet</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1218,12 +1218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>opiskella</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>to study (in an educational institution)</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>opiskella</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>to study (in an educational institution)</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1248,12 +1248,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1263,12 +1263,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sata</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1278,12 +1278,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>minkäkokoinen</t>
+          <t>sata</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>what size</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1293,12 +1293,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>minkäkokoinen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>what size</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1308,12 +1308,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>miljoona</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1323,12 +1323,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>miljoona</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>million</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1338,12 +1338,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1383,12 +1383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>muoti</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1398,12 +1398,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>muoti</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ravintola</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sarja</t>
+          <t>ravintola</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1443,12 +1443,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>sarja</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>series</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1458,12 +1458,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>tarjoilija</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1473,12 +1473,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>tarjoilija</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>elokuva</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1503,12 +1503,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>elokuva</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1518,12 +1518,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>viikko</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1533,12 +1533,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>viisisataa</t>
+          <t>viikko</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ale</t>
+          <t>viisisataa</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>kaksisataa</t>
+          <t>ale</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>appelsiini</t>
+          <t>kaksisataa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>orange (fruit)</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>hattu</t>
+          <t>appelsiini</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>orange (fruit)</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1608,12 +1608,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>hattu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1638,12 +1638,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paita</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,12 +1653,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kemia</t>
+          <t>paita</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>shirt</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1668,12 +1668,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kemia</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>metro(politan rail)</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1683,12 +1683,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>pitsa</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>metro(politan rail)</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1698,12 +1698,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>vyö</t>
+          <t>pitsa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1713,12 +1713,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>viini</t>
+          <t>vyö</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1728,12 +1728,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>viini</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>wine</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>violetti</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>size</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sovituskoppi</t>
+          <t>violetti</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fitting room</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kenellä</t>
+          <t>sovituskoppi</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>who (has) (question)</t>
+          <t>fitting room</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1788,12 +1788,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ei-mitään</t>
+          <t>kenellä</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nothing</t>
+          <t>who (has) (question)</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1803,12 +1803,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ole hyvä</t>
+          <t>ei-mitään</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>here you are</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1818,12 +1818,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>päivänjatko</t>
+          <t>ole hyvä</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>continuation of a day</t>
+          <t>here you are</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1833,12 +1833,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>muutama</t>
+          <t>päivänjatko</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>a few</t>
+          <t>continuation of a day</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1848,12 +1848,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ruotsi</t>
+          <t>muutama</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>a few</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1863,12 +1863,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kiina</t>
+          <t>Ruotsi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chinese language</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1878,12 +1878,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>japani</t>
+          <t>kiina</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Japanese language</t>
+          <t>Chinese language</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1893,12 +1893,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>talo</t>
+          <t>japani</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>Japanese language</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1908,12 +1908,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>englanti</t>
+          <t>talo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>English language</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>englanti</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>English language</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Unkari</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>krokotiili</t>
+          <t>Unkari</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1968,12 +1968,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>apua</t>
+          <t>krokotiili</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1983,12 +1983,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>muusikko</t>
+          <t>apua</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>musician</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1998,12 +1998,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>yö</t>
+          <t>muusikko</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>musician</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2013,12 +2013,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>toimia</t>
+          <t>yö</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>to work</t>
+          <t>night</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2028,12 +2028,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sisukas</t>
+          <t>toimia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>trully determined</t>
+          <t>to work</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2043,12 +2043,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>laulaa</t>
+          <t>sisukas</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>trully determined</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2058,12 +2058,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>pitää</t>
+          <t>laulaa</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>needs to be</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2073,12 +2073,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>tulostin</t>
+          <t>pitää</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>needs to be</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2088,12 +2088,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>tuolla</t>
+          <t>tulostin</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>over there</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2103,12 +2103,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>villi</t>
+          <t>tuolla</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>wild</t>
+          <t>over there</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2118,12 +2118,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>villi</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>wild</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2133,12 +2133,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>pois</t>
+          <t>tee</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>away</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2148,12 +2148,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>olen</t>
+          <t>pois</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(I) am</t>
+          <t>away</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2163,12 +2163,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>vastaus</t>
+          <t>olen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>(I) am</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2178,12 +2178,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>vastaus</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2193,12 +2193,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>piirtää</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>to draw</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2208,12 +2208,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>iltapäivä</t>
+          <t>piirtää</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>to draw</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2223,12 +2223,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>kippis</t>
+          <t>iltapäivä</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cheers</t>
+          <t>afternoon</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2238,12 +2238,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>järvi</t>
+          <t>kippis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>cheers</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2253,12 +2253,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>piha</t>
+          <t>järvi</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2268,12 +2268,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pilvi</t>
+          <t>piha</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>yard</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2283,12 +2283,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>hyvä</t>
+          <t>pilvi</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>good (adjective)</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2328,12 +2328,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>puhelin</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2343,12 +2343,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2358,12 +2358,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lumi</t>
+          <t>hymyillä</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>to smile</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2373,12 +2373,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2388,12 +2388,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hymyillä</t>
+          <t>tanssia</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>to smile</t>
+          <t>to dance</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2403,12 +2403,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>Tallinna</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2418,12 +2418,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>tanssia</t>
+          <t>haistella</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>to dance</t>
+          <t>to sniff, to smell at</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2433,12 +2433,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tallinna</t>
+          <t>kinuski</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>kinusk</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2448,12 +2448,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>haistella</t>
+          <t>turvallinen</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>to sniff, to smell at</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2463,12 +2463,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kinuski</t>
+          <t>kuulla</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>kinusk</t>
+          <t>to hear</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2478,12 +2478,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>turvallinen</t>
+          <t>kala</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2493,12 +2493,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>kuulla</t>
+          <t>niin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>to hear</t>
+          <t>so (degree)</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2508,12 +2508,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>kala</t>
+          <t>makea</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>sweet (taste)</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2523,12 +2523,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>niin</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>so (degree)</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2538,12 +2538,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>makea</t>
+          <t>läppäri</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>sweet (taste)</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2553,12 +2553,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>pistoke</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>power plug</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2568,12 +2568,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>läppäri</t>
+          <t>söpö</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>laptop</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2583,12 +2583,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>pistoke</t>
+          <t>puu</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>power plug</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2598,12 +2598,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>söpö</t>
+          <t>aina</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>always</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2613,12 +2613,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>puu</t>
+          <t>hidas</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>slow</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2628,12 +2628,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>aina</t>
+          <t>sipuli</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>onion</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2643,12 +2643,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>hidas</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>slow</t>
+          <t>to think</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2658,12 +2658,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sipuli</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>onion</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2673,12 +2673,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>piirakka</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>to think</t>
+          <t>pie, pasty</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2688,12 +2688,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>vahva</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2703,12 +2703,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>piirakka</t>
+          <t>koti</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>pie, pasty</t>
+          <t>home</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2718,12 +2718,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vahva</t>
+          <t>paikka</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2733,12 +2733,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>koti</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>six</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2748,12 +2748,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>paikka</t>
+          <t>raha</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2763,12 +2763,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>nam</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>yum</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2778,12 +2778,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>raha</t>
+          <t>pätkiä</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>to cut in and out</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2793,12 +2793,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>lainata</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>yum</t>
+          <t>to borrow, to loan</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2808,12 +2808,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>pätkiä</t>
+          <t>millainen</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>to cut in and out</t>
+          <t>what kind of</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2823,12 +2823,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lainata</t>
+          <t>isä</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>to borrow, to loan</t>
+          <t>father</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2838,12 +2838,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>millainen</t>
+          <t>pian</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>what kind of</t>
+          <t>soon</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -2853,12 +2853,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>isä</t>
+          <t>vaimo</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>wife</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -2868,12 +2868,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>pian</t>
+          <t>varovainen</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>soon</t>
+          <t>careful</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -2883,12 +2883,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vaimo</t>
+          <t>Norja</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>wife</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -2898,12 +2898,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>varovainen</t>
+          <t>kot kot</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>careful</t>
+          <t>cluck cluck (rooster sound)</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2913,12 +2913,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Norja</t>
+          <t>neljä</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2928,12 +2928,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>kot kot</t>
+          <t>puhua</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>cluck cluck (rooster sound)</t>
+          <t>to speak (a language, words)</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2943,12 +2943,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>neljä</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>lynx</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2958,12 +2958,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>puhua</t>
+          <t>kastike</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>to speak (a language, words)</t>
+          <t>salad dressing</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2973,12 +2973,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>ystävällinen</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>lynx</t>
+          <t>friendly</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2988,12 +2988,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kastike</t>
+          <t>joka</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>salad dressing</t>
+          <t>who (relative)</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3003,12 +3003,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ystävällinen</t>
+          <t>huone</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>friendly</t>
+          <t>room</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3018,12 +3018,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>joka</t>
+          <t>ääni</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>who (relative)</t>
+          <t>voice, sound</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3033,12 +3033,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>huone</t>
+          <t>leivos</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>pastry</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3048,12 +3048,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ääni</t>
+          <t>pullo</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>voice, sound</t>
+          <t>bottle</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3063,12 +3063,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>leivos</t>
+          <t>liian</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>too (degree)</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3078,12 +3078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>pullo</t>
+          <t>melko</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>bottle</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3093,12 +3093,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>liian</t>
+          <t>televisio</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>too (degree)</t>
+          <t>television</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3108,12 +3108,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>melko</t>
+          <t>tanssija</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>dancer</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3123,12 +3123,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>televisio</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3138,12 +3138,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>tanssija</t>
+          <t>professori</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>dancer</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3153,12 +3153,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>kuuma</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3168,12 +3168,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>professori</t>
+          <t>kymmenen</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3183,12 +3183,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kuuma</t>
+          <t>nuo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>those</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3198,12 +3198,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kymmenen</t>
+          <t>tärkeä</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>important</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3213,12 +3213,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>nuo</t>
+          <t>päällä</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>those</t>
+          <t>(to be) on</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3228,12 +3228,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>tärkeä</t>
+          <t>lähin</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>closest</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3243,12 +3243,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>päällä</t>
+          <t>käyttää</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>(to be) on</t>
+          <t>to use</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3258,12 +3258,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>lähin</t>
+          <t>nälkä</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>hunger</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3273,12 +3273,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>käyttää</t>
+          <t>museo</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>to use</t>
+          <t>museum</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3288,12 +3288,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>nälkä</t>
+          <t>Japani</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hunger</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3303,12 +3303,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>tammi</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>museum</t>
+          <t>oak</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3318,12 +3318,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Japani</t>
+          <t>omistaa</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>to own, to have property</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3333,12 +3333,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tammi</t>
+          <t>saada</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oak</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3348,12 +3348,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>pelata</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>to play (a game)</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3363,12 +3363,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>omistaa</t>
+          <t>lahjakas</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>to own, to have property</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3378,12 +3378,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>saada</t>
+          <t>tomaatti</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>tomato</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3393,12 +3393,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>pelata</t>
+          <t>joka</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>to play (a game)</t>
+          <t>every (determiner)</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3408,12 +3408,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lahjakas</t>
+          <t>musta</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3423,12 +3423,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tomaatti</t>
+          <t>lelu</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>tomato</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,12 +3438,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>joka</t>
+          <t>sitruuna</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>every (determiner)</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3453,12 +3453,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>musta</t>
+          <t>yhdeksän</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3468,12 +3468,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>lelu</t>
+          <t>elää</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>to live (as animal)</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3483,12 +3483,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sitruuna</t>
+          <t>punainen</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3498,12 +3498,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>yhdeksän</t>
+          <t>oikein</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>correct (adverb)</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3513,12 +3513,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>elää</t>
+          <t>linna</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>to live (as animal)</t>
+          <t>castle</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3528,12 +3528,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>punainen</t>
+          <t>kaunis</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3543,12 +3543,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>pitkä</t>
+          <t>seinässä</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>plugged in</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3558,12 +3558,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>oikein</t>
+          <t>meillä</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>correct (adverb)</t>
+          <t>we have</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3573,12 +3573,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>linna</t>
+          <t>korkea</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>castle</t>
+          <t>tall (not humans)</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3588,12 +3588,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>kaunis</t>
+          <t>hymy</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>beautiful</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,12 +3603,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>seinässä</t>
+          <t>aasialainen</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>plugged in</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3618,12 +3618,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>meillä</t>
+          <t>bändi</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>we have</t>
+          <t>band</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3633,12 +3633,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>korkea</t>
+          <t>perhe</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>tall (not humans)</t>
+          <t>family</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3648,12 +3648,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>hymy</t>
+          <t>Rooma</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3663,12 +3663,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>vain</t>
+          <t>Otso</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>Otso</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3678,12 +3678,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>harvoin</t>
+          <t>mutta</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>seldom</t>
+          <t>but</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3693,12 +3693,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>aasialainen</t>
+          <t>sika</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3708,12 +3708,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>bändi</t>
+          <t>märkä</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>band</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3723,12 +3723,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>perhe</t>
+          <t>australialainen</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3738,12 +3738,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Rooma</t>
+          <t>vihainen</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3753,12 +3753,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Otso</t>
+          <t>oranssi</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Otso</t>
+          <t>orange (color)</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>mutta</t>
+          <t>norjalainen</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>Norwegian person</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3783,12 +3783,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sika</t>
+          <t>tämä</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>this</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3798,12 +3798,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>märkä</t>
+          <t>usein</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>often</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>australialainen</t>
+          <t>rauhassa</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>some quiet</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,12 +3828,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>vihainen</t>
+          <t>nähdä</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>to see</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>oranssi</t>
+          <t>vanha</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>orange (color)</t>
+          <t>old</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,12 +3858,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>norjalainen</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Norwegian person</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3873,12 +3873,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>tämä</t>
+          <t>väsynyt</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>tired</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>usein</t>
+          <t>undulaatti</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>parakeet</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>rauhassa</t>
+          <t>suosittu</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>some quiet</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,12 +3918,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>nähdä</t>
+          <t>äiti</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>to see</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3933,12 +3933,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>vanha</t>
+          <t>myöhemmin</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>later</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,12 +3948,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3963,12 +3963,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>väsynyt</t>
+          <t>maistaa</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>tired</t>
+          <t>to taste, to try (a dish)</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3978,12 +3978,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>undulaatti</t>
+          <t>kuulua</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>parakeet</t>
+          <t>to be heard</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3993,12 +3993,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>suosittu</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4008,12 +4008,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>äiti</t>
+          <t>vauva</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4023,12 +4023,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>myöhemmin</t>
+          <t>kirkko</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4038,12 +4038,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>myrkyllinen</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>poisonous, venomous</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4053,12 +4053,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>maistaa</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>to taste, to try (a dish)</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4068,12 +4068,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>kuulua</t>
+          <t>siili</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>to be heard</t>
+          <t>hedgehog</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,12 +4083,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4098,12 +4098,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>vauva</t>
+          <t>vesi</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4113,12 +4113,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>kirkko</t>
+          <t>mikrofoni</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>microphone</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,12 +4128,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>myrkyllinen</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>poisonous, venomous</t>
+          <t>soil, ground</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4143,12 +4143,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>suola</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>butter</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4158,12 +4158,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>siili</t>
+          <t>kissa</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>hedgehog</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4173,12 +4173,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>iloinen</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>jolly</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4188,12 +4188,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>vesi</t>
+          <t>rakastaa</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>to love</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4203,12 +4203,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>mikrofoni</t>
+          <t>miksi</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>microphone</t>
+          <t>why</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4218,12 +4218,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>mur</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>soil, ground</t>
+          <t>growl (bear sound)</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4233,12 +4233,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>suola</t>
+          <t>viro</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>Estonian language</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4248,12 +4248,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>kissa</t>
+          <t>anteeksi</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>excuse me</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4263,12 +4263,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>iloinen</t>
+          <t>tyyni</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>jolly</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4278,12 +4278,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rakastaa</t>
+          <t>kysymys</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>to love</t>
+          <t>question</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4293,12 +4293,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>miksi</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>to smell</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4308,12 +4308,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>mur</t>
+          <t>päivä</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>growl (bear sound)</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4323,12 +4323,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>viro</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Estonian language</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>anteeksi</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>excuse me</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>tyyni</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>kysymys</t>
+          <t>tarpeeksi</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>sinulla</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>to smell</t>
+          <t>you (singular) have</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,12 +4398,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>päivä</t>
+          <t>hys</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>vaan</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>but (positive)</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>sekunti</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>second (a measure of time)</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>vähän</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>a little bit of</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>tarpeeksi</t>
+          <t>iso</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,12 +4473,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>sinulla</t>
+          <t>suomi</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>you (singular) have</t>
+          <t>Finnish language</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>hys</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>vaan</t>
+          <t>hillo</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>but (positive)</t>
+          <t>jam</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>sekunti</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>second (a measure of time)</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,12 +4533,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>vähän</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>a little bit of</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4548,12 +4548,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>myöhä</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>late</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4563,12 +4563,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>suomi</t>
+          <t>jano</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Finnish language</t>
+          <t>thirst</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4578,12 +4578,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4593,12 +4593,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>hillo</t>
+          <t>nykyään</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>jam</t>
+          <t>nowadays</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4608,12 +4608,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4623,12 +4623,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4638,12 +4638,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>myöhä</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4653,12 +4653,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jano</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>thirst</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,12 +4668,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>nykyään</t>
+          <t>rehellinen</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>nowadays</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,12 +4698,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>kävellä</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>jää</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4728,12 +4728,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>orava</t>
+          <t>hyi</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>yuck</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>Espanja</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,12 +4758,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4773,12 +4773,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>rehellinen</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4788,12 +4788,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kävellä</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,12 +4803,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jää</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>to look for, to search</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4818,12 +4818,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>hyi</t>
+          <t>maito</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>yuck</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4833,12 +4833,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Espanja</t>
+          <t>koska</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>because</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4848,12 +4848,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>enää</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>no longer, anymore</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4863,12 +4863,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>to look for, to search</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>maito</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>koska</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>enää</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>no longer, anymore</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>täällä</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>over here</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>they (inanimate)</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>korjata</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>to repair</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>oma</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>(my) own</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>aamu</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>kamera</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>täällä</t>
+          <t>oho</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>over here</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>they (inanimate)</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>korjata</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>to repair</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>oma</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(my) own</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>aamu</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>oho</t>
+          <t>ihminen</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,12 +5148,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5163,12 +5163,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5178,12 +5178,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ihminen</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>suomalainen</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>Finnish person</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>edes</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>saksa</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>German language</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>kilo</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>suomalainen</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Finnish person</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>saksa</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>German language</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>karhu</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>susi</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>karhu</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>susi</t>
+          <t>koira</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>comfortable</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>koira</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>comfortable</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>sinivalkoinen</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>blue and white</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sinivalkoinen</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>blue and white</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>vielä</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>akku</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>vadelma</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hindi (language)</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>vielä</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>akku</t>
+          <t>kuin</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>as (comparison)</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>vadelma</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>raspberry</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>hindi</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Hindi (language)</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>kuin</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>as (comparison)</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>kirkas</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>likainen</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>kirkas</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>likainen</t>
+          <t>Viro</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>onnea</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>good luck</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>kenguru</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>kangaroo</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>may, can, to be able to</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>röh</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>oink</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Viro</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>onnea</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>good luck</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>kenguru</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>kangaroo</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>sininen</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>may, can, to be able to</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>röh</t>
+          <t>islantilainen</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>oink</t>
+          <t>Icelandic person</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>lemmikki</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>the whole</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>islantilainen</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Icelandic person</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>lemmikki</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>the whole</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>stadion</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>stadium</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>sydän</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>taas</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>again</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>stadion</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>stadium</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>sydän</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>taas</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>hei</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Korean language</t>
+          <t>hi (greeting)</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>ranska</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>French language</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>to spend (time, vacation)</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>hei</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>hi (greeting)</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>tasan</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>even, exactly (time)</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>kartta</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ranska</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>French language</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>ahkera</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>hardworking</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>koti-ikävä</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>banaani</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>to spend (time, vacation)</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>lattia</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>floor (the type you stand on)</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>tasan</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>even, exactly (time)</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>kartta</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ahkera</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>hardworking</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>sillä</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>(it) has</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>banaani</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>lattia</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>floor (the type you stand on)</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>pieni</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>salaatti</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>what (time)</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>sillä</t>
+          <t>kerma</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>(it) has</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>pieni</t>
+          <t>ainakin</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>at least</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>salaatti</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>puisto</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>kerma</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>cream</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ainakin</t>
+          <t>tuoli</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>at least</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>puisto</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>to have stopped (clock, watch)</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>tuoli</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>viineri</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>Danish pastry</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,181 +8718,181 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>lumi</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>harvoin</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>seldom</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>hyvä</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>good (adjective)</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>pitkä</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>korea</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>Korean language</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>vain</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>only</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>sininen</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>liikaa</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>too much</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>kilo</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>kilogram</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>to have stopped (clock, watch)</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>viineri</t>
+          <t>edes</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Danish pastry</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="3">
@@ -3423,12 +3423,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>lelu</t>
+          <t>sitruuna</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,12 +3438,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sitruuna</t>
+          <t>yhdeksän</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3453,12 +3453,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>yhdeksän</t>
+          <t>elää</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>to live (as animal)</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3468,12 +3468,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>elää</t>
+          <t>punainen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>to live (as animal)</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3483,12 +3483,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>punainen</t>
+          <t>oikein</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>correct (adverb)</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3498,12 +3498,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>oikein</t>
+          <t>linna</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>correct (adverb)</t>
+          <t>castle</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3513,12 +3513,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>linna</t>
+          <t>kaunis</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>castle</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3528,12 +3528,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>kaunis</t>
+          <t>seinässä</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>beautiful</t>
+          <t>plugged in</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3543,12 +3543,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>seinässä</t>
+          <t>meillä</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>plugged in</t>
+          <t>we have</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3558,12 +3558,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>meillä</t>
+          <t>korkea</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>we have</t>
+          <t>tall (not humans)</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3573,12 +3573,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>korkea</t>
+          <t>hymy</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>tall (not humans)</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3588,12 +3588,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>hymy</t>
+          <t>aasialainen</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,12 +3603,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>aasialainen</t>
+          <t>bändi</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>band</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3618,12 +3618,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>bändi</t>
+          <t>perhe</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>band</t>
+          <t>family</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3633,12 +3633,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>perhe</t>
+          <t>Rooma</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3648,12 +3648,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Rooma</t>
+          <t>Otso</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Otso</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3663,12 +3663,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Otso</t>
+          <t>mutta</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Otso</t>
+          <t>but</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3678,12 +3678,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mutta</t>
+          <t>sika</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3693,12 +3693,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sika</t>
+          <t>märkä</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3708,12 +3708,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>märkä</t>
+          <t>australialainen</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3723,12 +3723,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>australialainen</t>
+          <t>vihainen</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3738,12 +3738,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>vihainen</t>
+          <t>oranssi</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>orange (color)</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3753,12 +3753,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>oranssi</t>
+          <t>norjalainen</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>orange (color)</t>
+          <t>Norwegian person</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>norjalainen</t>
+          <t>tämä</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Norwegian person</t>
+          <t>this</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3783,12 +3783,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tämä</t>
+          <t>usein</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>often</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3798,12 +3798,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>usein</t>
+          <t>rauhassa</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>some quiet</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>rauhassa</t>
+          <t>nähdä</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>some quiet</t>
+          <t>to see</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,12 +3828,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>nähdä</t>
+          <t>vanha</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>to see</t>
+          <t>old</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>vanha</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,12 +3858,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>väsynyt</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>tired</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3873,12 +3873,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>väsynyt</t>
+          <t>undulaatti</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>tired</t>
+          <t>parakeet</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>undulaatti</t>
+          <t>suosittu</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>parakeet</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>suosittu</t>
+          <t>äiti</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,12 +3918,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>äiti</t>
+          <t>myöhemmin</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>later</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3933,12 +3933,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>myöhemmin</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,12 +3948,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>maistaa</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>to taste, to try (a dish)</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3963,12 +3963,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>maistaa</t>
+          <t>kuulua</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>to taste, to try (a dish)</t>
+          <t>to be heard</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3978,12 +3978,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>kuulua</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>to be heard</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3993,12 +3993,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>vauva</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4008,12 +4008,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>vauva</t>
+          <t>kirkko</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4023,12 +4023,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>kirkko</t>
+          <t>myrkyllinen</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>poisonous, venomous</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4038,12 +4038,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>myrkyllinen</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>poisonous, venomous</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4053,12 +4053,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>siili</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>butter</t>
+          <t>hedgehog</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4068,12 +4068,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>siili</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>hedgehog</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,12 +4083,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>vesi</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4098,12 +4098,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>vesi</t>
+          <t>mikrofoni</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>microphone</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4113,12 +4113,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>mikrofoni</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>microphone</t>
+          <t>soil, ground</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,12 +4128,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>suola</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>soil, ground</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4143,12 +4143,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>suola</t>
+          <t>kissa</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4158,12 +4158,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>kissa</t>
+          <t>iloinen</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>jolly</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4173,12 +4173,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>iloinen</t>
+          <t>rakastaa</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>jolly</t>
+          <t>to love</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4188,12 +4188,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>rakastaa</t>
+          <t>miksi</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>to love</t>
+          <t>why</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4203,12 +4203,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>miksi</t>
+          <t>mur</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>growl (bear sound)</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4218,12 +4218,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>mur</t>
+          <t>viro</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>growl (bear sound)</t>
+          <t>Estonian language</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4233,12 +4233,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>viro</t>
+          <t>anteeksi</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Estonian language</t>
+          <t>excuse me</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4248,12 +4248,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>anteeksi</t>
+          <t>tyyni</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>excuse me</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4263,12 +4263,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tyyni</t>
+          <t>kysymys</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>question</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4278,12 +4278,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>kysymys</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>to smell</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4293,12 +4293,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>päivä</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>to smell</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4308,12 +4308,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>päivä</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4323,12 +4323,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>tarpeeksi</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>tarpeeksi</t>
+          <t>sinulla</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>you (singular) have</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sinulla</t>
+          <t>hys</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>you (singular) have</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,12 +4398,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>hys</t>
+          <t>vaan</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>but (positive)</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>vaan</t>
+          <t>sekunti</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>but (positive)</t>
+          <t>second (a measure of time)</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>sekunti</t>
+          <t>vähän</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>second (a measure of time)</t>
+          <t>a little bit of</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>vähän</t>
+          <t>iso</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>a little bit of</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>suomi</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>Finnish language</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,12 +4473,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>suomi</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Finnish language</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>hillo</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>jam</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>hillo</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>jam</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,12 +4533,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>myöhä</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>late</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4548,12 +4548,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>myöhä</t>
+          <t>jano</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>thirst</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4563,12 +4563,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>jano</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>thirst</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4578,12 +4578,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>nykyään</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>nowadays</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4593,12 +4593,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nykyään</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>nowadays</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4608,12 +4608,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4623,12 +4623,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4638,12 +4638,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>orava</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4653,12 +4653,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,12 +4668,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>rehellinen</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>rehellinen</t>
+          <t>kävellä</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,12 +4698,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>kävellä</t>
+          <t>jää</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jää</t>
+          <t>hyi</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>yuck</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4728,12 +4728,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>hyi</t>
+          <t>Espanja</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>yuck</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Espanja</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,12 +4758,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4773,12 +4773,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4788,12 +4788,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>to look for, to search</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,12 +4803,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>maito</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>to look for, to search</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4818,12 +4818,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>maito</t>
+          <t>koska</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>because</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4833,12 +4833,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>koska</t>
+          <t>enää</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>no longer, anymore</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4848,12 +4848,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>enää</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>no longer, anymore</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4863,12 +4863,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kamera</t>
+          <t>täällä</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>over here</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>täällä</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>over here</t>
+          <t>they (inanimate)</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>korjata</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>they (inanimate)</t>
+          <t>to repair</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>korjata</t>
+          <t>oma</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>to repair</t>
+          <t>(my) own</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>oma</t>
+          <t>aamu</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>(my) own</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>aamu</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>oho</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>oho</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>ihminen</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ihminen</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,12 +5148,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5163,12 +5163,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5178,12 +5178,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>suomalainen</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>Finnish person</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>suomalainen</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Finnish person</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>saksa</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>German language</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>saksa</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>German language</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>karhu</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>karhu</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>susi</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>susi</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>koira</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>koira</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>comfortable</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>comfortable</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>sinivalkoinen</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>blue and white</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>sinivalkoinen</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>blue and white</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>vielä</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>vielä</t>
+          <t>akku</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>akku</t>
+          <t>vadelma</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>vadelma</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>raspberry</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>Hindi (language)</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>hindi</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Hindi (language)</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>kuin</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>as (comparison)</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>kuin</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>as (comparison)</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>kirkas</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>kirkas</t>
+          <t>likainen</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>likainen</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>Viro</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Viro</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>onnea</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>good luck</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>onnea</t>
+          <t>kenguru</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>good luck</t>
+          <t>kangaroo</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>kenguru</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>kangaroo</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>may, can, to be able to</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>röh</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>may, can, to be able to</t>
+          <t>oink</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>röh</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>oink</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>islantilainen</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>Icelandic person</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>islantilainen</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Icelandic person</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>lemmikki</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>lemmikki</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>the whole</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>the whole</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>stadion</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>stadium</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>stadion</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>stadium</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>sydän</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>sydän</t>
+          <t>taas</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>again</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>taas</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>hei</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>hi (greeting)</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>hei</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>hi (greeting)</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>ranska</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>French language</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ranska</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>French language</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>to spend (time, vacation)</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>to spend (time, vacation)</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>tasan</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>even, exactly (time)</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>tasan</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>even, exactly (time)</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>kartta</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>kartta</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>ahkera</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>hardworking</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ahkera</t>
+          <t>koti-ikävä</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>hardworking</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>banaani</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>banaani</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>lattia</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>floor (the type you stand on)</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>lattia</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>floor (the type you stand on)</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>sillä</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>(it) has</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>sillä</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>(it) has</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>pieni</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>pieni</t>
+          <t>salaatti</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>salaatti</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>what (time)</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>kerma</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>kerma</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>cream</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>ainakin</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>at least</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ainakin</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>at least</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>puisto</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>puisto</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>tuoli</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>tuoli</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>viineri</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>Danish pastry</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,16 +8703,16 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>viineri</t>
+          <t>lelu</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Danish pastry</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,33 +462,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>puhelin</t>
+          <t>violetti</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hei hei</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bye</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>puhelin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>huhuu</t>
+          <t>hei hei</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hoot (owl sound)</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>huhuu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>hoot (owl sound)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>syvä</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pretty, rather</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>syödä</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kalenteri</t>
+          <t>syvä</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>calendar</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>pretty, rather</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>syödä</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>to think (over), to consider</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>kalenteri</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>calendar</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>who/that/which (relative)</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>to think (over), to consider</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>who/that/which (relative)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mekko</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>näytelmä</t>
+          <t>mekko</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>play (theatre)</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>näytelmä</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>play (theatre)</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kokki</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>kokki</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1143,12 +1143,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,12 +1158,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>koru</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>piece of jewelry</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1173,12 +1173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ruokalista</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vessa</t>
+          <t>koru</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>restroom, toilet</t>
+          <t>piece of jewelry</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>ruokalista</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1218,12 +1218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>vessa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>restroom, toilet</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>opiskella</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>to study (in an educational institution)</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1248,12 +1248,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1263,12 +1263,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>opiskella</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>to study (in an educational institution)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1278,12 +1278,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sata</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1293,12 +1293,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>minkäkokoinen</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>what size</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1308,12 +1308,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>sata</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1323,12 +1323,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>miljoona</t>
+          <t>minkäkokoinen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>what size</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1338,12 +1338,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>miljoona</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>million</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1383,12 +1383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1398,12 +1398,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>muoti</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ravintola</t>
+          <t>muoti</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1443,12 +1443,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sarja</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1458,12 +1458,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>ravintola</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1473,12 +1473,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tarjoilija</t>
+          <t>sarja</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>series</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1503,12 +1503,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>elokuva</t>
+          <t>tarjoilija</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1518,12 +1518,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1533,12 +1533,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>viikko</t>
+          <t>elokuva</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>viisisataa</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ale</t>
+          <t>viikko</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kaksisataa</t>
+          <t>viisisataa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>appelsiini</t>
+          <t>ale</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>orange (fruit)</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1608,12 +1608,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hattu</t>
+          <t>kaksisataa</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>appelsiini</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>orange (fruit)</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1638,12 +1638,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>hattu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,12 +1653,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paita</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1668,12 +1668,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kemia</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1683,12 +1683,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>paita</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>metro(politan rail)</t>
+          <t>shirt</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1698,12 +1698,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>pitsa</t>
+          <t>kemia</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1713,12 +1713,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>vyö</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>metro(politan rail)</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1728,12 +1728,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>viini</t>
+          <t>pitsa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>vyö</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>violetti</t>
+          <t>viini</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>wine</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sovituskoppi</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fitting room</t>
+          <t>size</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1788,12 +1788,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kenellä</t>
+          <t>sovituskoppi</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>who (has) (question)</t>
+          <t>fitting room</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1803,12 +1803,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ei-mitään</t>
+          <t>kenellä</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>nothing</t>
+          <t>who (has) (question)</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1818,12 +1818,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ole hyvä</t>
+          <t>ei-mitään</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>here you are</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1833,12 +1833,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>päivänjatko</t>
+          <t>ole hyvä</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>continuation of a day</t>
+          <t>here you are</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1848,12 +1848,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>muutama</t>
+          <t>päivänjatko</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>a few</t>
+          <t>continuation of a day</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1863,12 +1863,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ruotsi</t>
+          <t>muutama</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>a few</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1878,12 +1878,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>kiina</t>
+          <t>Ruotsi</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chinese language</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1893,12 +1893,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>japani</t>
+          <t>kiina</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Japanese language</t>
+          <t>Chinese language</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1908,12 +1908,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>talo</t>
+          <t>japani</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>Japanese language</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>englanti</t>
+          <t>talo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>English language</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>englanti</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>English language</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Unkari</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1968,12 +1968,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>krokotiili</t>
+          <t>Unkari</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1983,12 +1983,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>apua</t>
+          <t>krokotiili</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1998,12 +1998,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>muusikko</t>
+          <t>apua</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>musician</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2013,12 +2013,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>yö</t>
+          <t>muusikko</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>musician</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2028,12 +2028,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>toimia</t>
+          <t>yö</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>to work</t>
+          <t>night</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2043,12 +2043,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sisukas</t>
+          <t>toimia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>trully determined</t>
+          <t>to work</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2058,12 +2058,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>laulaa</t>
+          <t>sisukas</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>trully determined</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2073,12 +2073,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>pitää</t>
+          <t>laulaa</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>needs to be</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2088,12 +2088,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>tulostin</t>
+          <t>pitää</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>needs to be</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2103,12 +2103,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>tuolla</t>
+          <t>tulostin</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>over there</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2118,12 +2118,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>villi</t>
+          <t>tuolla</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>wild</t>
+          <t>over there</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2133,12 +2133,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>villi</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>wild</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2148,12 +2148,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>pois</t>
+          <t>tee</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>away</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2163,12 +2163,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>olen</t>
+          <t>pois</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>(I) am</t>
+          <t>away</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2178,12 +2178,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vastaus</t>
+          <t>olen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>(I) am</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2193,12 +2193,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>vastaus</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2208,12 +2208,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>piirtää</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>to draw</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2223,12 +2223,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>iltapäivä</t>
+          <t>piirtää</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>to draw</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2238,12 +2238,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>kippis</t>
+          <t>iltapäivä</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>cheers</t>
+          <t>afternoon</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2253,12 +2253,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>järvi</t>
+          <t>kippis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>cheers</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2268,12 +2268,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>piha</t>
+          <t>järvi</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2283,12 +2283,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>pilvi</t>
+          <t>piha</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>yard</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2298,12 +2298,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>hiljainen</t>
+          <t>pilvi</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>quiet (adjective)</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2313,12 +2313,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>eläin</t>
+          <t>hiljainen</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>quiet (adjective)</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2328,12 +2328,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>eläin</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2343,12 +2343,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2358,12 +2358,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>hymyillä</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>to smile</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2373,12 +2373,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>hymyillä</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>to smile</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2388,12 +2388,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>tanssia</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>to dance</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2403,12 +2403,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Tallinna</t>
+          <t>tanssia</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>to dance</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2418,12 +2418,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>haistella</t>
+          <t>Tallinna</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>to sniff, to smell at</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2433,12 +2433,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>kinuski</t>
+          <t>haistella</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>kinusk</t>
+          <t>to sniff, to smell at</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2448,12 +2448,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>turvallinen</t>
+          <t>kinuski</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>kinusk</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2463,12 +2463,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kuulla</t>
+          <t>turvallinen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>to hear</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2478,12 +2478,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>kala</t>
+          <t>kuulla</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>to hear</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2493,12 +2493,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>niin</t>
+          <t>kala</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>so (degree)</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2508,12 +2508,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>makea</t>
+          <t>niin</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sweet (taste)</t>
+          <t>so (degree)</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2523,12 +2523,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>makea</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>sweet (taste)</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2538,12 +2538,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>läppäri</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>laptop</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2553,12 +2553,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>pistoke</t>
+          <t>läppäri</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>power plug</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4308,12 +4308,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4323,12 +4323,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>tarpeeksi</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>tarpeeksi</t>
+          <t>sinulla</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>you (singular) have</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sinulla</t>
+          <t>hys</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>you (singular) have</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>hys</t>
+          <t>vaan</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>but (positive)</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,12 +4398,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>vaan</t>
+          <t>sekunti</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>but (positive)</t>
+          <t>second (a measure of time)</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sekunti</t>
+          <t>vähän</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>second (a measure of time)</t>
+          <t>a little bit of</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>vähän</t>
+          <t>iso</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>a little bit of</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>suomi</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>Finnish language</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>suomi</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Finnish language</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,12 +4473,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>hillo</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>jam</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>hillo</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>jam</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>myöhä</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>late</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,12 +4533,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>myöhä</t>
+          <t>jano</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>thirst</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4548,12 +4548,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jano</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>thirst</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4563,12 +4563,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>nykyään</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>nowadays</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4578,12 +4578,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>nykyään</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>nowadays</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4593,12 +4593,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4608,12 +4608,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4623,12 +4623,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>orava</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>tango</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4638,12 +4638,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>tango</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4653,12 +4653,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>rehellinen</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,12 +4668,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>rehellinen</t>
+          <t>kävellä</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>kävellä</t>
+          <t>jää</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,12 +4698,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>jää</t>
+          <t>hyi</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>yuck</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>hyi</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>yuck</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4728,12 +4728,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Espanja</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,12 +4758,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>to look for, to search</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4773,12 +4773,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>maito</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4788,12 +4788,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>koska</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>to look for, to search</t>
+          <t>because</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,12 +4803,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>maito</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4818,12 +4818,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>koska</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4833,12 +4833,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>enää</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>no longer, anymore</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4848,12 +4848,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4863,12 +4863,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>täällä</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>over here</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>they (inanimate)</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>kamera</t>
+          <t>korjata</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>to repair</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>täällä</t>
+          <t>oma</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>over here</t>
+          <t>(my) own</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>aamu</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>they (inanimate)</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>korjata</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>to repair</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>oma</t>
+          <t>oho</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>(my) own</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>aamu</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>oho</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>ihminen</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ihminen</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,12 +5148,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5163,12 +5163,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5178,12 +5178,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>suomalainen</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>Finnish person</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>suomalainen</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Finnish person</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>saksa</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>German language</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>saksa</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>German language</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>karhu</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>bear</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>karhu</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>bear</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>susi</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>wolf</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>susi</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>koira</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>Pyry</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>comfortable</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>koira</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Pyry</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>comfortable</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>sinivalkoinen</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>blue and white</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>sinivalkoinen</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>blue and white</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>mämmi</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>mämmi</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>vielä</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>akku</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>vadelma</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>vielä</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>akku</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>Hindi (language)</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>vadelma</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>raspberry</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>hindi</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Hindi (language)</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>kuin</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>as (comparison)</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>sauna</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>kuin</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>as (comparison)</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>sauna</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>kirkas</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>likainen</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>kirkas</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>likainen</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>Viro</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Viro</t>
+          <t>onnea</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>good luck</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>kenguru</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>kangaroo</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>onnea</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>good luck</t>
+          <t>may, can, to be able to</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>kenguru</t>
+          <t>röh</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>kangaroo</t>
+          <t>oink</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>may, can, to be able to</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>röh</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>oink</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>islantilainen</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>Icelandic person</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>islantilainen</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Icelandic person</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>lemmikki</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>lemmikki</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>the whole</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>the whole</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>quickly</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>stadion</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>stadium</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>stadion</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>stadium</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>sydän</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>taas</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>again</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>sydän</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>taas</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>again</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>hei</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>hi (greeting)</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>hei</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>hi (greeting)</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>kantele</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>ranska</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>French language</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>kantele</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ranska</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>French language</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>to spend (time, vacation)</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>tasan</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>to spend (time, vacation)</t>
+          <t>even, exactly (time)</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>kartta</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>tasan</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>even, exactly (time)</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>kartta</t>
+          <t>ahkera</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>hardworking</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>koti-ikävä</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>banaani</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ahkera</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>hardworking</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>banaani</t>
+          <t>lattia</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>floor (the type you stand on)</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>lattia</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>floor (the type you stand on)</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>sillä</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>(it) has</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>sillä</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>(it) has</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>pieni</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>salaatti</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>pieni</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>what (time)</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>salaatti</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>kerma</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>kerma</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>cream</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>ainakin</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>at least</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>puisto</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ainakin</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>at least</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>puisto</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>tuoli</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>tuoli</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>viineri</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>Danish pastry</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,61 +8643,61 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>enää</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>no longer, anymore</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>pistoke</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>power plug</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>viineri</t>
+          <t>Espanja</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Danish pastry</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-19</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="3">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -453,57 +453,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>ei mitään</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(s/he, it) is</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-32</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>on</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>(s/he, it) is</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>violetti</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>violetti</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>puhelin</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hei hei</t>
+          <t>puhelin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bye</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>hei hei</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>huhuu</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hoot (owl sound)</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>huhuu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>hoot (owl sound)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>syvä</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>syvä</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pretty, rather</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>syödä</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>pretty, rather</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kalenteri</t>
+          <t>syödä</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>calendar</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>kalenteri</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>calendar</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>to think (over), to consider</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>to think (over), to consider</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>who/that/which (relative)</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>who/that/which (relative)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mekko</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>mekko</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>näytelmä</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>play (theatre)</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>näytelmä</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>play (theatre)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kokki</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1143,12 +1143,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>kokki</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,12 +1158,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1173,12 +1173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>koru</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>piece of jewelry</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ruokalista</t>
+          <t>koru</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>piece of jewelry</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1218,12 +1218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vessa</t>
+          <t>ruokalista</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>restroom, toilet</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>vessa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>restroom, toilet</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1248,12 +1248,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1263,12 +1263,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>opiskella</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>to study (in an educational institution)</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1278,12 +1278,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>opiskella</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>to study (in an educational institution)</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1293,12 +1293,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1308,12 +1308,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sata</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1323,12 +1323,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>minkäkokoinen</t>
+          <t>sata</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>what size</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1338,12 +1338,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>minkäkokoinen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>what size</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>miljoona</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>miljoona</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>million</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1383,12 +1383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1398,12 +1398,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>muoti</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>fashion</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1443,12 +1443,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>muoti</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1458,12 +1458,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ravintola</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1473,12 +1473,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sarja</t>
+          <t>ravintola</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>sarja</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>euro</t>
+          <t>series</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1503,12 +1503,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>tarjoilija</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>euro</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1518,12 +1518,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>tarjoilija</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1533,12 +1533,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>elokuva</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>elokuva</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>viikko</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>viisisataa</t>
+          <t>viikko</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ale</t>
+          <t>viisisataa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1608,12 +1608,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kaksisataa</t>
+          <t>ale</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>appelsiini</t>
+          <t>kaksisataa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>orange (fruit)</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1638,12 +1638,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hattu</t>
+          <t>appelsiini</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>orange (fruit)</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,12 +1653,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>hattu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1668,12 +1668,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1683,12 +1683,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>paita</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1698,12 +1698,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kemia</t>
+          <t>paita</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>shirt</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1713,12 +1713,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kemia</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>metro(politan rail)</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1728,12 +1728,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pitsa</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>metro(politan rail)</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vyö</t>
+          <t>pitsa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>viini</t>
+          <t>vyö</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>koko</t>
+          <t>viini</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>wine</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1788,12 +1788,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sovituskoppi</t>
+          <t>koko</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fitting room</t>
+          <t>size</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1803,12 +1803,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>kenellä</t>
+          <t>sovituskoppi</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>who (has) (question)</t>
+          <t>fitting room</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1818,12 +1818,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ei-mitään</t>
+          <t>kenellä</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nothing</t>
+          <t>who (has) (question)</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -7863,7 +7863,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>koti-ikävä</t>
+          <t>koti ikävä</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
